--- a/Facebook TC.xlsx
+++ b/Facebook TC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user 32\Desktop\FWD\Mobile testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2533E508-CBF0-434A-A5AF-F25085122853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A793AE9-7495-4897-B481-5ADA37E6D0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4545" windowWidth="29040" windowHeight="15840" xr2:uid="{A4C2D6F8-4CA4-432D-88A5-8CE106744DF9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="500">
   <si>
     <t>Type</t>
   </si>
@@ -1185,450 +1185,603 @@
     <t>Verify user can save the story to their phone</t>
   </si>
   <si>
+    <t>Verify user cannot view a person's story if they do not allow it</t>
+  </si>
+  <si>
+    <t>Verify user cannot view a page's story if they do not allow it</t>
+  </si>
+  <si>
+    <t>Verify user cannot share a page's story if they do not allow it</t>
+  </si>
+  <si>
+    <t>Verify user cannot share a person's story if they do not allow it</t>
+  </si>
+  <si>
+    <t>Verify user cannot add stickers to a previously created post</t>
+  </si>
+  <si>
+    <t>Verify user cannot add text to a previously created post</t>
+  </si>
+  <si>
+    <t>Verify user cannot add music to a previously created post</t>
+  </si>
+  <si>
+    <t>Verify user cannot delete another users's story</t>
+  </si>
+  <si>
+    <t>Verify user cannot delete a page's story</t>
+  </si>
+  <si>
+    <t>Verify user cannot view a person's story if it was posted more than 24 hours ago</t>
+  </si>
+  <si>
+    <t>Verify user cannot view a page's story if it was posted more than 24 hours ago</t>
+  </si>
+  <si>
+    <t>Verify user cannot comment on a person's story if they do not allow it</t>
+  </si>
+  <si>
+    <t>Verify user cannot comment on a page's story if they do not allow it</t>
+  </si>
+  <si>
+    <t>Verify user cannot add more than 15 photos to a story at once</t>
+  </si>
+  <si>
+    <t>Verify user cannot add more than 15 videos to a story at once</t>
+  </si>
+  <si>
+    <t>Verify user cannot delete another person's comment on another person's story</t>
+  </si>
+  <si>
+    <t>Verify user cannot edit another person's comment on another person's story</t>
+  </si>
+  <si>
+    <t>Verify time of story if displayed next to the name of the story creator</t>
+  </si>
+  <si>
+    <t>Verify the privacy icon is displayed next to the name of the story creator</t>
+  </si>
+  <si>
+    <t>verify the text in a story is displayed correctly</t>
+  </si>
+  <si>
+    <t>Verify the reaction buttons are displayed under a story</t>
+  </si>
+  <si>
+    <t>Verify the "share" button if displayed under a story</t>
+  </si>
+  <si>
+    <t>Verify that when clicking on a story, the story is displayed in the center of the screen</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>Messages Positive Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_001</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_002</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_003</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_004</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_005</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_006</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_007</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_008</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_009</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_010</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_011</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_012</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_013</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_014</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_015</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_016</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_017</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_018</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_019</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_POS_020</t>
+  </si>
+  <si>
+    <t>Messages Negative Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_001</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_002</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_003</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_004</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_005</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_006</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_007</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_008</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_009</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_010</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_011</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_012</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_013</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_014</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_015</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_016</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_017</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_018</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_019</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_NEG_020</t>
+  </si>
+  <si>
+    <t>Messages : GUI Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_001</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_002</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_003</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_004</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_005</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_006</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_007</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_008</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_009</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_010</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_011</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_012</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_013</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_014</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_015</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_016</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_017</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_018</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_019</t>
+  </si>
+  <si>
+    <t>Facebook_Messages_GUI_020</t>
+  </si>
+  <si>
+    <t>Verify user can send a picture as a message from outside the facebook app</t>
+  </si>
+  <si>
+    <t>Verify user can send a video as a message from outside the facebook app</t>
+  </si>
+  <si>
+    <t>Verify user can send a text message</t>
+  </si>
+  <si>
+    <t>Verify user can send a picture on their phone as a message</t>
+  </si>
+  <si>
+    <t>Verify user can send a video on their phone as a message</t>
+  </si>
+  <si>
+    <t>Verify user can send a picture using the front camera</t>
+  </si>
+  <si>
+    <t>Verify user can send a picture using the rear camera</t>
+  </si>
+  <si>
+    <t>Verify user can record and send a voice note</t>
+  </si>
+  <si>
+    <t>Verify user can send a thumbs up</t>
+  </si>
+  <si>
+    <t>Verify user can send a sticker</t>
+  </si>
+  <si>
+    <t>Verify user can send their live location</t>
+  </si>
+  <si>
+    <t>Verify user can stop sharing their live location</t>
+  </si>
+  <si>
+    <t>Verify user can send any location on the map</t>
+  </si>
+  <si>
+    <t>Verify user can send a URL</t>
+  </si>
+  <si>
+    <t>Verify user can send a big thumbs up</t>
+  </si>
+  <si>
+    <t>Verify user can send a GIF</t>
+  </si>
+  <si>
+    <t>Verify user can react to messages</t>
+  </si>
+  <si>
+    <t>Verify user can forward messages</t>
+  </si>
+  <si>
+    <t>Verify user can reply to messages</t>
+  </si>
+  <si>
+    <t>Verify user can bump (resend) messages</t>
+  </si>
+  <si>
+    <t>Verify user cannot send a message to a person who is not a friend and doest not allow public messaging</t>
+  </si>
+  <si>
+    <t>Verify user cannot send a message to a person that blocked them</t>
+  </si>
+  <si>
+    <t>Verify user cannot see a message that was unsent</t>
+  </si>
+  <si>
+    <t>Verify user cannot see a live location that was sent more than 60 minutes ago</t>
+  </si>
+  <si>
+    <t>Verify user cannot see a live location that was stopped</t>
+  </si>
+  <si>
+    <t>Verify user cannot unsend another person's message</t>
+  </si>
+  <si>
+    <t>Verify user cannot unsee a message they saw</t>
+  </si>
+  <si>
+    <t>Verify user cannot remove a person from a group conversation if they are not admin</t>
+  </si>
+  <si>
+    <t>Verify user cannot remove a person as an adminof a group conversation if they are not admin</t>
+  </si>
+  <si>
+    <t>Verify use cannot stop another persons live location sharing</t>
+  </si>
+  <si>
+    <t>Verify use cannot set "members request" setting in a group if they are not an admin</t>
+  </si>
+  <si>
+    <t>Verify user cannot restore a conversation that was deleted</t>
+  </si>
+  <si>
+    <t>Verify user cannot see history of a secret conversation</t>
+  </si>
+  <si>
+    <t>Verify user cannot send a message to a person that restricted them</t>
+  </si>
+  <si>
+    <t>Verify user cannot see the history of conversation eith a person that restricted them</t>
+  </si>
+  <si>
+    <t>Verify user cannot send a message to a group they were removed from</t>
+  </si>
+  <si>
+    <t>Verify user cannot send a message with no internet connection</t>
+  </si>
+  <si>
+    <t>Verify user cannot remove a sent message from the reciever after they unsent it from their side only</t>
+  </si>
+  <si>
+    <t>Verify user cannot a to a group conversation a person that blocked them</t>
+  </si>
+  <si>
+    <t>Verify user cannot a to a group conversation a person that restricted them</t>
+  </si>
+  <si>
+    <t>Verify the profile picture of recipient is displayed left of the conversation</t>
+  </si>
+  <si>
+    <t>Verify the name of recipient is displayed on the conversation</t>
+  </si>
+  <si>
+    <t>Verify Conversations are displayed in a list</t>
+  </si>
+  <si>
+    <t>Verify time/date of last sent message is display on the right of the conversation</t>
+  </si>
+  <si>
+    <t>verify calls button is displayed in the bottom navigation menu</t>
+  </si>
+  <si>
+    <t>verify chats button is displayed in the bottom navigation menu</t>
+  </si>
+  <si>
+    <t>verify people button is displayed in the bottom navigation menu</t>
+  </si>
+  <si>
+    <t>verify stories button is displayed in the bottom navigation menu</t>
+  </si>
+  <si>
+    <t>verify setting button is displayed in the bottom navigation menu</t>
+  </si>
+  <si>
+    <t>Verify menu button is on the top left corner</t>
+  </si>
+  <si>
+    <t>Verify new message button is in the top right corner</t>
+  </si>
+  <si>
+    <t>verify search bar is above the online friends</t>
+  </si>
+  <si>
+    <t>Verify that in a conversation, the recipient name is at the top of the screen</t>
+  </si>
+  <si>
+    <t>Verify that in a conversation, the recipient active status is under their name</t>
+  </si>
+  <si>
+    <t>Verify that in a conversation, the voice call button is at the top right</t>
+  </si>
+  <si>
+    <t>Verify that in a conversation, the video call button is at the top right</t>
+  </si>
+  <si>
+    <t>Verify that in a conversation, the back button is at the top left</t>
+  </si>
+  <si>
+    <t>Verify that in a conversation, the thumbs up button is at the bottom right</t>
+  </si>
+  <si>
+    <t>Verify that in a conversation, the message text field is at the bottom</t>
+  </si>
+  <si>
+    <t>Verify that in a group conversation, all recipient names are listed at the top</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- click text
+4-enter text
+5- click done
+6-click share to story</t>
+  </si>
+  <si>
+    <t>story posted with the users entry</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- click music
+4-select music
+5- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- click boomerang
+4-record boomerang
+5- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- click green screen
+4-record green screen
+5- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- select photo
+4- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- select video
+4- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- click camera
+4-switch to front facing camera
+5- take photo
+6- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- click camera
+4-switch to rear facing camera
+5- take photo
+6- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3-click select multiple
+4- select multiple photos
+5- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3-click select multiple
+4- select multiple videos
+5- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3-click select multiple
+4- select photos and videos
+5- click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- select photo
+4- click music
+5- select music
+6-click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- select video
+4- click music
+5- select music
+6-click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- select photo
+4- click text
+5- enter text
+6-click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- select video
+4- click text
+5- enter text
+6-click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- select video
+4- click stickers
+5- select sticker and place it on the video
+6-click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- select video
+4- click effects
+5- select effect
+6-click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- select video
+4- click trim
+5- trim video and click done
+6-click share to story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- add a photo or video or music
+4- click save</t>
+  </si>
+  <si>
+    <t>story saved</t>
+  </si>
+  <si>
     <t xml:space="preserve">1- Open the Facebook mobile application
 2- Click add story
-3- </t>
-  </si>
-  <si>
-    <t>Verify user cannot view a person's story if they do not allow it</t>
-  </si>
-  <si>
-    <t>Verify user cannot view a page's story if they do not allow it</t>
-  </si>
-  <si>
-    <t>Verify user cannot share a page's story if they do not allow it</t>
-  </si>
-  <si>
-    <t>Verify user cannot share a person's story if they do not allow it</t>
-  </si>
-  <si>
-    <t>Verify user cannot add stickers to a previously created post</t>
-  </si>
-  <si>
-    <t>Verify user cannot add text to a previously created post</t>
-  </si>
-  <si>
-    <t>Verify user cannot add music to a previously created post</t>
-  </si>
-  <si>
-    <t>Verify user cannot delete another users's story</t>
-  </si>
-  <si>
-    <t>Verify user cannot delete a page's story</t>
-  </si>
-  <si>
-    <t>Verify user cannot view a person's story if it was posted more than 24 hours ago</t>
-  </si>
-  <si>
-    <t>Verify user cannot view a page's story if it was posted more than 24 hours ago</t>
-  </si>
-  <si>
-    <t>Verify user cannot comment on a person's story if they do not allow it</t>
-  </si>
-  <si>
-    <t>Verify user cannot comment on a page's story if they do not allow it</t>
-  </si>
-  <si>
-    <t>Verify user cannot add more than 15 photos to a story at once</t>
-  </si>
-  <si>
-    <t>Verify user cannot add more than 15 videos to a story at once</t>
-  </si>
-  <si>
-    <t>Verify user cannot delete another person's comment on another person's story</t>
-  </si>
-  <si>
-    <t>Verify user cannot edit another person's comment on another person's story</t>
-  </si>
-  <si>
-    <t>Verify time of story if displayed next to the name of the story creator</t>
-  </si>
-  <si>
-    <t>Verify the privacy icon is displayed next to the name of the story creator</t>
-  </si>
-  <si>
-    <t>verify the text in a story is displayed correctly</t>
-  </si>
-  <si>
-    <t>Verify the reaction buttons are displayed under a story</t>
-  </si>
-  <si>
-    <t>Verify the "share" button if displayed under a story</t>
-  </si>
-  <si>
-    <t>Verify that when clicking on a story, the story is displayed in the center of the screen</t>
-  </si>
-  <si>
-    <t>Messages</t>
-  </si>
-  <si>
-    <t>Messages Positive Test Cases [Test Suite]</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_001</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_002</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_003</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_004</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_005</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_006</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_007</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_008</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_009</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_010</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_011</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_012</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_013</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_014</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_015</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_016</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_017</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_018</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_019</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_POS_020</t>
-  </si>
-  <si>
-    <t>Messages Negative Test Cases [Test Suite]</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_001</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_002</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_003</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_004</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_005</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_006</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_007</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_008</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_009</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_010</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_011</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_012</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_013</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_014</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_015</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_016</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_017</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_018</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_019</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_NEG_020</t>
-  </si>
-  <si>
-    <t>Messages : GUI Test Cases [Test Suite]</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_001</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_002</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_003</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_004</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_005</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_006</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_007</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_008</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_009</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_010</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_011</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_012</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_013</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_014</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_015</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_016</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_017</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_018</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_019</t>
-  </si>
-  <si>
-    <t>Facebook_Messages_GUI_020</t>
-  </si>
-  <si>
-    <t>Verify user can send a picture as a message from outside the facebook app</t>
-  </si>
-  <si>
-    <t>Verify user can send a video as a message from outside the facebook app</t>
-  </si>
-  <si>
-    <t>Verify user can send a text message</t>
-  </si>
-  <si>
-    <t>Verify user can send a picture on their phone as a message</t>
-  </si>
-  <si>
-    <t>Verify user can send a video on their phone as a message</t>
-  </si>
-  <si>
-    <t>Verify user can send a picture using the front camera</t>
-  </si>
-  <si>
-    <t>Verify user can send a picture using the rear camera</t>
-  </si>
-  <si>
-    <t>Verify user can record and send a voice note</t>
-  </si>
-  <si>
-    <t>Verify user can send a thumbs up</t>
-  </si>
-  <si>
-    <t>Verify user can send a sticker</t>
-  </si>
-  <si>
-    <t>Verify user can send their live location</t>
-  </si>
-  <si>
-    <t>Verify user can stop sharing their live location</t>
-  </si>
-  <si>
-    <t>Verify user can send any location on the map</t>
-  </si>
-  <si>
-    <t>Verify user can send a URL</t>
-  </si>
-  <si>
-    <t>Verify user can send a big thumbs up</t>
-  </si>
-  <si>
-    <t>Verify user can send a GIF</t>
-  </si>
-  <si>
-    <t>Verify user can react to messages</t>
-  </si>
-  <si>
-    <t>Verify user can forward messages</t>
-  </si>
-  <si>
-    <t>Verify user can reply to messages</t>
-  </si>
-  <si>
-    <t>Verify user can bump (resend) messages</t>
-  </si>
-  <si>
-    <t>Verify user cannot send a message to a person who is not a friend and doest not allow public messaging</t>
-  </si>
-  <si>
-    <t>Verify user cannot send a message to a person that blocked them</t>
-  </si>
-  <si>
-    <t>Verify user cannot see a message that was unsent</t>
-  </si>
-  <si>
-    <t>Verify user cannot see a live location that was sent more than 60 minutes ago</t>
-  </si>
-  <si>
-    <t>Verify user cannot see a live location that was stopped</t>
-  </si>
-  <si>
-    <t>Verify user cannot unsend another person's message</t>
-  </si>
-  <si>
-    <t>Verify user cannot unsee a message they saw</t>
-  </si>
-  <si>
-    <t>Verify user cannot remove a person from a group conversation if they are not admin</t>
-  </si>
-  <si>
-    <t>Verify user cannot remove a person as an adminof a group conversation if they are not admin</t>
-  </si>
-  <si>
-    <t>Verify use cannot stop another persons live location sharing</t>
-  </si>
-  <si>
-    <t>Verify use cannot set "members request" setting in a group if they are not an admin</t>
-  </si>
-  <si>
-    <t>Verify user cannot restore a conversation that was deleted</t>
-  </si>
-  <si>
-    <t>Verify user cannot see history of a secret conversation</t>
-  </si>
-  <si>
-    <t>Verify user cannot send a message to a person that restricted them</t>
-  </si>
-  <si>
-    <t>Verify user cannot see the history of conversation eith a person that restricted them</t>
-  </si>
-  <si>
-    <t>Verify user cannot send a message to a group they were removed from</t>
-  </si>
-  <si>
-    <t>Verify user cannot send a message with no internet connection</t>
-  </si>
-  <si>
-    <t>Verify user cannot remove a sent message from the reciever after they unsent it from their side only</t>
-  </si>
-  <si>
-    <t>Verify user cannot a to a group conversation a person that blocked them</t>
-  </si>
-  <si>
-    <t>Verify user cannot a to a group conversation a person that restricted them</t>
-  </si>
-  <si>
-    <t>Verify the profile picture of recipient is displayed left of the conversation</t>
-  </si>
-  <si>
-    <t>Verify the name of recipient is displayed on the conversation</t>
-  </si>
-  <si>
-    <t>Verify Conversations are displayed in a list</t>
-  </si>
-  <si>
-    <t>Verify time/date of last sent message is display on the right of the conversation</t>
-  </si>
-  <si>
-    <t>verify calls button is displayed in the bottom navigation menu</t>
-  </si>
-  <si>
-    <t>verify chats button is displayed in the bottom navigation menu</t>
-  </si>
-  <si>
-    <t>verify people button is displayed in the bottom navigation menu</t>
-  </si>
-  <si>
-    <t>verify stories button is displayed in the bottom navigation menu</t>
-  </si>
-  <si>
-    <t>verify setting button is displayed in the bottom navigation menu</t>
-  </si>
-  <si>
-    <t>Verify menu button is on the top left corner</t>
-  </si>
-  <si>
-    <t>Verify new message button is in the top right corner</t>
-  </si>
-  <si>
-    <t>verify search bar is above the online friends</t>
-  </si>
-  <si>
-    <t>Verify that in a conversation, the recipient name is at the top of the screen</t>
-  </si>
-  <si>
-    <t>Verify that in a conversation, the recipient active status is under their name</t>
-  </si>
-  <si>
-    <t>Verify that in a conversation, the voice call button is at the top right</t>
-  </si>
-  <si>
-    <t>Verify that in a conversation, the video call button is at the top right</t>
-  </si>
-  <si>
-    <t>Verify that in a conversation, the back button is at the top left</t>
-  </si>
-  <si>
-    <t>Verify that in a conversation, the thumbs up button is at the bottom right</t>
-  </si>
-  <si>
-    <t>Verify that in a conversation, the message text field is at the bottom</t>
-  </si>
-  <si>
-    <t>Verify that in a group conversation, all recipient names are listed at the top</t>
+3- add a photo or video or music
+4- click privacy
+5-set privacy and click save
+6-click share to story
+</t>
+  </si>
+  <si>
+    <t>story posted with selected privacy</t>
   </si>
 </sst>
 </file>
@@ -2080,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EF27CA-CBBA-4131-970C-58EA77CF5F37}">
   <dimension ref="A1:AC839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="134.6640625" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -2089,11 +2242,11 @@
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="95.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="116.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="81.5546875" customWidth="1"/>
     <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -2158,7 +2311,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="21.6" outlineLevel="1">
+    <row r="2" spans="1:29" ht="21.6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2191,7 +2344,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="3" spans="1:29" ht="21.6" hidden="1" outlineLevel="1">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -2224,7 +2377,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="4" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2269,7 +2422,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="5" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2314,7 +2467,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="6" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2359,7 +2512,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="151.19999999999999" outlineLevel="2">
+    <row r="7" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2404,7 +2557,7 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="151.19999999999999" outlineLevel="2">
+    <row r="8" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2449,7 +2602,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="9" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2647,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="10" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2539,7 +2692,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="11" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2584,7 +2737,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="12" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2629,7 +2782,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="151.19999999999999" outlineLevel="2">
+    <row r="13" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +2827,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="151.19999999999999" outlineLevel="2">
+    <row r="14" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2719,7 +2872,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="151.19999999999999" outlineLevel="2">
+    <row r="15" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2917,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="16" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -2809,7 +2962,7 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="17" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -2854,7 +3007,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="18" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -2899,7 +3052,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="19" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -2944,7 +3097,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="20" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -2989,7 +3142,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="21" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3034,7 +3187,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="22" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3079,7 +3232,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="23" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3124,7 +3277,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" ht="21.6" outlineLevel="1">
+    <row r="24" spans="1:29" ht="21.6" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A24" s="10" t="s">
         <v>15</v>
       </c>
@@ -3157,7 +3310,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="25" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -3202,7 +3355,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="26" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3400,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="27" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -3292,7 +3445,7 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="28" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -3337,7 +3490,7 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="29" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -3382,7 +3535,7 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="30" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -3427,7 +3580,7 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="31" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -3472,7 +3625,7 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="32" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -3517,7 +3670,7 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="33" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
@@ -3562,7 +3715,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="34" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -3607,7 +3760,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="35" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -3652,7 +3805,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="36" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
@@ -3697,7 +3850,7 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="37" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -3742,7 +3895,7 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="38" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -3787,7 +3940,7 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="39" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -3832,7 +3985,7 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
     </row>
-    <row r="40" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="40" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -3877,7 +4030,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="41" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A41" s="5" t="s">
         <v>11</v>
       </c>
@@ -3922,7 +4075,7 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="42" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -3967,7 +4120,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="43" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
@@ -4012,7 +4165,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="44" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A44" s="5" t="s">
         <v>11</v>
       </c>
@@ -4057,7 +4210,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="45" spans="1:29" ht="21.6" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A45" s="10" t="s">
         <v>13</v>
       </c>
@@ -4090,7 +4243,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" ht="409.6" outlineLevel="2">
+    <row r="46" spans="1:29" ht="409.6" hidden="1" outlineLevel="2">
       <c r="A46" s="5" t="s">
         <v>9</v>
       </c>
@@ -4135,7 +4288,7 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="47" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A47" s="5" t="s">
         <v>9</v>
       </c>
@@ -4180,7 +4333,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="48" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
@@ -4225,7 +4378,7 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="49" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -4270,7 +4423,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="50" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -4315,7 +4468,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="51" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -4360,7 +4513,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="52" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -4405,7 +4558,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
     </row>
-    <row r="53" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="53" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +4603,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="54" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -4495,7 +4648,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="55" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -4540,7 +4693,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="56" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -4585,7 +4738,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
     </row>
-    <row r="57" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="57" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
@@ -4630,7 +4783,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="58" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A58" s="5" t="s">
         <v>9</v>
       </c>
@@ -4675,7 +4828,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
     </row>
-    <row r="59" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="59" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -4720,7 +4873,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="60" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A60" s="5" t="s">
         <v>9</v>
       </c>
@@ -4765,7 +4918,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="61" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A61" s="5" t="s">
         <v>9</v>
       </c>
@@ -4810,7 +4963,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" ht="64.8" outlineLevel="2">
+    <row r="62" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -4855,7 +5008,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="63" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
@@ -4900,7 +5053,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="64" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A64" s="5" t="s">
         <v>9</v>
       </c>
@@ -4945,7 +5098,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="65" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
       <c r="A65" s="5" t="s">
         <v>9</v>
       </c>
@@ -4990,7 +5143,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29" ht="21.6">
+    <row r="66" spans="1:29" ht="21.6" collapsed="1">
       <c r="A66" s="10" t="s">
         <v>230</v>
       </c>
@@ -5023,7 +5176,7 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="1:29" ht="21.6">
+    <row r="67" spans="1:29" ht="21.6" outlineLevel="1">
       <c r="A67" s="10" t="s">
         <v>231</v>
       </c>
@@ -5056,7 +5209,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29" ht="64.8">
+    <row r="68" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A68" s="5" t="s">
         <v>10</v>
       </c>
@@ -5073,10 +5226,12 @@
         <v>37</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>330</v>
+        <v>477</v>
       </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="H68" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I68" s="7"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -5099,7 +5254,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" ht="64.8">
+    <row r="69" spans="1:29" ht="108" outlineLevel="2">
       <c r="A69" s="5" t="s">
         <v>10</v>
       </c>
@@ -5116,10 +5271,12 @@
         <v>37</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>330</v>
+        <v>479</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+      <c r="H69" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -5142,7 +5299,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29" ht="64.8">
+    <row r="70" spans="1:29" ht="108" outlineLevel="2">
       <c r="A70" s="5" t="s">
         <v>10</v>
       </c>
@@ -5159,10 +5316,12 @@
         <v>37</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -5185,7 +5344,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29" ht="64.8">
+    <row r="71" spans="1:29" ht="108" outlineLevel="2">
       <c r="A71" s="5" t="s">
         <v>10</v>
       </c>
@@ -5202,10 +5361,12 @@
         <v>37</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>330</v>
+        <v>481</v>
       </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+      <c r="H71" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -5228,7 +5389,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" ht="64.8">
+    <row r="72" spans="1:29" ht="86.4" outlineLevel="2">
       <c r="A72" s="5" t="s">
         <v>10</v>
       </c>
@@ -5245,10 +5406,12 @@
         <v>37</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>330</v>
+        <v>482</v>
       </c>
       <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -5271,7 +5434,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" ht="64.8">
+    <row r="73" spans="1:29" ht="86.4" outlineLevel="2">
       <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
@@ -5288,10 +5451,12 @@
         <v>37</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="H73" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -5314,7 +5479,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29" ht="64.8">
+    <row r="74" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A74" s="5" t="s">
         <v>10</v>
       </c>
@@ -5331,10 +5496,12 @@
         <v>37</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -5357,7 +5524,7 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" spans="1:29" ht="64.8">
+    <row r="75" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A75" s="5" t="s">
         <v>10</v>
       </c>
@@ -5374,10 +5541,12 @@
         <v>37</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -5400,7 +5569,7 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" spans="1:29" ht="64.8">
+    <row r="76" spans="1:29" ht="108" outlineLevel="2">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -5417,10 +5586,12 @@
         <v>37</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
       <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="H76" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -5443,7 +5614,7 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
     </row>
-    <row r="77" spans="1:29" ht="64.8">
+    <row r="77" spans="1:29" ht="108" outlineLevel="2">
       <c r="A77" s="5" t="s">
         <v>10</v>
       </c>
@@ -5460,10 +5631,12 @@
         <v>37</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>330</v>
+        <v>487</v>
       </c>
       <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -5486,7 +5659,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
     </row>
-    <row r="78" spans="1:29" ht="64.8">
+    <row r="78" spans="1:29" ht="108" outlineLevel="2">
       <c r="A78" s="5" t="s">
         <v>10</v>
       </c>
@@ -5503,10 +5676,12 @@
         <v>37</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>330</v>
+        <v>488</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="H78" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -5529,7 +5704,7 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
     </row>
-    <row r="79" spans="1:29" ht="64.8">
+    <row r="79" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A79" s="5" t="s">
         <v>10</v>
       </c>
@@ -5546,10 +5721,12 @@
         <v>37</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>330</v>
+        <v>491</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+      <c r="H79" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -5572,7 +5749,7 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
     </row>
-    <row r="80" spans="1:29" ht="64.8">
+    <row r="80" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A80" s="5" t="s">
         <v>10</v>
       </c>
@@ -5589,10 +5766,12 @@
         <v>37</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>330</v>
+        <v>489</v>
       </c>
       <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
+      <c r="H80" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -5615,7 +5794,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" spans="1:29" ht="64.8">
+    <row r="81" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A81" s="5" t="s">
         <v>10</v>
       </c>
@@ -5632,10 +5811,12 @@
         <v>37</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>330</v>
+        <v>492</v>
       </c>
       <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
+      <c r="H81" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
@@ -5658,7 +5839,7 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" spans="1:29" ht="64.8">
+    <row r="82" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A82" s="5" t="s">
         <v>10</v>
       </c>
@@ -5675,10 +5856,12 @@
         <v>37</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>330</v>
+        <v>490</v>
       </c>
       <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
+      <c r="H82" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -5701,7 +5884,7 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
     </row>
-    <row r="83" spans="1:29" ht="64.8">
+    <row r="83" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A83" s="5" t="s">
         <v>10</v>
       </c>
@@ -5718,10 +5901,12 @@
         <v>37</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>330</v>
+        <v>493</v>
       </c>
       <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
+      <c r="H83" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -5744,7 +5929,7 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
     </row>
-    <row r="84" spans="1:29" ht="64.8">
+    <row r="84" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -5761,10 +5946,12 @@
         <v>37</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>330</v>
+        <v>494</v>
       </c>
       <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
+      <c r="H84" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -5787,7 +5974,7 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
     </row>
-    <row r="85" spans="1:29" ht="64.8">
+    <row r="85" spans="1:29" ht="129.6" outlineLevel="2">
       <c r="A85" s="5" t="s">
         <v>10</v>
       </c>
@@ -5804,10 +5991,12 @@
         <v>37</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>330</v>
+        <v>495</v>
       </c>
       <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
+      <c r="H85" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -5830,7 +6019,7 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
     </row>
-    <row r="86" spans="1:29" ht="21.6">
+    <row r="86" spans="1:29" ht="151.19999999999999" outlineLevel="2">
       <c r="A86" s="5" t="s">
         <v>10</v>
       </c>
@@ -5846,9 +6035,13 @@
       <c r="E86" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F86" s="5"/>
+      <c r="F86" s="5" t="s">
+        <v>498</v>
+      </c>
       <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
+      <c r="H86" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -5871,7 +6064,7 @@
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
     </row>
-    <row r="87" spans="1:29" ht="21.6">
+    <row r="87" spans="1:29" ht="86.4" outlineLevel="2">
       <c r="A87" s="5" t="s">
         <v>10</v>
       </c>
@@ -5887,9 +6080,13 @@
       <c r="E87" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F87" s="5"/>
+      <c r="F87" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+      <c r="H87" s="5" t="s">
+        <v>497</v>
+      </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -5912,7 +6109,7 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
     </row>
-    <row r="88" spans="1:29" ht="21.6">
+    <row r="88" spans="1:29" ht="21.6" outlineLevel="1">
       <c r="A88" s="10" t="s">
         <v>252</v>
       </c>
@@ -5945,7 +6142,7 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
     </row>
-    <row r="89" spans="1:29" ht="21.6">
+    <row r="89" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A89" s="5" t="s">
         <v>11</v>
       </c>
@@ -5986,7 +6183,7 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
     </row>
-    <row r="90" spans="1:29" ht="21.6">
+    <row r="90" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A90" s="5" t="s">
         <v>11</v>
       </c>
@@ -6027,7 +6224,7 @@
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
     </row>
-    <row r="91" spans="1:29" ht="21.6">
+    <row r="91" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A91" s="5" t="s">
         <v>11</v>
       </c>
@@ -6068,7 +6265,7 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
     </row>
-    <row r="92" spans="1:29" ht="21.6">
+    <row r="92" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A92" s="5" t="s">
         <v>11</v>
       </c>
@@ -6079,7 +6276,7 @@
         <v>256</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>37</v>
@@ -6109,7 +6306,7 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
     </row>
-    <row r="93" spans="1:29" ht="21.6">
+    <row r="93" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -6120,7 +6317,7 @@
         <v>257</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>37</v>
@@ -6150,7 +6347,7 @@
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
     </row>
-    <row r="94" spans="1:29" ht="21.6">
+    <row r="94" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A94" s="5" t="s">
         <v>11</v>
       </c>
@@ -6161,7 +6358,7 @@
         <v>258</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>37</v>
@@ -6191,7 +6388,7 @@
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
     </row>
-    <row r="95" spans="1:29" ht="21.6">
+    <row r="95" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A95" s="5" t="s">
         <v>11</v>
       </c>
@@ -6202,7 +6399,7 @@
         <v>259</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>37</v>
@@ -6232,7 +6429,7 @@
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
     </row>
-    <row r="96" spans="1:29" ht="21.6">
+    <row r="96" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A96" s="5" t="s">
         <v>11</v>
       </c>
@@ -6243,7 +6440,7 @@
         <v>260</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>37</v>
@@ -6273,7 +6470,7 @@
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
     </row>
-    <row r="97" spans="1:29" ht="21.6">
+    <row r="97" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A97" s="5" t="s">
         <v>11</v>
       </c>
@@ -6284,7 +6481,7 @@
         <v>261</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>37</v>
@@ -6314,7 +6511,7 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
     </row>
-    <row r="98" spans="1:29" ht="21.6">
+    <row r="98" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A98" s="5" t="s">
         <v>11</v>
       </c>
@@ -6325,7 +6522,7 @@
         <v>262</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>37</v>
@@ -6355,7 +6552,7 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
     </row>
-    <row r="99" spans="1:29" ht="21.6">
+    <row r="99" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A99" s="5" t="s">
         <v>11</v>
       </c>
@@ -6366,7 +6563,7 @@
         <v>263</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>37</v>
@@ -6396,7 +6593,7 @@
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
     </row>
-    <row r="100" spans="1:29" ht="21.6">
+    <row r="100" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A100" s="5" t="s">
         <v>11</v>
       </c>
@@ -6407,7 +6604,7 @@
         <v>264</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>37</v>
@@ -6437,7 +6634,7 @@
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
     </row>
-    <row r="101" spans="1:29" ht="21.6">
+    <row r="101" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -6448,7 +6645,7 @@
         <v>265</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>37</v>
@@ -6478,7 +6675,7 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
     </row>
-    <row r="102" spans="1:29" ht="21.6">
+    <row r="102" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A102" s="5" t="s">
         <v>11</v>
       </c>
@@ -6489,7 +6686,7 @@
         <v>266</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>37</v>
@@ -6519,7 +6716,7 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
     </row>
-    <row r="103" spans="1:29" ht="21.6">
+    <row r="103" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A103" s="5" t="s">
         <v>11</v>
       </c>
@@ -6530,7 +6727,7 @@
         <v>267</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>37</v>
@@ -6560,7 +6757,7 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
     </row>
-    <row r="104" spans="1:29" ht="21.6">
+    <row r="104" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A104" s="5" t="s">
         <v>11</v>
       </c>
@@ -6571,7 +6768,7 @@
         <v>268</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>37</v>
@@ -6601,7 +6798,7 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
     </row>
-    <row r="105" spans="1:29" ht="21.6">
+    <row r="105" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A105" s="5" t="s">
         <v>11</v>
       </c>
@@ -6612,7 +6809,7 @@
         <v>269</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>37</v>
@@ -6642,7 +6839,7 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
     </row>
-    <row r="106" spans="1:29" ht="21.6">
+    <row r="106" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A106" s="5" t="s">
         <v>11</v>
       </c>
@@ -6653,7 +6850,7 @@
         <v>270</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>37</v>
@@ -6683,7 +6880,7 @@
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
     </row>
-    <row r="107" spans="1:29" ht="21.6">
+    <row r="107" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A107" s="5" t="s">
         <v>11</v>
       </c>
@@ -6694,7 +6891,7 @@
         <v>271</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>37</v>
@@ -6724,7 +6921,7 @@
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
     </row>
-    <row r="108" spans="1:29" ht="21.6">
+    <row r="108" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A108" s="5" t="s">
         <v>11</v>
       </c>
@@ -6735,7 +6932,7 @@
         <v>272</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>37</v>
@@ -6765,7 +6962,7 @@
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
     </row>
-    <row r="109" spans="1:29" ht="21.6">
+    <row r="109" spans="1:29" ht="21.6" outlineLevel="1">
       <c r="A109" s="10" t="s">
         <v>273</v>
       </c>
@@ -6798,7 +6995,7 @@
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
     </row>
-    <row r="110" spans="1:29" ht="21.6">
+    <row r="110" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A110" s="5" t="s">
         <v>9</v>
       </c>
@@ -6839,7 +7036,7 @@
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
     </row>
-    <row r="111" spans="1:29" ht="21.6">
+    <row r="111" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A111" s="5" t="s">
         <v>9</v>
       </c>
@@ -6880,7 +7077,7 @@
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
     </row>
-    <row r="112" spans="1:29" ht="21.6">
+    <row r="112" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A112" s="5" t="s">
         <v>9</v>
       </c>
@@ -6891,7 +7088,7 @@
         <v>276</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>37</v>
@@ -6921,7 +7118,7 @@
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
     </row>
-    <row r="113" spans="1:29" ht="21.6">
+    <row r="113" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A113" s="5" t="s">
         <v>9</v>
       </c>
@@ -6932,7 +7129,7 @@
         <v>277</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>37</v>
@@ -6962,7 +7159,7 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
     </row>
-    <row r="114" spans="1:29" ht="21.6">
+    <row r="114" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A114" s="5" t="s">
         <v>9</v>
       </c>
@@ -6973,7 +7170,7 @@
         <v>278</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>37</v>
@@ -7003,7 +7200,7 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
     </row>
-    <row r="115" spans="1:29" ht="21.6">
+    <row r="115" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -7014,7 +7211,7 @@
         <v>279</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>37</v>
@@ -7044,7 +7241,7 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
     </row>
-    <row r="116" spans="1:29" ht="21.6">
+    <row r="116" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A116" s="5" t="s">
         <v>9</v>
       </c>
@@ -7085,7 +7282,7 @@
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
     </row>
-    <row r="117" spans="1:29" ht="21.6">
+    <row r="117" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A117" s="5" t="s">
         <v>9</v>
       </c>
@@ -7096,7 +7293,7 @@
         <v>281</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>37</v>
@@ -7126,7 +7323,7 @@
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
     </row>
-    <row r="118" spans="1:29" ht="21.6">
+    <row r="118" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A118" s="5" t="s">
         <v>9</v>
       </c>
@@ -7167,7 +7364,7 @@
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
     </row>
-    <row r="119" spans="1:29" ht="21.6">
+    <row r="119" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A119" s="5" t="s">
         <v>9</v>
       </c>
@@ -7208,7 +7405,7 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
     </row>
-    <row r="120" spans="1:29" ht="21.6">
+    <row r="120" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A120" s="5" t="s">
         <v>9</v>
       </c>
@@ -7249,7 +7446,7 @@
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
     </row>
-    <row r="121" spans="1:29" ht="21.6">
+    <row r="121" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A121" s="5" t="s">
         <v>9</v>
       </c>
@@ -7290,7 +7487,7 @@
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
     </row>
-    <row r="122" spans="1:29" ht="21.6">
+    <row r="122" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A122" s="5" t="s">
         <v>9</v>
       </c>
@@ -7331,7 +7528,7 @@
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
     </row>
-    <row r="123" spans="1:29" ht="21.6">
+    <row r="123" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -7372,7 +7569,7 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
     </row>
-    <row r="124" spans="1:29" ht="21.6">
+    <row r="124" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A124" s="5" t="s">
         <v>9</v>
       </c>
@@ -7413,7 +7610,7 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
     </row>
-    <row r="125" spans="1:29" ht="21.6">
+    <row r="125" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A125" s="5" t="s">
         <v>9</v>
       </c>
@@ -7424,7 +7621,7 @@
         <v>291</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>37</v>
@@ -7454,7 +7651,7 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
     </row>
-    <row r="126" spans="1:29" ht="21.6">
+    <row r="126" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A126" s="5" t="s">
         <v>9</v>
       </c>
@@ -7495,7 +7692,7 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
     </row>
-    <row r="127" spans="1:29" ht="21.6">
+    <row r="127" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A127" s="5" t="s">
         <v>9</v>
       </c>
@@ -7536,7 +7733,7 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
     </row>
-    <row r="128" spans="1:29" ht="21.6">
+    <row r="128" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A128" s="5" t="s">
         <v>9</v>
       </c>
@@ -7577,7 +7774,7 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
     </row>
-    <row r="129" spans="1:29" ht="21.6">
+    <row r="129" spans="1:29" ht="21.6" outlineLevel="2">
       <c r="A129" s="5" t="s">
         <v>9</v>
       </c>
@@ -7618,9 +7815,9 @@
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
     </row>
-    <row r="130" spans="1:29" ht="21.6" outlineLevel="1">
+    <row r="130" spans="1:29" ht="21.6">
       <c r="A130" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
@@ -7651,9 +7848,9 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
     </row>
-    <row r="131" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="131" spans="1:29" ht="21.6" outlineLevel="1">
       <c r="A131" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -7689,13 +7886,13 @@
         <v>10</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>37</v>
@@ -7730,13 +7927,13 @@
         <v>10</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>37</v>
@@ -7771,13 +7968,13 @@
         <v>10</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>37</v>
@@ -7812,13 +8009,13 @@
         <v>10</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>37</v>
@@ -7853,13 +8050,13 @@
         <v>10</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>37</v>
@@ -7894,13 +8091,13 @@
         <v>10</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>37</v>
@@ -7935,13 +8132,13 @@
         <v>10</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>37</v>
@@ -7976,13 +8173,13 @@
         <v>10</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>37</v>
@@ -8017,13 +8214,13 @@
         <v>10</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>37</v>
@@ -8058,13 +8255,13 @@
         <v>10</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>37</v>
@@ -8099,13 +8296,13 @@
         <v>10</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>37</v>
@@ -8140,13 +8337,13 @@
         <v>10</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>37</v>
@@ -8181,13 +8378,13 @@
         <v>10</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>37</v>
@@ -8222,13 +8419,13 @@
         <v>10</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>37</v>
@@ -8263,13 +8460,13 @@
         <v>10</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>37</v>
@@ -8304,13 +8501,13 @@
         <v>10</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>37</v>
@@ -8345,13 +8542,13 @@
         <v>10</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>37</v>
@@ -8386,13 +8583,13 @@
         <v>10</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>37</v>
@@ -8427,13 +8624,13 @@
         <v>10</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>37</v>
@@ -8468,13 +8665,13 @@
         <v>10</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>37</v>
@@ -8506,7 +8703,7 @@
     </row>
     <row r="152" spans="1:29" ht="21.6" outlineLevel="1">
       <c r="A152" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -8542,13 +8739,13 @@
         <v>11</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>37</v>
@@ -8583,13 +8780,13 @@
         <v>11</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>37</v>
@@ -8624,13 +8821,13 @@
         <v>11</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>37</v>
@@ -8665,13 +8862,13 @@
         <v>11</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>37</v>
@@ -8706,13 +8903,13 @@
         <v>11</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>37</v>
@@ -8747,13 +8944,13 @@
         <v>11</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>37</v>
@@ -8788,13 +8985,13 @@
         <v>11</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>37</v>
@@ -8829,13 +9026,13 @@
         <v>11</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>37</v>
@@ -8870,13 +9067,13 @@
         <v>11</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>37</v>
@@ -8911,13 +9108,13 @@
         <v>11</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>37</v>
@@ -8952,13 +9149,13 @@
         <v>11</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>37</v>
@@ -8993,13 +9190,13 @@
         <v>11</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>37</v>
@@ -9034,13 +9231,13 @@
         <v>11</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>37</v>
@@ -9075,13 +9272,13 @@
         <v>11</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E166" s="5" t="s">
         <v>37</v>
@@ -9116,13 +9313,13 @@
         <v>11</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E167" s="5" t="s">
         <v>37</v>
@@ -9157,13 +9354,13 @@
         <v>11</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E168" s="5" t="s">
         <v>37</v>
@@ -9198,13 +9395,13 @@
         <v>11</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E169" s="5" t="s">
         <v>37</v>
@@ -9239,13 +9436,13 @@
         <v>11</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>37</v>
@@ -9280,13 +9477,13 @@
         <v>11</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>37</v>
@@ -9321,13 +9518,13 @@
         <v>11</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E172" s="5" t="s">
         <v>37</v>
@@ -9357,9 +9554,9 @@
       <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
     </row>
-    <row r="173" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="173" spans="1:29" ht="21.6" outlineLevel="1">
       <c r="A173" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -9395,13 +9592,13 @@
         <v>9</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E174" s="5" t="s">
         <v>37</v>
@@ -9436,13 +9633,13 @@
         <v>9</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>37</v>
@@ -9477,13 +9674,13 @@
         <v>9</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>37</v>
@@ -9518,13 +9715,13 @@
         <v>9</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>37</v>
@@ -9559,13 +9756,13 @@
         <v>9</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>37</v>
@@ -9600,13 +9797,13 @@
         <v>9</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>37</v>
@@ -9641,13 +9838,13 @@
         <v>9</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>37</v>
@@ -9682,13 +9879,13 @@
         <v>9</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>37</v>
@@ -9723,13 +9920,13 @@
         <v>9</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>37</v>
@@ -9764,13 +9961,13 @@
         <v>9</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>37</v>
@@ -9805,13 +10002,13 @@
         <v>9</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>37</v>
@@ -9846,13 +10043,13 @@
         <v>9</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>37</v>
@@ -9887,13 +10084,13 @@
         <v>9</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>37</v>
@@ -9928,13 +10125,13 @@
         <v>9</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>37</v>
@@ -9969,13 +10166,13 @@
         <v>9</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>37</v>
@@ -10010,13 +10207,13 @@
         <v>9</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>37</v>
@@ -10051,13 +10248,13 @@
         <v>9</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>37</v>
@@ -10092,13 +10289,13 @@
         <v>9</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>37</v>
@@ -10133,13 +10330,13 @@
         <v>9</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>37</v>
@@ -10174,13 +10371,13 @@
         <v>9</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>37</v>

--- a/Facebook TC.xlsx
+++ b/Facebook TC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user 32\Desktop\FWD\Mobile testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user 32\Documents\GitHubRepositories\FWD-June2022-SIGproject\FWD-June2022-MobileTestingProject\FWD-June2022-MobileTestingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A793AE9-7495-4897-B481-5ADA37E6D0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47707933-9C93-4825-A0F9-4FF42414C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4545" windowWidth="29040" windowHeight="15840" xr2:uid="{A4C2D6F8-4CA4-432D-88A5-8CE106744DF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4C2D6F8-4CA4-432D-88A5-8CE106744DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="530">
   <si>
     <t>Type</t>
   </si>
@@ -1783,12 +1783,151 @@
   <si>
     <t>story posted with selected privacy</t>
   </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- tag a person who does not allow you to</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- tag a group who does not allow you to</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3- tag a page who does not allow you to</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- view a story of a person that does not allow you to see it</t>
+  </si>
+  <si>
+    <t>unable to see story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- view a story of a page that does not allow you to see it</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- share a story of a person that does not allow you to see it</t>
+  </si>
+  <si>
+    <t>unable to share story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- share a story of a page that does not allow you to see it</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- go to a story you posted
+3- add text to the story</t>
+  </si>
+  <si>
+    <t>unable to add</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- go to a story you posted
+3- add stickers to the story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- go to a story you posted
+3- add music to the story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- view a story of a person
+3- delete the story</t>
+  </si>
+  <si>
+    <t>unable to delete story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- view a story of a page
+3- delete the story</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- view a story of a person that was posted more than 24 hours ago</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- view a story of a page that was posted more than 24 hours ago</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- comment on a story of a person that does not allow you to see it</t>
+  </si>
+  <si>
+    <t>unable to comment</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- comment on a story of a page that does not allow you to see it</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3-click select multiple
+4- select more than 15 photos</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- Click add story
+3-click select multiple
+4- select more than 15 videos</t>
+  </si>
+  <si>
+    <t>unable to select more than 15</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- view a story of a person
+3- delete comment on the story made by a different person</t>
+  </si>
+  <si>
+    <t>unable to delete comment</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- view a story of a person
+3- edit a comment on the story made by a different person</t>
+  </si>
+  <si>
+    <t>unable to edit comment</t>
+  </si>
+  <si>
+    <t>1- Open the Facebook mobile application
+2- click create story
+3- validate screen layout</t>
+  </si>
+  <si>
+    <t>the screen consists of (top to bottom &amp; left to right):
+-close button
+-"create story" title
+-settings button
+-music button
+-text button
+-selfie button
+-boomerang button
+-green screen button
+-add yours button
+-folder drop down menu
+-select multiple button
+-grid of media in current folder
+-camera button</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1910,13 +2049,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2233,16 +2372,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EF27CA-CBBA-4131-970C-58EA77CF5F37}">
   <dimension ref="A1:AC839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="D110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="134.6640625" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="134.6640625" defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.88671875" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="95.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" hidden="1" customWidth="1"/>
@@ -2254,7 +2393,7 @@
     <col min="13" max="13" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="21.6">
+    <row r="1" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2311,12 +2450,12 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="21.6">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2344,22 +2483,22 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="21.6" hidden="1" outlineLevel="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -2377,7 +2516,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="4" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2561,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
+    <row r="5" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2467,7 +2606,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
+    <row r="6" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2651,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
+    <row r="7" spans="1:29" ht="151.19999999999999" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2696,7 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
+    <row r="8" spans="1:29" ht="151.19999999999999" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2602,7 +2741,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
+    <row r="9" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2647,7 +2786,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
+    <row r="10" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2692,7 +2831,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
+    <row r="11" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2737,7 +2876,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" ht="129.6" hidden="1" outlineLevel="2">
+    <row r="12" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2782,7 +2921,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
+    <row r="13" spans="1:29" ht="151.19999999999999" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2827,7 +2966,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
+    <row r="14" spans="1:29" ht="151.19999999999999" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2872,7 +3011,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="151.19999999999999" hidden="1" outlineLevel="2">
+    <row r="15" spans="1:29" ht="151.19999999999999" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2917,7 +3056,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="16" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -2962,7 +3101,7 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="17" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -3007,7 +3146,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="18" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -3052,7 +3191,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="19" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +3236,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="20" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3142,7 +3281,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="21" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3187,7 +3326,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="22" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3232,7 +3371,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="23" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3277,22 +3416,22 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" ht="21.6" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3310,7 +3449,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="25" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -3355,7 +3494,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="26" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -3400,7 +3539,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="27" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -3445,7 +3584,7 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="28" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -3490,7 +3629,7 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="29" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -3535,7 +3674,7 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="30" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -3580,7 +3719,7 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="31" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -3625,7 +3764,7 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="32" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -3670,7 +3809,7 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="33" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
@@ -3715,7 +3854,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="34" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -3760,7 +3899,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="35" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -3805,7 +3944,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:29" ht="86.4" hidden="1" outlineLevel="2">
+    <row r="36" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
@@ -3850,7 +3989,7 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="37" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -3895,7 +4034,7 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="38" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -3940,7 +4079,7 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="39" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -3985,7 +4124,7 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
     </row>
-    <row r="40" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="40" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -4030,7 +4169,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="41" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>11</v>
       </c>
@@ -4075,7 +4214,7 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="42" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -4120,7 +4259,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="43" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
@@ -4165,7 +4304,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="44" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>11</v>
       </c>
@@ -4210,22 +4349,22 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" ht="21.6" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -4243,7 +4382,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" ht="409.6" hidden="1" outlineLevel="2">
+    <row r="46" spans="1:29" ht="409.6" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>9</v>
       </c>
@@ -4288,7 +4427,7 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="47" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>9</v>
       </c>
@@ -4333,7 +4472,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="48" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
@@ -4378,7 +4517,7 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="49" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -4423,7 +4562,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="50" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4607,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="51" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -4513,7 +4652,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="52" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -4558,7 +4697,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
     </row>
-    <row r="53" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="53" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -4603,7 +4742,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="54" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -4648,7 +4787,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="55" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -4693,7 +4832,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="56" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -4738,7 +4877,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
     </row>
-    <row r="57" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="57" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
@@ -4783,7 +4922,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="58" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>9</v>
       </c>
@@ -4828,7 +4967,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
     </row>
-    <row r="59" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="59" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -4873,7 +5012,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="60" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>9</v>
       </c>
@@ -4918,7 +5057,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="61" spans="1:29" ht="64.8" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>9</v>
       </c>
@@ -4963,7 +5102,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" ht="64.8" hidden="1" outlineLevel="2">
+    <row r="62" spans="1:29" ht="64.8" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -5008,7 +5147,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="63" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
@@ -5053,7 +5192,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="64" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>9</v>
       </c>
@@ -5098,7 +5237,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29" ht="43.2" hidden="1" outlineLevel="2">
+    <row r="65" spans="1:29" ht="43.2" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>9</v>
       </c>
@@ -5143,12 +5282,12 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29" ht="21.6" collapsed="1">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -5176,22 +5315,22 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="1:29" ht="21.6" outlineLevel="1">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -5209,7 +5348,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="68" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>10</v>
       </c>
@@ -5254,7 +5393,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" ht="108" outlineLevel="2">
+    <row r="69" spans="1:29" ht="108" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>10</v>
       </c>
@@ -5299,7 +5438,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29" ht="108" outlineLevel="2">
+    <row r="70" spans="1:29" ht="108" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>10</v>
       </c>
@@ -5344,7 +5483,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29" ht="108" outlineLevel="2">
+    <row r="71" spans="1:29" ht="108" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>10</v>
       </c>
@@ -5389,7 +5528,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="72" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>10</v>
       </c>
@@ -5434,7 +5573,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="73" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
@@ -5479,7 +5618,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="74" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>10</v>
       </c>
@@ -5524,7 +5663,7 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="75" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>10</v>
       </c>
@@ -5569,7 +5708,7 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" spans="1:29" ht="108" outlineLevel="2">
+    <row r="76" spans="1:29" ht="108" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>10</v>
       </c>
@@ -5614,7 +5753,7 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
     </row>
-    <row r="77" spans="1:29" ht="108" outlineLevel="2">
+    <row r="77" spans="1:29" ht="108" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>10</v>
       </c>
@@ -5659,7 +5798,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
     </row>
-    <row r="78" spans="1:29" ht="108" outlineLevel="2">
+    <row r="78" spans="1:29" ht="108" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>10</v>
       </c>
@@ -5704,7 +5843,7 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
     </row>
-    <row r="79" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="79" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>10</v>
       </c>
@@ -5749,7 +5888,7 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
     </row>
-    <row r="80" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="80" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>10</v>
       </c>
@@ -5794,7 +5933,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="81" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>10</v>
       </c>
@@ -5839,7 +5978,7 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="82" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>10</v>
       </c>
@@ -5884,7 +6023,7 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
     </row>
-    <row r="83" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="83" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>10</v>
       </c>
@@ -5929,7 +6068,7 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
     </row>
-    <row r="84" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="84" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -5974,7 +6113,7 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
     </row>
-    <row r="85" spans="1:29" ht="129.6" outlineLevel="2">
+    <row r="85" spans="1:29" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>10</v>
       </c>
@@ -6019,7 +6158,7 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
     </row>
-    <row r="86" spans="1:29" ht="151.19999999999999" outlineLevel="2">
+    <row r="86" spans="1:29" ht="151.19999999999999" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>10</v>
       </c>
@@ -6064,7 +6203,7 @@
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
     </row>
-    <row r="87" spans="1:29" ht="86.4" outlineLevel="2">
+    <row r="87" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>10</v>
       </c>
@@ -6109,22 +6248,22 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
     </row>
-    <row r="88" spans="1:29" ht="21.6" outlineLevel="1">
-      <c r="A88" s="10" t="s">
+    <row r="88" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -6142,7 +6281,7 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
     </row>
-    <row r="89" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="89" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>11</v>
       </c>
@@ -6158,9 +6297,13 @@
       <c r="E89" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>500</v>
+      </c>
       <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+      <c r="H89" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="I89" s="8"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -6183,7 +6326,7 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
     </row>
-    <row r="90" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="90" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>11</v>
       </c>
@@ -6199,9 +6342,13 @@
       <c r="E90" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>501</v>
+      </c>
       <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
+      <c r="H90" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="I90" s="8"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -6224,7 +6371,7 @@
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
     </row>
-    <row r="91" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="91" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>11</v>
       </c>
@@ -6240,9 +6387,13 @@
       <c r="E91" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="5"/>
+      <c r="F91" s="5" t="s">
+        <v>502</v>
+      </c>
       <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
+      <c r="H91" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="I91" s="8"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -6265,7 +6416,7 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
     </row>
-    <row r="92" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="92" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>11</v>
       </c>
@@ -6281,9 +6432,13 @@
       <c r="E92" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
+      <c r="H92" s="5" t="s">
+        <v>504</v>
+      </c>
       <c r="I92" s="8"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -6306,7 +6461,7 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
     </row>
-    <row r="93" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="93" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>11</v>
       </c>
@@ -6322,9 +6477,13 @@
       <c r="E93" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>505</v>
+      </c>
       <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>504</v>
+      </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -6347,7 +6506,7 @@
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
     </row>
-    <row r="94" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="94" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>11</v>
       </c>
@@ -6363,9 +6522,13 @@
       <c r="E94" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>508</v>
+      </c>
       <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -6388,7 +6551,7 @@
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
     </row>
-    <row r="95" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="95" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>11</v>
       </c>
@@ -6404,9 +6567,13 @@
       <c r="E95" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>506</v>
+      </c>
       <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+      <c r="H95" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -6429,7 +6596,7 @@
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
     </row>
-    <row r="96" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="96" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>11</v>
       </c>
@@ -6445,9 +6612,13 @@
       <c r="E96" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F96" s="5"/>
+      <c r="F96" s="5" t="s">
+        <v>511</v>
+      </c>
       <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
+      <c r="H96" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -6470,7 +6641,7 @@
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
     </row>
-    <row r="97" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="97" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>11</v>
       </c>
@@ -6486,9 +6657,13 @@
       <c r="E97" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
+      <c r="H97" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -6511,7 +6686,7 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
     </row>
-    <row r="98" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="98" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>11</v>
       </c>
@@ -6527,9 +6702,13 @@
       <c r="E98" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>512</v>
+      </c>
       <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+      <c r="H98" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -6552,7 +6731,7 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
     </row>
-    <row r="99" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="99" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>11</v>
       </c>
@@ -6568,9 +6747,13 @@
       <c r="E99" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
+      <c r="H99" s="5" t="s">
+        <v>514</v>
+      </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -6593,7 +6776,7 @@
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
     </row>
-    <row r="100" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="100" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>11</v>
       </c>
@@ -6609,9 +6792,13 @@
       <c r="E100" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F100" s="5"/>
+      <c r="F100" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>514</v>
+      </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -6634,7 +6821,7 @@
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
     </row>
-    <row r="101" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="101" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>11</v>
       </c>
@@ -6650,9 +6837,13 @@
       <c r="E101" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>516</v>
+      </c>
       <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+      <c r="H101" s="5" t="s">
+        <v>504</v>
+      </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -6675,7 +6866,7 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
     </row>
-    <row r="102" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="102" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>11</v>
       </c>
@@ -6691,9 +6882,13 @@
       <c r="E102" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>517</v>
+      </c>
       <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
+      <c r="H102" s="5" t="s">
+        <v>504</v>
+      </c>
       <c r="I102" s="8"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -6716,7 +6911,7 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
     </row>
-    <row r="103" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="103" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>11</v>
       </c>
@@ -6732,9 +6927,13 @@
       <c r="E103" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="H103" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -6757,7 +6956,7 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
     </row>
-    <row r="104" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="104" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>11</v>
       </c>
@@ -6773,9 +6972,13 @@
       <c r="E104" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F104" s="5"/>
+      <c r="F104" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="H104" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -6798,7 +7001,7 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
     </row>
-    <row r="105" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="105" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>11</v>
       </c>
@@ -6814,9 +7017,13 @@
       <c r="E105" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F105" s="5"/>
+      <c r="F105" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+      <c r="H105" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -6839,7 +7046,7 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
     </row>
-    <row r="106" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="106" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>11</v>
       </c>
@@ -6855,9 +7062,13 @@
       <c r="E106" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F106" s="5"/>
+      <c r="F106" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="H106" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -6880,7 +7091,7 @@
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
     </row>
-    <row r="107" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="107" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>11</v>
       </c>
@@ -6896,9 +7107,13 @@
       <c r="E107" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>524</v>
+      </c>
       <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
+      <c r="H107" s="5" t="s">
+        <v>525</v>
+      </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -6921,7 +7136,7 @@
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
     </row>
-    <row r="108" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="108" spans="1:29" ht="64.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>11</v>
       </c>
@@ -6937,9 +7152,13 @@
       <c r="E108" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F108" s="5"/>
+      <c r="F108" s="5" t="s">
+        <v>526</v>
+      </c>
       <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="H108" s="5" t="s">
+        <v>527</v>
+      </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -6962,22 +7181,22 @@
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
     </row>
-    <row r="109" spans="1:29" ht="21.6" outlineLevel="1">
-      <c r="A109" s="10" t="s">
+    <row r="109" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -6995,7 +7214,7 @@
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
     </row>
-    <row r="110" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="110" spans="1:29" ht="302.39999999999998" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>9</v>
       </c>
@@ -7011,9 +7230,13 @@
       <c r="E110" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F110" s="5"/>
+      <c r="F110" s="5" t="s">
+        <v>528</v>
+      </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="5"/>
+      <c r="H110" s="5" t="s">
+        <v>529</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -7036,7 +7259,7 @@
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
     </row>
-    <row r="111" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="111" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>9</v>
       </c>
@@ -7077,7 +7300,7 @@
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
     </row>
-    <row r="112" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="112" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>9</v>
       </c>
@@ -7118,7 +7341,7 @@
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
     </row>
-    <row r="113" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="113" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>9</v>
       </c>
@@ -7159,7 +7382,7 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
     </row>
-    <row r="114" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="114" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>9</v>
       </c>
@@ -7200,7 +7423,7 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
     </row>
-    <row r="115" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="115" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -7241,7 +7464,7 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
     </row>
-    <row r="116" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="116" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>9</v>
       </c>
@@ -7282,7 +7505,7 @@
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
     </row>
-    <row r="117" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="117" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>9</v>
       </c>
@@ -7323,7 +7546,7 @@
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
     </row>
-    <row r="118" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="118" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>9</v>
       </c>
@@ -7364,7 +7587,7 @@
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
     </row>
-    <row r="119" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="119" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>9</v>
       </c>
@@ -7405,7 +7628,7 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
     </row>
-    <row r="120" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="120" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>9</v>
       </c>
@@ -7446,7 +7669,7 @@
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
     </row>
-    <row r="121" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="121" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>9</v>
       </c>
@@ -7487,7 +7710,7 @@
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
     </row>
-    <row r="122" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="122" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>9</v>
       </c>
@@ -7528,7 +7751,7 @@
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
     </row>
-    <row r="123" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="123" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>9</v>
       </c>
@@ -7546,7 +7769,7 @@
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
-      <c r="H123" s="12"/>
+      <c r="H123" s="10"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
@@ -7569,7 +7792,7 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
     </row>
-    <row r="124" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="124" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>9</v>
       </c>
@@ -7610,7 +7833,7 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
     </row>
-    <row r="125" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="125" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>9</v>
       </c>
@@ -7651,7 +7874,7 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
     </row>
-    <row r="126" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="126" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>9</v>
       </c>
@@ -7692,7 +7915,7 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
     </row>
-    <row r="127" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="127" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>9</v>
       </c>
@@ -7733,7 +7956,7 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
     </row>
-    <row r="128" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="128" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>9</v>
       </c>
@@ -7774,7 +7997,7 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
     </row>
-    <row r="129" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="129" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>9</v>
       </c>
@@ -7815,12 +8038,12 @@
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
     </row>
-    <row r="130" spans="1:29" ht="21.6">
-      <c r="A130" s="10" t="s">
+    <row r="130" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="12"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -7848,22 +8071,22 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
     </row>
-    <row r="131" spans="1:29" ht="21.6" outlineLevel="1">
-      <c r="A131" s="10" t="s">
+    <row r="131" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -7881,7 +8104,7 @@
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
     </row>
-    <row r="132" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="132" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>10</v>
       </c>
@@ -7922,7 +8145,7 @@
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
     </row>
-    <row r="133" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="133" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>10</v>
       </c>
@@ -7963,7 +8186,7 @@
       <c r="AB133" s="2"/>
       <c r="AC133" s="2"/>
     </row>
-    <row r="134" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="134" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>10</v>
       </c>
@@ -8004,7 +8227,7 @@
       <c r="AB134" s="2"/>
       <c r="AC134" s="2"/>
     </row>
-    <row r="135" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="135" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>10</v>
       </c>
@@ -8045,7 +8268,7 @@
       <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
     </row>
-    <row r="136" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="136" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>10</v>
       </c>
@@ -8086,7 +8309,7 @@
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
     </row>
-    <row r="137" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="137" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>10</v>
       </c>
@@ -8127,7 +8350,7 @@
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
     </row>
-    <row r="138" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="138" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
         <v>10</v>
       </c>
@@ -8168,7 +8391,7 @@
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
     </row>
-    <row r="139" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="139" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>10</v>
       </c>
@@ -8209,7 +8432,7 @@
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
     </row>
-    <row r="140" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="140" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>10</v>
       </c>
@@ -8250,7 +8473,7 @@
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
     </row>
-    <row r="141" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="141" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>10</v>
       </c>
@@ -8291,7 +8514,7 @@
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
     </row>
-    <row r="142" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="142" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>10</v>
       </c>
@@ -8332,7 +8555,7 @@
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
     </row>
-    <row r="143" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="143" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>10</v>
       </c>
@@ -8373,7 +8596,7 @@
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
     </row>
-    <row r="144" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="144" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>10</v>
       </c>
@@ -8414,7 +8637,7 @@
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
     </row>
-    <row r="145" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="145" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>10</v>
       </c>
@@ -8455,7 +8678,7 @@
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
     </row>
-    <row r="146" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="146" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>10</v>
       </c>
@@ -8496,7 +8719,7 @@
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
     </row>
-    <row r="147" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="147" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>10</v>
       </c>
@@ -8537,7 +8760,7 @@
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
     </row>
-    <row r="148" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="148" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>10</v>
       </c>
@@ -8578,7 +8801,7 @@
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
     </row>
-    <row r="149" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="149" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
         <v>10</v>
       </c>
@@ -8619,7 +8842,7 @@
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
     </row>
-    <row r="150" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="150" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>10</v>
       </c>
@@ -8660,7 +8883,7 @@
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
     </row>
-    <row r="151" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="151" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>10</v>
       </c>
@@ -8701,22 +8924,22 @@
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
     </row>
-    <row r="152" spans="1:29" ht="21.6" outlineLevel="1">
-      <c r="A152" s="10" t="s">
+    <row r="152" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="10"/>
-      <c r="M152" s="10"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -8734,7 +8957,7 @@
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
     </row>
-    <row r="153" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="153" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>11</v>
       </c>
@@ -8775,7 +8998,7 @@
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
     </row>
-    <row r="154" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="154" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>11</v>
       </c>
@@ -8816,7 +9039,7 @@
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
     </row>
-    <row r="155" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="155" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
         <v>11</v>
       </c>
@@ -8857,7 +9080,7 @@
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
     </row>
-    <row r="156" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="156" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>11</v>
       </c>
@@ -8898,7 +9121,7 @@
       <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
     </row>
-    <row r="157" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="157" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>11</v>
       </c>
@@ -8939,7 +9162,7 @@
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
     </row>
-    <row r="158" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="158" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
         <v>11</v>
       </c>
@@ -8980,7 +9203,7 @@
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
     </row>
-    <row r="159" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="159" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>11</v>
       </c>
@@ -9021,7 +9244,7 @@
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
     </row>
-    <row r="160" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="160" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>11</v>
       </c>
@@ -9062,7 +9285,7 @@
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
     </row>
-    <row r="161" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="161" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>11</v>
       </c>
@@ -9103,7 +9326,7 @@
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
     </row>
-    <row r="162" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="162" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>11</v>
       </c>
@@ -9144,7 +9367,7 @@
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
     </row>
-    <row r="163" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="163" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>11</v>
       </c>
@@ -9185,7 +9408,7 @@
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
     </row>
-    <row r="164" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="164" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>11</v>
       </c>
@@ -9226,7 +9449,7 @@
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
     </row>
-    <row r="165" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="165" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
         <v>11</v>
       </c>
@@ -9267,7 +9490,7 @@
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
     </row>
-    <row r="166" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="166" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>11</v>
       </c>
@@ -9308,7 +9531,7 @@
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
     </row>
-    <row r="167" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="167" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>11</v>
       </c>
@@ -9349,7 +9572,7 @@
       <c r="AB167" s="2"/>
       <c r="AC167" s="2"/>
     </row>
-    <row r="168" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="168" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>11</v>
       </c>
@@ -9390,7 +9613,7 @@
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
     </row>
-    <row r="169" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="169" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>11</v>
       </c>
@@ -9431,7 +9654,7 @@
       <c r="AB169" s="2"/>
       <c r="AC169" s="2"/>
     </row>
-    <row r="170" spans="1:29" ht="43.2" outlineLevel="2">
+    <row r="170" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>11</v>
       </c>
@@ -9472,7 +9695,7 @@
       <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
     </row>
-    <row r="171" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="171" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>11</v>
       </c>
@@ -9513,7 +9736,7 @@
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
     </row>
-    <row r="172" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="172" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>11</v>
       </c>
@@ -9554,22 +9777,22 @@
       <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
     </row>
-    <row r="173" spans="1:29" ht="21.6" outlineLevel="1">
-      <c r="A173" s="10" t="s">
+    <row r="173" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-      <c r="L173" s="10"/>
-      <c r="M173" s="10"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -9587,7 +9810,7 @@
       <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
     </row>
-    <row r="174" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="174" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>9</v>
       </c>
@@ -9628,7 +9851,7 @@
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
     </row>
-    <row r="175" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="175" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>9</v>
       </c>
@@ -9669,7 +9892,7 @@
       <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
     </row>
-    <row r="176" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="176" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>9</v>
       </c>
@@ -9710,7 +9933,7 @@
       <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
     </row>
-    <row r="177" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="177" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>9</v>
       </c>
@@ -9751,7 +9974,7 @@
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
     </row>
-    <row r="178" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="178" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>9</v>
       </c>
@@ -9792,7 +10015,7 @@
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
     </row>
-    <row r="179" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="179" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -9833,7 +10056,7 @@
       <c r="AB179" s="2"/>
       <c r="AC179" s="2"/>
     </row>
-    <row r="180" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="180" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>9</v>
       </c>
@@ -9874,7 +10097,7 @@
       <c r="AB180" s="2"/>
       <c r="AC180" s="2"/>
     </row>
-    <row r="181" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="181" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>9</v>
       </c>
@@ -9915,7 +10138,7 @@
       <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
     </row>
-    <row r="182" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="182" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>9</v>
       </c>
@@ -9956,7 +10179,7 @@
       <c r="AB182" s="2"/>
       <c r="AC182" s="2"/>
     </row>
-    <row r="183" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="183" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>9</v>
       </c>
@@ -9997,7 +10220,7 @@
       <c r="AB183" s="2"/>
       <c r="AC183" s="2"/>
     </row>
-    <row r="184" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="184" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>9</v>
       </c>
@@ -10038,7 +10261,7 @@
       <c r="AB184" s="2"/>
       <c r="AC184" s="2"/>
     </row>
-    <row r="185" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="185" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>9</v>
       </c>
@@ -10079,7 +10302,7 @@
       <c r="AB185" s="2"/>
       <c r="AC185" s="2"/>
     </row>
-    <row r="186" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="186" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>9</v>
       </c>
@@ -10120,7 +10343,7 @@
       <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
     </row>
-    <row r="187" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="187" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>9</v>
       </c>
@@ -10138,7 +10361,7 @@
       </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
-      <c r="H187" s="12"/>
+      <c r="H187" s="10"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
@@ -10161,7 +10384,7 @@
       <c r="AB187" s="2"/>
       <c r="AC187" s="2"/>
     </row>
-    <row r="188" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="188" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>9</v>
       </c>
@@ -10202,7 +10425,7 @@
       <c r="AB188" s="2"/>
       <c r="AC188" s="2"/>
     </row>
-    <row r="189" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="189" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>9</v>
       </c>
@@ -10243,7 +10466,7 @@
       <c r="AB189" s="2"/>
       <c r="AC189" s="2"/>
     </row>
-    <row r="190" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="190" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>9</v>
       </c>
@@ -10284,7 +10507,7 @@
       <c r="AB190" s="2"/>
       <c r="AC190" s="2"/>
     </row>
-    <row r="191" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="191" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>9</v>
       </c>
@@ -10325,7 +10548,7 @@
       <c r="AB191" s="2"/>
       <c r="AC191" s="2"/>
     </row>
-    <row r="192" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="192" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>9</v>
       </c>
@@ -10366,7 +10589,7 @@
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
     </row>
-    <row r="193" spans="1:29" ht="21.6" outlineLevel="2">
+    <row r="193" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>9</v>
       </c>
@@ -10407,7 +10630,7 @@
       <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
     </row>
-    <row r="194" spans="1:29" ht="21.6">
+    <row r="194" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10438,7 +10661,7 @@
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
     </row>
-    <row r="195" spans="1:29" ht="21.6">
+    <row r="195" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10469,7 +10692,7 @@
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
     </row>
-    <row r="196" spans="1:29" ht="21.6">
+    <row r="196" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10500,7 +10723,7 @@
       <c r="AB196" s="2"/>
       <c r="AC196" s="2"/>
     </row>
-    <row r="197" spans="1:29" ht="21.6">
+    <row r="197" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10531,7 +10754,7 @@
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
     </row>
-    <row r="198" spans="1:29" ht="21.6">
+    <row r="198" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10562,7 +10785,7 @@
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
     </row>
-    <row r="199" spans="1:29" ht="21.6">
+    <row r="199" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10593,7 +10816,7 @@
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
     </row>
-    <row r="200" spans="1:29" ht="21.6">
+    <row r="200" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10624,7 +10847,7 @@
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
     </row>
-    <row r="201" spans="1:29" ht="21.6">
+    <row r="201" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10655,7 +10878,7 @@
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
     </row>
-    <row r="202" spans="1:29" ht="21.6">
+    <row r="202" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10686,7 +10909,7 @@
       <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
     </row>
-    <row r="203" spans="1:29" ht="21.6">
+    <row r="203" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10717,7 +10940,7 @@
       <c r="AB203" s="2"/>
       <c r="AC203" s="2"/>
     </row>
-    <row r="204" spans="1:29" ht="21.6">
+    <row r="204" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10748,7 +10971,7 @@
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
     </row>
-    <row r="205" spans="1:29" ht="21.6">
+    <row r="205" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10779,7 +11002,7 @@
       <c r="AB205" s="2"/>
       <c r="AC205" s="2"/>
     </row>
-    <row r="206" spans="1:29" ht="21.6">
+    <row r="206" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10810,7 +11033,7 @@
       <c r="AB206" s="2"/>
       <c r="AC206" s="2"/>
     </row>
-    <row r="207" spans="1:29" ht="21.6">
+    <row r="207" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10841,7 +11064,7 @@
       <c r="AB207" s="2"/>
       <c r="AC207" s="2"/>
     </row>
-    <row r="208" spans="1:29" ht="21.6">
+    <row r="208" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10872,7 +11095,7 @@
       <c r="AB208" s="2"/>
       <c r="AC208" s="2"/>
     </row>
-    <row r="209" spans="1:29" ht="21.6">
+    <row r="209" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10903,7 +11126,7 @@
       <c r="AB209" s="2"/>
       <c r="AC209" s="2"/>
     </row>
-    <row r="210" spans="1:29" ht="21.6">
+    <row r="210" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10934,7 +11157,7 @@
       <c r="AB210" s="2"/>
       <c r="AC210" s="2"/>
     </row>
-    <row r="211" spans="1:29" ht="21.6">
+    <row r="211" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10965,7 +11188,7 @@
       <c r="AB211" s="2"/>
       <c r="AC211" s="2"/>
     </row>
-    <row r="212" spans="1:29" ht="21.6">
+    <row r="212" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10996,7 +11219,7 @@
       <c r="AB212" s="2"/>
       <c r="AC212" s="2"/>
     </row>
-    <row r="213" spans="1:29" ht="21.6">
+    <row r="213" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11027,7 +11250,7 @@
       <c r="AB213" s="2"/>
       <c r="AC213" s="2"/>
     </row>
-    <row r="214" spans="1:29" ht="21.6">
+    <row r="214" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11058,7 +11281,7 @@
       <c r="AB214" s="2"/>
       <c r="AC214" s="2"/>
     </row>
-    <row r="215" spans="1:29" ht="21.6">
+    <row r="215" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11089,7 +11312,7 @@
       <c r="AB215" s="2"/>
       <c r="AC215" s="2"/>
     </row>
-    <row r="216" spans="1:29" ht="21.6">
+    <row r="216" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -11120,7 +11343,7 @@
       <c r="AB216" s="2"/>
       <c r="AC216" s="2"/>
     </row>
-    <row r="217" spans="1:29" ht="21.6">
+    <row r="217" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11151,7 +11374,7 @@
       <c r="AB217" s="2"/>
       <c r="AC217" s="2"/>
     </row>
-    <row r="218" spans="1:29" ht="21.6">
+    <row r="218" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11182,7 +11405,7 @@
       <c r="AB218" s="2"/>
       <c r="AC218" s="2"/>
     </row>
-    <row r="219" spans="1:29" ht="21.6">
+    <row r="219" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11213,7 +11436,7 @@
       <c r="AB219" s="2"/>
       <c r="AC219" s="2"/>
     </row>
-    <row r="220" spans="1:29" ht="21.6">
+    <row r="220" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -11244,7 +11467,7 @@
       <c r="AB220" s="2"/>
       <c r="AC220" s="2"/>
     </row>
-    <row r="221" spans="1:29" ht="21.6">
+    <row r="221" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -11275,7 +11498,7 @@
       <c r="AB221" s="2"/>
       <c r="AC221" s="2"/>
     </row>
-    <row r="222" spans="1:29" ht="21.6">
+    <row r="222" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -11306,7 +11529,7 @@
       <c r="AB222" s="2"/>
       <c r="AC222" s="2"/>
     </row>
-    <row r="223" spans="1:29" ht="21.6">
+    <row r="223" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -11337,7 +11560,7 @@
       <c r="AB223" s="2"/>
       <c r="AC223" s="2"/>
     </row>
-    <row r="224" spans="1:29" ht="21.6">
+    <row r="224" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -11368,7 +11591,7 @@
       <c r="AB224" s="2"/>
       <c r="AC224" s="2"/>
     </row>
-    <row r="225" spans="1:29" ht="21.6">
+    <row r="225" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -11399,7 +11622,7 @@
       <c r="AB225" s="2"/>
       <c r="AC225" s="2"/>
     </row>
-    <row r="226" spans="1:29" ht="21.6">
+    <row r="226" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11430,7 +11653,7 @@
       <c r="AB226" s="2"/>
       <c r="AC226" s="2"/>
     </row>
-    <row r="227" spans="1:29" ht="21.6">
+    <row r="227" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -11461,7 +11684,7 @@
       <c r="AB227" s="2"/>
       <c r="AC227" s="2"/>
     </row>
-    <row r="228" spans="1:29" ht="21.6">
+    <row r="228" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -11492,7 +11715,7 @@
       <c r="AB228" s="2"/>
       <c r="AC228" s="2"/>
     </row>
-    <row r="229" spans="1:29" ht="21.6">
+    <row r="229" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -11523,7 +11746,7 @@
       <c r="AB229" s="2"/>
       <c r="AC229" s="2"/>
     </row>
-    <row r="230" spans="1:29" ht="21.6">
+    <row r="230" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11554,7 +11777,7 @@
       <c r="AB230" s="2"/>
       <c r="AC230" s="2"/>
     </row>
-    <row r="231" spans="1:29" ht="21.6">
+    <row r="231" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -11585,7 +11808,7 @@
       <c r="AB231" s="2"/>
       <c r="AC231" s="2"/>
     </row>
-    <row r="232" spans="1:29" ht="21.6">
+    <row r="232" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -11616,7 +11839,7 @@
       <c r="AB232" s="2"/>
       <c r="AC232" s="2"/>
     </row>
-    <row r="233" spans="1:29" ht="21.6">
+    <row r="233" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -11647,7 +11870,7 @@
       <c r="AB233" s="2"/>
       <c r="AC233" s="2"/>
     </row>
-    <row r="234" spans="1:29" ht="21.6">
+    <row r="234" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -11678,7 +11901,7 @@
       <c r="AB234" s="2"/>
       <c r="AC234" s="2"/>
     </row>
-    <row r="235" spans="1:29" ht="21.6">
+    <row r="235" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -11709,7 +11932,7 @@
       <c r="AB235" s="2"/>
       <c r="AC235" s="2"/>
     </row>
-    <row r="236" spans="1:29" ht="21.6">
+    <row r="236" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -11740,7 +11963,7 @@
       <c r="AB236" s="2"/>
       <c r="AC236" s="2"/>
     </row>
-    <row r="237" spans="1:29" ht="21.6">
+    <row r="237" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -11771,7 +11994,7 @@
       <c r="AB237" s="2"/>
       <c r="AC237" s="2"/>
     </row>
-    <row r="238" spans="1:29" ht="21.6">
+    <row r="238" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -11802,7 +12025,7 @@
       <c r="AB238" s="2"/>
       <c r="AC238" s="2"/>
     </row>
-    <row r="239" spans="1:29" ht="21.6">
+    <row r="239" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -11833,7 +12056,7 @@
       <c r="AB239" s="2"/>
       <c r="AC239" s="2"/>
     </row>
-    <row r="240" spans="1:29" ht="21.6">
+    <row r="240" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -11864,7 +12087,7 @@
       <c r="AB240" s="2"/>
       <c r="AC240" s="2"/>
     </row>
-    <row r="241" spans="1:29" ht="21.6">
+    <row r="241" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -11895,7 +12118,7 @@
       <c r="AB241" s="2"/>
       <c r="AC241" s="2"/>
     </row>
-    <row r="242" spans="1:29" ht="21.6">
+    <row r="242" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -11926,7 +12149,7 @@
       <c r="AB242" s="2"/>
       <c r="AC242" s="2"/>
     </row>
-    <row r="243" spans="1:29" ht="21.6">
+    <row r="243" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -11957,7 +12180,7 @@
       <c r="AB243" s="2"/>
       <c r="AC243" s="2"/>
     </row>
-    <row r="244" spans="1:29" ht="21.6">
+    <row r="244" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -11988,7 +12211,7 @@
       <c r="AB244" s="2"/>
       <c r="AC244" s="2"/>
     </row>
-    <row r="245" spans="1:29" ht="21.6">
+    <row r="245" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -12019,7 +12242,7 @@
       <c r="AB245" s="2"/>
       <c r="AC245" s="2"/>
     </row>
-    <row r="246" spans="1:29" ht="21.6">
+    <row r="246" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -12050,7 +12273,7 @@
       <c r="AB246" s="2"/>
       <c r="AC246" s="2"/>
     </row>
-    <row r="247" spans="1:29" ht="21.6">
+    <row r="247" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -12081,7 +12304,7 @@
       <c r="AB247" s="2"/>
       <c r="AC247" s="2"/>
     </row>
-    <row r="248" spans="1:29" ht="21.6">
+    <row r="248" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -12112,7 +12335,7 @@
       <c r="AB248" s="2"/>
       <c r="AC248" s="2"/>
     </row>
-    <row r="249" spans="1:29" ht="21.6">
+    <row r="249" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -12143,7 +12366,7 @@
       <c r="AB249" s="2"/>
       <c r="AC249" s="2"/>
     </row>
-    <row r="250" spans="1:29" ht="21.6">
+    <row r="250" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -12174,7 +12397,7 @@
       <c r="AB250" s="2"/>
       <c r="AC250" s="2"/>
     </row>
-    <row r="251" spans="1:29" ht="21.6">
+    <row r="251" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -12205,7 +12428,7 @@
       <c r="AB251" s="2"/>
       <c r="AC251" s="2"/>
     </row>
-    <row r="252" spans="1:29" ht="21.6">
+    <row r="252" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -12236,7 +12459,7 @@
       <c r="AB252" s="2"/>
       <c r="AC252" s="2"/>
     </row>
-    <row r="253" spans="1:29" ht="21.6">
+    <row r="253" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -12267,7 +12490,7 @@
       <c r="AB253" s="2"/>
       <c r="AC253" s="2"/>
     </row>
-    <row r="254" spans="1:29" ht="21.6">
+    <row r="254" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -12298,7 +12521,7 @@
       <c r="AB254" s="2"/>
       <c r="AC254" s="2"/>
     </row>
-    <row r="255" spans="1:29" ht="21.6">
+    <row r="255" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -12329,7 +12552,7 @@
       <c r="AB255" s="2"/>
       <c r="AC255" s="2"/>
     </row>
-    <row r="256" spans="1:29" ht="21.6">
+    <row r="256" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -12360,7 +12583,7 @@
       <c r="AB256" s="2"/>
       <c r="AC256" s="2"/>
     </row>
-    <row r="257" spans="1:29" ht="21.6">
+    <row r="257" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -12391,7 +12614,7 @@
       <c r="AB257" s="2"/>
       <c r="AC257" s="2"/>
     </row>
-    <row r="258" spans="1:29" ht="21.6">
+    <row r="258" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -12422,7 +12645,7 @@
       <c r="AB258" s="2"/>
       <c r="AC258" s="2"/>
     </row>
-    <row r="259" spans="1:29" ht="21.6">
+    <row r="259" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -12453,7 +12676,7 @@
       <c r="AB259" s="2"/>
       <c r="AC259" s="2"/>
     </row>
-    <row r="260" spans="1:29" ht="21.6">
+    <row r="260" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -12484,7 +12707,7 @@
       <c r="AB260" s="2"/>
       <c r="AC260" s="2"/>
     </row>
-    <row r="261" spans="1:29" ht="21.6">
+    <row r="261" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -12515,7 +12738,7 @@
       <c r="AB261" s="2"/>
       <c r="AC261" s="2"/>
     </row>
-    <row r="262" spans="1:29" ht="21.6">
+    <row r="262" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -12546,7 +12769,7 @@
       <c r="AB262" s="2"/>
       <c r="AC262" s="2"/>
     </row>
-    <row r="263" spans="1:29" ht="21.6">
+    <row r="263" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -12577,7 +12800,7 @@
       <c r="AB263" s="2"/>
       <c r="AC263" s="2"/>
     </row>
-    <row r="264" spans="1:29" ht="21.6">
+    <row r="264" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -12608,7 +12831,7 @@
       <c r="AB264" s="2"/>
       <c r="AC264" s="2"/>
     </row>
-    <row r="265" spans="1:29" ht="21.6">
+    <row r="265" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -12639,7 +12862,7 @@
       <c r="AB265" s="2"/>
       <c r="AC265" s="2"/>
     </row>
-    <row r="266" spans="1:29" ht="21.6">
+    <row r="266" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -12670,7 +12893,7 @@
       <c r="AB266" s="2"/>
       <c r="AC266" s="2"/>
     </row>
-    <row r="267" spans="1:29" ht="21.6">
+    <row r="267" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -12701,7 +12924,7 @@
       <c r="AB267" s="2"/>
       <c r="AC267" s="2"/>
     </row>
-    <row r="268" spans="1:29" ht="21.6">
+    <row r="268" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -12732,7 +12955,7 @@
       <c r="AB268" s="2"/>
       <c r="AC268" s="2"/>
     </row>
-    <row r="269" spans="1:29" ht="21.6">
+    <row r="269" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -12763,7 +12986,7 @@
       <c r="AB269" s="2"/>
       <c r="AC269" s="2"/>
     </row>
-    <row r="270" spans="1:29" ht="21.6">
+    <row r="270" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -12794,7 +13017,7 @@
       <c r="AB270" s="2"/>
       <c r="AC270" s="2"/>
     </row>
-    <row r="271" spans="1:29" ht="21.6">
+    <row r="271" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -12825,7 +13048,7 @@
       <c r="AB271" s="2"/>
       <c r="AC271" s="2"/>
     </row>
-    <row r="272" spans="1:29" ht="21.6">
+    <row r="272" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -12856,7 +13079,7 @@
       <c r="AB272" s="2"/>
       <c r="AC272" s="2"/>
     </row>
-    <row r="273" spans="1:29" ht="21.6">
+    <row r="273" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -12887,7 +13110,7 @@
       <c r="AB273" s="2"/>
       <c r="AC273" s="2"/>
     </row>
-    <row r="274" spans="1:29" ht="21.6">
+    <row r="274" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -12918,7 +13141,7 @@
       <c r="AB274" s="2"/>
       <c r="AC274" s="2"/>
     </row>
-    <row r="275" spans="1:29" ht="21.6">
+    <row r="275" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -12949,7 +13172,7 @@
       <c r="AB275" s="2"/>
       <c r="AC275" s="2"/>
     </row>
-    <row r="276" spans="1:29" ht="21.6">
+    <row r="276" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -12980,7 +13203,7 @@
       <c r="AB276" s="2"/>
       <c r="AC276" s="2"/>
     </row>
-    <row r="277" spans="1:29" ht="21.6">
+    <row r="277" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -13011,7 +13234,7 @@
       <c r="AB277" s="2"/>
       <c r="AC277" s="2"/>
     </row>
-    <row r="278" spans="1:29" ht="21.6">
+    <row r="278" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -13042,7 +13265,7 @@
       <c r="AB278" s="2"/>
       <c r="AC278" s="2"/>
     </row>
-    <row r="279" spans="1:29" ht="21.6">
+    <row r="279" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -13073,7 +13296,7 @@
       <c r="AB279" s="2"/>
       <c r="AC279" s="2"/>
     </row>
-    <row r="280" spans="1:29" ht="21.6">
+    <row r="280" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -13104,7 +13327,7 @@
       <c r="AB280" s="2"/>
       <c r="AC280" s="2"/>
     </row>
-    <row r="281" spans="1:29" ht="21.6">
+    <row r="281" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -13135,7 +13358,7 @@
       <c r="AB281" s="2"/>
       <c r="AC281" s="2"/>
     </row>
-    <row r="282" spans="1:29" ht="21.6">
+    <row r="282" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -13166,7 +13389,7 @@
       <c r="AB282" s="2"/>
       <c r="AC282" s="2"/>
     </row>
-    <row r="283" spans="1:29" ht="21.6">
+    <row r="283" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -13197,7 +13420,7 @@
       <c r="AB283" s="2"/>
       <c r="AC283" s="2"/>
     </row>
-    <row r="284" spans="1:29" ht="21.6">
+    <row r="284" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -13228,7 +13451,7 @@
       <c r="AB284" s="2"/>
       <c r="AC284" s="2"/>
     </row>
-    <row r="285" spans="1:29" ht="21.6">
+    <row r="285" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -13259,7 +13482,7 @@
       <c r="AB285" s="2"/>
       <c r="AC285" s="2"/>
     </row>
-    <row r="286" spans="1:29" ht="21.6">
+    <row r="286" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -13290,7 +13513,7 @@
       <c r="AB286" s="2"/>
       <c r="AC286" s="2"/>
     </row>
-    <row r="287" spans="1:29" ht="21.6">
+    <row r="287" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -13321,7 +13544,7 @@
       <c r="AB287" s="2"/>
       <c r="AC287" s="2"/>
     </row>
-    <row r="288" spans="1:29" ht="21.6">
+    <row r="288" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -13352,7 +13575,7 @@
       <c r="AB288" s="2"/>
       <c r="AC288" s="2"/>
     </row>
-    <row r="289" spans="1:29" ht="21.6">
+    <row r="289" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -13383,7 +13606,7 @@
       <c r="AB289" s="2"/>
       <c r="AC289" s="2"/>
     </row>
-    <row r="290" spans="1:29" ht="21.6">
+    <row r="290" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -13414,7 +13637,7 @@
       <c r="AB290" s="2"/>
       <c r="AC290" s="2"/>
     </row>
-    <row r="291" spans="1:29" ht="21.6">
+    <row r="291" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -13445,7 +13668,7 @@
       <c r="AB291" s="2"/>
       <c r="AC291" s="2"/>
     </row>
-    <row r="292" spans="1:29" ht="21.6">
+    <row r="292" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -13476,7 +13699,7 @@
       <c r="AB292" s="2"/>
       <c r="AC292" s="2"/>
     </row>
-    <row r="293" spans="1:29" ht="21.6">
+    <row r="293" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -13507,7 +13730,7 @@
       <c r="AB293" s="2"/>
       <c r="AC293" s="2"/>
     </row>
-    <row r="294" spans="1:29" ht="21.6">
+    <row r="294" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -13538,7 +13761,7 @@
       <c r="AB294" s="2"/>
       <c r="AC294" s="2"/>
     </row>
-    <row r="295" spans="1:29" ht="21.6">
+    <row r="295" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -13569,7 +13792,7 @@
       <c r="AB295" s="2"/>
       <c r="AC295" s="2"/>
     </row>
-    <row r="296" spans="1:29" ht="21.6">
+    <row r="296" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -13600,7 +13823,7 @@
       <c r="AB296" s="2"/>
       <c r="AC296" s="2"/>
     </row>
-    <row r="297" spans="1:29" ht="21.6">
+    <row r="297" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -13631,7 +13854,7 @@
       <c r="AB297" s="2"/>
       <c r="AC297" s="2"/>
     </row>
-    <row r="298" spans="1:29" ht="21.6">
+    <row r="298" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -13662,7 +13885,7 @@
       <c r="AB298" s="2"/>
       <c r="AC298" s="2"/>
     </row>
-    <row r="299" spans="1:29" ht="21.6">
+    <row r="299" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -13693,7 +13916,7 @@
       <c r="AB299" s="2"/>
       <c r="AC299" s="2"/>
     </row>
-    <row r="300" spans="1:29" ht="21.6">
+    <row r="300" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -13724,7 +13947,7 @@
       <c r="AB300" s="2"/>
       <c r="AC300" s="2"/>
     </row>
-    <row r="301" spans="1:29" ht="21.6">
+    <row r="301" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -13755,7 +13978,7 @@
       <c r="AB301" s="2"/>
       <c r="AC301" s="2"/>
     </row>
-    <row r="302" spans="1:29" ht="21.6">
+    <row r="302" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -13786,7 +14009,7 @@
       <c r="AB302" s="2"/>
       <c r="AC302" s="2"/>
     </row>
-    <row r="303" spans="1:29" ht="21.6">
+    <row r="303" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -13817,7 +14040,7 @@
       <c r="AB303" s="2"/>
       <c r="AC303" s="2"/>
     </row>
-    <row r="304" spans="1:29" ht="21.6">
+    <row r="304" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -13848,7 +14071,7 @@
       <c r="AB304" s="2"/>
       <c r="AC304" s="2"/>
     </row>
-    <row r="305" spans="1:29" ht="21.6">
+    <row r="305" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -13879,7 +14102,7 @@
       <c r="AB305" s="2"/>
       <c r="AC305" s="2"/>
     </row>
-    <row r="306" spans="1:29" ht="21.6">
+    <row r="306" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -13910,7 +14133,7 @@
       <c r="AB306" s="2"/>
       <c r="AC306" s="2"/>
     </row>
-    <row r="307" spans="1:29" ht="21.6">
+    <row r="307" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -13941,7 +14164,7 @@
       <c r="AB307" s="2"/>
       <c r="AC307" s="2"/>
     </row>
-    <row r="308" spans="1:29" ht="21.6">
+    <row r="308" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -13972,7 +14195,7 @@
       <c r="AB308" s="2"/>
       <c r="AC308" s="2"/>
     </row>
-    <row r="309" spans="1:29" ht="21.6">
+    <row r="309" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -14003,7 +14226,7 @@
       <c r="AB309" s="2"/>
       <c r="AC309" s="2"/>
     </row>
-    <row r="310" spans="1:29" ht="21.6">
+    <row r="310" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -14034,7 +14257,7 @@
       <c r="AB310" s="2"/>
       <c r="AC310" s="2"/>
     </row>
-    <row r="311" spans="1:29" ht="21.6">
+    <row r="311" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -14065,7 +14288,7 @@
       <c r="AB311" s="2"/>
       <c r="AC311" s="2"/>
     </row>
-    <row r="312" spans="1:29" ht="21.6">
+    <row r="312" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -14096,7 +14319,7 @@
       <c r="AB312" s="2"/>
       <c r="AC312" s="2"/>
     </row>
-    <row r="313" spans="1:29" ht="21.6">
+    <row r="313" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -14127,7 +14350,7 @@
       <c r="AB313" s="2"/>
       <c r="AC313" s="2"/>
     </row>
-    <row r="314" spans="1:29" ht="21.6">
+    <row r="314" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -14158,7 +14381,7 @@
       <c r="AB314" s="2"/>
       <c r="AC314" s="2"/>
     </row>
-    <row r="315" spans="1:29" ht="21.6">
+    <row r="315" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -14189,7 +14412,7 @@
       <c r="AB315" s="2"/>
       <c r="AC315" s="2"/>
     </row>
-    <row r="316" spans="1:29" ht="21.6">
+    <row r="316" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -14220,7 +14443,7 @@
       <c r="AB316" s="2"/>
       <c r="AC316" s="2"/>
     </row>
-    <row r="317" spans="1:29" ht="21.6">
+    <row r="317" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -14251,7 +14474,7 @@
       <c r="AB317" s="2"/>
       <c r="AC317" s="2"/>
     </row>
-    <row r="318" spans="1:29" ht="21.6">
+    <row r="318" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -14282,7 +14505,7 @@
       <c r="AB318" s="2"/>
       <c r="AC318" s="2"/>
     </row>
-    <row r="319" spans="1:29" ht="21.6">
+    <row r="319" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -14313,7 +14536,7 @@
       <c r="AB319" s="2"/>
       <c r="AC319" s="2"/>
     </row>
-    <row r="320" spans="1:29" ht="21.6">
+    <row r="320" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -14344,7 +14567,7 @@
       <c r="AB320" s="2"/>
       <c r="AC320" s="2"/>
     </row>
-    <row r="321" spans="1:29" ht="21.6">
+    <row r="321" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -14375,7 +14598,7 @@
       <c r="AB321" s="2"/>
       <c r="AC321" s="2"/>
     </row>
-    <row r="322" spans="1:29" ht="21.6">
+    <row r="322" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -14406,7 +14629,7 @@
       <c r="AB322" s="2"/>
       <c r="AC322" s="2"/>
     </row>
-    <row r="323" spans="1:29" ht="21.6">
+    <row r="323" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -14437,7 +14660,7 @@
       <c r="AB323" s="2"/>
       <c r="AC323" s="2"/>
     </row>
-    <row r="324" spans="1:29" ht="21.6">
+    <row r="324" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -14468,7 +14691,7 @@
       <c r="AB324" s="2"/>
       <c r="AC324" s="2"/>
     </row>
-    <row r="325" spans="1:29" ht="21.6">
+    <row r="325" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -14499,7 +14722,7 @@
       <c r="AB325" s="2"/>
       <c r="AC325" s="2"/>
     </row>
-    <row r="326" spans="1:29" ht="21.6">
+    <row r="326" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -14530,7 +14753,7 @@
       <c r="AB326" s="2"/>
       <c r="AC326" s="2"/>
     </row>
-    <row r="327" spans="1:29" ht="21.6">
+    <row r="327" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -14561,7 +14784,7 @@
       <c r="AB327" s="2"/>
       <c r="AC327" s="2"/>
     </row>
-    <row r="328" spans="1:29" ht="21.6">
+    <row r="328" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -14592,7 +14815,7 @@
       <c r="AB328" s="2"/>
       <c r="AC328" s="2"/>
     </row>
-    <row r="329" spans="1:29" ht="21.6">
+    <row r="329" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -14623,7 +14846,7 @@
       <c r="AB329" s="2"/>
       <c r="AC329" s="2"/>
     </row>
-    <row r="330" spans="1:29" ht="21.6">
+    <row r="330" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -14654,7 +14877,7 @@
       <c r="AB330" s="2"/>
       <c r="AC330" s="2"/>
     </row>
-    <row r="331" spans="1:29" ht="21.6">
+    <row r="331" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -14685,7 +14908,7 @@
       <c r="AB331" s="2"/>
       <c r="AC331" s="2"/>
     </row>
-    <row r="332" spans="1:29" ht="21.6">
+    <row r="332" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -14716,7 +14939,7 @@
       <c r="AB332" s="2"/>
       <c r="AC332" s="2"/>
     </row>
-    <row r="333" spans="1:29" ht="21.6">
+    <row r="333" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -14747,7 +14970,7 @@
       <c r="AB333" s="2"/>
       <c r="AC333" s="2"/>
     </row>
-    <row r="334" spans="1:29" ht="21.6">
+    <row r="334" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -14778,7 +15001,7 @@
       <c r="AB334" s="2"/>
       <c r="AC334" s="2"/>
     </row>
-    <row r="335" spans="1:29" ht="21.6">
+    <row r="335" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -14809,7 +15032,7 @@
       <c r="AB335" s="2"/>
       <c r="AC335" s="2"/>
     </row>
-    <row r="336" spans="1:29" ht="21.6">
+    <row r="336" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -14840,7 +15063,7 @@
       <c r="AB336" s="2"/>
       <c r="AC336" s="2"/>
     </row>
-    <row r="337" spans="1:29" ht="21.6">
+    <row r="337" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -14871,7 +15094,7 @@
       <c r="AB337" s="2"/>
       <c r="AC337" s="2"/>
     </row>
-    <row r="338" spans="1:29" ht="21.6">
+    <row r="338" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -14902,7 +15125,7 @@
       <c r="AB338" s="2"/>
       <c r="AC338" s="2"/>
     </row>
-    <row r="339" spans="1:29" ht="21.6">
+    <row r="339" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -14933,7 +15156,7 @@
       <c r="AB339" s="2"/>
       <c r="AC339" s="2"/>
     </row>
-    <row r="340" spans="1:29" ht="21.6">
+    <row r="340" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -14964,7 +15187,7 @@
       <c r="AB340" s="2"/>
       <c r="AC340" s="2"/>
     </row>
-    <row r="341" spans="1:29" ht="21.6">
+    <row r="341" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -14995,7 +15218,7 @@
       <c r="AB341" s="2"/>
       <c r="AC341" s="2"/>
     </row>
-    <row r="342" spans="1:29" ht="21.6">
+    <row r="342" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -15026,7 +15249,7 @@
       <c r="AB342" s="2"/>
       <c r="AC342" s="2"/>
     </row>
-    <row r="343" spans="1:29" ht="21.6">
+    <row r="343" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -15057,7 +15280,7 @@
       <c r="AB343" s="2"/>
       <c r="AC343" s="2"/>
     </row>
-    <row r="344" spans="1:29" ht="21.6">
+    <row r="344" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -15088,7 +15311,7 @@
       <c r="AB344" s="2"/>
       <c r="AC344" s="2"/>
     </row>
-    <row r="345" spans="1:29" ht="21.6">
+    <row r="345" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -15119,7 +15342,7 @@
       <c r="AB345" s="2"/>
       <c r="AC345" s="2"/>
     </row>
-    <row r="346" spans="1:29" ht="21.6">
+    <row r="346" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -15150,7 +15373,7 @@
       <c r="AB346" s="2"/>
       <c r="AC346" s="2"/>
     </row>
-    <row r="347" spans="1:29" ht="21.6">
+    <row r="347" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -15181,7 +15404,7 @@
       <c r="AB347" s="2"/>
       <c r="AC347" s="2"/>
     </row>
-    <row r="348" spans="1:29" ht="21.6">
+    <row r="348" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -15212,7 +15435,7 @@
       <c r="AB348" s="2"/>
       <c r="AC348" s="2"/>
     </row>
-    <row r="349" spans="1:29" ht="21.6">
+    <row r="349" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -15243,7 +15466,7 @@
       <c r="AB349" s="2"/>
       <c r="AC349" s="2"/>
     </row>
-    <row r="350" spans="1:29" ht="21.6">
+    <row r="350" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -15274,7 +15497,7 @@
       <c r="AB350" s="2"/>
       <c r="AC350" s="2"/>
     </row>
-    <row r="351" spans="1:29" ht="21.6">
+    <row r="351" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -15305,7 +15528,7 @@
       <c r="AB351" s="2"/>
       <c r="AC351" s="2"/>
     </row>
-    <row r="352" spans="1:29" ht="21.6">
+    <row r="352" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -15336,7 +15559,7 @@
       <c r="AB352" s="2"/>
       <c r="AC352" s="2"/>
     </row>
-    <row r="353" spans="1:29" ht="21.6">
+    <row r="353" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -15367,7 +15590,7 @@
       <c r="AB353" s="2"/>
       <c r="AC353" s="2"/>
     </row>
-    <row r="354" spans="1:29" ht="21.6">
+    <row r="354" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -15398,7 +15621,7 @@
       <c r="AB354" s="2"/>
       <c r="AC354" s="2"/>
     </row>
-    <row r="355" spans="1:29" ht="21.6">
+    <row r="355" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -15429,7 +15652,7 @@
       <c r="AB355" s="2"/>
       <c r="AC355" s="2"/>
     </row>
-    <row r="356" spans="1:29" ht="21.6">
+    <row r="356" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -15460,7 +15683,7 @@
       <c r="AB356" s="2"/>
       <c r="AC356" s="2"/>
     </row>
-    <row r="357" spans="1:29" ht="21.6">
+    <row r="357" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -15491,7 +15714,7 @@
       <c r="AB357" s="2"/>
       <c r="AC357" s="2"/>
     </row>
-    <row r="358" spans="1:29" ht="21.6">
+    <row r="358" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -15522,7 +15745,7 @@
       <c r="AB358" s="2"/>
       <c r="AC358" s="2"/>
     </row>
-    <row r="359" spans="1:29" ht="21.6">
+    <row r="359" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -15553,7 +15776,7 @@
       <c r="AB359" s="2"/>
       <c r="AC359" s="2"/>
     </row>
-    <row r="360" spans="1:29" ht="21.6">
+    <row r="360" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -15584,7 +15807,7 @@
       <c r="AB360" s="2"/>
       <c r="AC360" s="2"/>
     </row>
-    <row r="361" spans="1:29" ht="21.6">
+    <row r="361" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -15615,7 +15838,7 @@
       <c r="AB361" s="2"/>
       <c r="AC361" s="2"/>
     </row>
-    <row r="362" spans="1:29" ht="21.6">
+    <row r="362" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -15646,7 +15869,7 @@
       <c r="AB362" s="2"/>
       <c r="AC362" s="2"/>
     </row>
-    <row r="363" spans="1:29" ht="21.6">
+    <row r="363" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -15677,7 +15900,7 @@
       <c r="AB363" s="2"/>
       <c r="AC363" s="2"/>
     </row>
-    <row r="364" spans="1:29" ht="21.6">
+    <row r="364" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -15708,7 +15931,7 @@
       <c r="AB364" s="2"/>
       <c r="AC364" s="2"/>
     </row>
-    <row r="365" spans="1:29" ht="21.6">
+    <row r="365" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -15739,7 +15962,7 @@
       <c r="AB365" s="2"/>
       <c r="AC365" s="2"/>
     </row>
-    <row r="366" spans="1:29" ht="21.6">
+    <row r="366" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -15770,7 +15993,7 @@
       <c r="AB366" s="2"/>
       <c r="AC366" s="2"/>
     </row>
-    <row r="367" spans="1:29" ht="21.6">
+    <row r="367" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -15801,7 +16024,7 @@
       <c r="AB367" s="2"/>
       <c r="AC367" s="2"/>
     </row>
-    <row r="368" spans="1:29" ht="21.6">
+    <row r="368" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -15832,7 +16055,7 @@
       <c r="AB368" s="2"/>
       <c r="AC368" s="2"/>
     </row>
-    <row r="369" spans="1:29" ht="21.6">
+    <row r="369" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -15863,7 +16086,7 @@
       <c r="AB369" s="2"/>
       <c r="AC369" s="2"/>
     </row>
-    <row r="370" spans="1:29" ht="21.6">
+    <row r="370" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -15894,7 +16117,7 @@
       <c r="AB370" s="2"/>
       <c r="AC370" s="2"/>
     </row>
-    <row r="371" spans="1:29" ht="21.6">
+    <row r="371" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -15925,7 +16148,7 @@
       <c r="AB371" s="2"/>
       <c r="AC371" s="2"/>
     </row>
-    <row r="372" spans="1:29" ht="21.6">
+    <row r="372" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -15956,7 +16179,7 @@
       <c r="AB372" s="2"/>
       <c r="AC372" s="2"/>
     </row>
-    <row r="373" spans="1:29" ht="21.6">
+    <row r="373" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -15987,7 +16210,7 @@
       <c r="AB373" s="2"/>
       <c r="AC373" s="2"/>
     </row>
-    <row r="374" spans="1:29" ht="21.6">
+    <row r="374" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -16018,7 +16241,7 @@
       <c r="AB374" s="2"/>
       <c r="AC374" s="2"/>
     </row>
-    <row r="375" spans="1:29" ht="21.6">
+    <row r="375" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -16049,7 +16272,7 @@
       <c r="AB375" s="2"/>
       <c r="AC375" s="2"/>
     </row>
-    <row r="376" spans="1:29" ht="21.6">
+    <row r="376" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -16080,7 +16303,7 @@
       <c r="AB376" s="2"/>
       <c r="AC376" s="2"/>
     </row>
-    <row r="377" spans="1:29" ht="21.6">
+    <row r="377" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -16111,7 +16334,7 @@
       <c r="AB377" s="2"/>
       <c r="AC377" s="2"/>
     </row>
-    <row r="378" spans="1:29" ht="21.6">
+    <row r="378" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -16142,7 +16365,7 @@
       <c r="AB378" s="2"/>
       <c r="AC378" s="2"/>
     </row>
-    <row r="379" spans="1:29" ht="21.6">
+    <row r="379" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -16173,7 +16396,7 @@
       <c r="AB379" s="2"/>
       <c r="AC379" s="2"/>
     </row>
-    <row r="380" spans="1:29" ht="21.6">
+    <row r="380" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -16204,7 +16427,7 @@
       <c r="AB380" s="2"/>
       <c r="AC380" s="2"/>
     </row>
-    <row r="381" spans="1:29" ht="21.6">
+    <row r="381" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -16235,7 +16458,7 @@
       <c r="AB381" s="2"/>
       <c r="AC381" s="2"/>
     </row>
-    <row r="382" spans="1:29" ht="21.6">
+    <row r="382" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -16266,7 +16489,7 @@
       <c r="AB382" s="2"/>
       <c r="AC382" s="2"/>
     </row>
-    <row r="383" spans="1:29" ht="21.6">
+    <row r="383" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -16297,7 +16520,7 @@
       <c r="AB383" s="2"/>
       <c r="AC383" s="2"/>
     </row>
-    <row r="384" spans="1:29" ht="21.6">
+    <row r="384" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -16328,7 +16551,7 @@
       <c r="AB384" s="2"/>
       <c r="AC384" s="2"/>
     </row>
-    <row r="385" spans="1:29" ht="21.6">
+    <row r="385" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -16359,7 +16582,7 @@
       <c r="AB385" s="2"/>
       <c r="AC385" s="2"/>
     </row>
-    <row r="386" spans="1:29" ht="21.6">
+    <row r="386" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -16390,7 +16613,7 @@
       <c r="AB386" s="2"/>
       <c r="AC386" s="2"/>
     </row>
-    <row r="387" spans="1:29" ht="21.6">
+    <row r="387" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -16421,7 +16644,7 @@
       <c r="AB387" s="2"/>
       <c r="AC387" s="2"/>
     </row>
-    <row r="388" spans="1:29" ht="21.6">
+    <row r="388" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -16452,7 +16675,7 @@
       <c r="AB388" s="2"/>
       <c r="AC388" s="2"/>
     </row>
-    <row r="389" spans="1:29" ht="21.6">
+    <row r="389" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -16483,7 +16706,7 @@
       <c r="AB389" s="2"/>
       <c r="AC389" s="2"/>
     </row>
-    <row r="390" spans="1:29" ht="21.6">
+    <row r="390" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -16514,7 +16737,7 @@
       <c r="AB390" s="2"/>
       <c r="AC390" s="2"/>
     </row>
-    <row r="391" spans="1:29" ht="21.6">
+    <row r="391" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -16545,7 +16768,7 @@
       <c r="AB391" s="2"/>
       <c r="AC391" s="2"/>
     </row>
-    <row r="392" spans="1:29" ht="21.6">
+    <row r="392" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -16576,7 +16799,7 @@
       <c r="AB392" s="2"/>
       <c r="AC392" s="2"/>
     </row>
-    <row r="393" spans="1:29" ht="21.6">
+    <row r="393" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -16607,7 +16830,7 @@
       <c r="AB393" s="2"/>
       <c r="AC393" s="2"/>
     </row>
-    <row r="394" spans="1:29" ht="21.6">
+    <row r="394" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -16638,7 +16861,7 @@
       <c r="AB394" s="2"/>
       <c r="AC394" s="2"/>
     </row>
-    <row r="395" spans="1:29" ht="21.6">
+    <row r="395" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -16669,7 +16892,7 @@
       <c r="AB395" s="2"/>
       <c r="AC395" s="2"/>
     </row>
-    <row r="396" spans="1:29" ht="21.6">
+    <row r="396" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -16700,7 +16923,7 @@
       <c r="AB396" s="2"/>
       <c r="AC396" s="2"/>
     </row>
-    <row r="397" spans="1:29" ht="21.6">
+    <row r="397" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -16731,7 +16954,7 @@
       <c r="AB397" s="2"/>
       <c r="AC397" s="2"/>
     </row>
-    <row r="398" spans="1:29" ht="21.6">
+    <row r="398" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -16762,7 +16985,7 @@
       <c r="AB398" s="2"/>
       <c r="AC398" s="2"/>
     </row>
-    <row r="399" spans="1:29" ht="21.6">
+    <row r="399" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -16793,7 +17016,7 @@
       <c r="AB399" s="2"/>
       <c r="AC399" s="2"/>
     </row>
-    <row r="400" spans="1:29" ht="21.6">
+    <row r="400" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -16824,7 +17047,7 @@
       <c r="AB400" s="2"/>
       <c r="AC400" s="2"/>
     </row>
-    <row r="401" spans="1:29" ht="21.6">
+    <row r="401" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -16855,7 +17078,7 @@
       <c r="AB401" s="2"/>
       <c r="AC401" s="2"/>
     </row>
-    <row r="402" spans="1:29" ht="21.6">
+    <row r="402" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -16886,7 +17109,7 @@
       <c r="AB402" s="2"/>
       <c r="AC402" s="2"/>
     </row>
-    <row r="403" spans="1:29" ht="21.6">
+    <row r="403" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -16917,7 +17140,7 @@
       <c r="AB403" s="2"/>
       <c r="AC403" s="2"/>
     </row>
-    <row r="404" spans="1:29" ht="21.6">
+    <row r="404" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -16948,7 +17171,7 @@
       <c r="AB404" s="2"/>
       <c r="AC404" s="2"/>
     </row>
-    <row r="405" spans="1:29" ht="21.6">
+    <row r="405" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -16979,7 +17202,7 @@
       <c r="AB405" s="2"/>
       <c r="AC405" s="2"/>
     </row>
-    <row r="406" spans="1:29" ht="21.6">
+    <row r="406" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -17010,7 +17233,7 @@
       <c r="AB406" s="2"/>
       <c r="AC406" s="2"/>
     </row>
-    <row r="407" spans="1:29" ht="21.6">
+    <row r="407" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -17041,7 +17264,7 @@
       <c r="AB407" s="2"/>
       <c r="AC407" s="2"/>
     </row>
-    <row r="408" spans="1:29" ht="21.6">
+    <row r="408" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -17072,7 +17295,7 @@
       <c r="AB408" s="2"/>
       <c r="AC408" s="2"/>
     </row>
-    <row r="409" spans="1:29" ht="21.6">
+    <row r="409" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -17103,7 +17326,7 @@
       <c r="AB409" s="2"/>
       <c r="AC409" s="2"/>
     </row>
-    <row r="410" spans="1:29" ht="21.6">
+    <row r="410" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -17134,7 +17357,7 @@
       <c r="AB410" s="2"/>
       <c r="AC410" s="2"/>
     </row>
-    <row r="411" spans="1:29" ht="21.6">
+    <row r="411" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -17165,7 +17388,7 @@
       <c r="AB411" s="2"/>
       <c r="AC411" s="2"/>
     </row>
-    <row r="412" spans="1:29" ht="21.6">
+    <row r="412" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -17196,7 +17419,7 @@
       <c r="AB412" s="2"/>
       <c r="AC412" s="2"/>
     </row>
-    <row r="413" spans="1:29" ht="21.6">
+    <row r="413" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -17227,7 +17450,7 @@
       <c r="AB413" s="2"/>
       <c r="AC413" s="2"/>
     </row>
-    <row r="414" spans="1:29" ht="21.6">
+    <row r="414" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -17258,7 +17481,7 @@
       <c r="AB414" s="2"/>
       <c r="AC414" s="2"/>
     </row>
-    <row r="415" spans="1:29" ht="21.6">
+    <row r="415" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -17289,7 +17512,7 @@
       <c r="AB415" s="2"/>
       <c r="AC415" s="2"/>
     </row>
-    <row r="416" spans="1:29" ht="21.6">
+    <row r="416" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -17320,7 +17543,7 @@
       <c r="AB416" s="2"/>
       <c r="AC416" s="2"/>
     </row>
-    <row r="417" spans="1:29" ht="21.6">
+    <row r="417" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -17351,7 +17574,7 @@
       <c r="AB417" s="2"/>
       <c r="AC417" s="2"/>
     </row>
-    <row r="418" spans="1:29" ht="21.6">
+    <row r="418" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -17382,7 +17605,7 @@
       <c r="AB418" s="2"/>
       <c r="AC418" s="2"/>
     </row>
-    <row r="419" spans="1:29" ht="21.6">
+    <row r="419" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -17413,7 +17636,7 @@
       <c r="AB419" s="2"/>
       <c r="AC419" s="2"/>
     </row>
-    <row r="420" spans="1:29" ht="21.6">
+    <row r="420" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -17444,7 +17667,7 @@
       <c r="AB420" s="2"/>
       <c r="AC420" s="2"/>
     </row>
-    <row r="421" spans="1:29" ht="21.6">
+    <row r="421" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -17475,7 +17698,7 @@
       <c r="AB421" s="2"/>
       <c r="AC421" s="2"/>
     </row>
-    <row r="422" spans="1:29" ht="21.6">
+    <row r="422" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -17506,7 +17729,7 @@
       <c r="AB422" s="2"/>
       <c r="AC422" s="2"/>
     </row>
-    <row r="423" spans="1:29" ht="21.6">
+    <row r="423" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -17537,7 +17760,7 @@
       <c r="AB423" s="2"/>
       <c r="AC423" s="2"/>
     </row>
-    <row r="424" spans="1:29" ht="21.6">
+    <row r="424" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -17568,7 +17791,7 @@
       <c r="AB424" s="2"/>
       <c r="AC424" s="2"/>
     </row>
-    <row r="425" spans="1:29" ht="21.6">
+    <row r="425" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -17599,7 +17822,7 @@
       <c r="AB425" s="2"/>
       <c r="AC425" s="2"/>
     </row>
-    <row r="426" spans="1:29" ht="21.6">
+    <row r="426" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -17630,7 +17853,7 @@
       <c r="AB426" s="2"/>
       <c r="AC426" s="2"/>
     </row>
-    <row r="427" spans="1:29" ht="21.6">
+    <row r="427" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -17661,7 +17884,7 @@
       <c r="AB427" s="2"/>
       <c r="AC427" s="2"/>
     </row>
-    <row r="428" spans="1:29" ht="21.6">
+    <row r="428" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -17692,7 +17915,7 @@
       <c r="AB428" s="2"/>
       <c r="AC428" s="2"/>
     </row>
-    <row r="429" spans="1:29" ht="21.6">
+    <row r="429" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -17723,7 +17946,7 @@
       <c r="AB429" s="2"/>
       <c r="AC429" s="2"/>
     </row>
-    <row r="430" spans="1:29" ht="21.6">
+    <row r="430" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -17754,7 +17977,7 @@
       <c r="AB430" s="2"/>
       <c r="AC430" s="2"/>
     </row>
-    <row r="431" spans="1:29" ht="21.6">
+    <row r="431" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -17785,7 +18008,7 @@
       <c r="AB431" s="2"/>
       <c r="AC431" s="2"/>
     </row>
-    <row r="432" spans="1:29" ht="21.6">
+    <row r="432" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -17816,7 +18039,7 @@
       <c r="AB432" s="2"/>
       <c r="AC432" s="2"/>
     </row>
-    <row r="433" spans="1:29" ht="21.6">
+    <row r="433" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -17847,7 +18070,7 @@
       <c r="AB433" s="2"/>
       <c r="AC433" s="2"/>
     </row>
-    <row r="434" spans="1:29" ht="21.6">
+    <row r="434" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -17878,7 +18101,7 @@
       <c r="AB434" s="2"/>
       <c r="AC434" s="2"/>
     </row>
-    <row r="435" spans="1:29" ht="21.6">
+    <row r="435" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -17909,7 +18132,7 @@
       <c r="AB435" s="2"/>
       <c r="AC435" s="2"/>
     </row>
-    <row r="436" spans="1:29" ht="21.6">
+    <row r="436" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -17940,7 +18163,7 @@
       <c r="AB436" s="2"/>
       <c r="AC436" s="2"/>
     </row>
-    <row r="437" spans="1:29" ht="21.6">
+    <row r="437" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -17971,7 +18194,7 @@
       <c r="AB437" s="2"/>
       <c r="AC437" s="2"/>
     </row>
-    <row r="438" spans="1:29" ht="21.6">
+    <row r="438" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -18002,7 +18225,7 @@
       <c r="AB438" s="2"/>
       <c r="AC438" s="2"/>
     </row>
-    <row r="439" spans="1:29" ht="21.6">
+    <row r="439" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -18033,7 +18256,7 @@
       <c r="AB439" s="2"/>
       <c r="AC439" s="2"/>
     </row>
-    <row r="440" spans="1:29" ht="21.6">
+    <row r="440" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -18064,7 +18287,7 @@
       <c r="AB440" s="2"/>
       <c r="AC440" s="2"/>
     </row>
-    <row r="441" spans="1:29" ht="21.6">
+    <row r="441" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -18095,7 +18318,7 @@
       <c r="AB441" s="2"/>
       <c r="AC441" s="2"/>
     </row>
-    <row r="442" spans="1:29" ht="21.6">
+    <row r="442" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -18126,7 +18349,7 @@
       <c r="AB442" s="2"/>
       <c r="AC442" s="2"/>
     </row>
-    <row r="443" spans="1:29" ht="21.6">
+    <row r="443" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -18157,7 +18380,7 @@
       <c r="AB443" s="2"/>
       <c r="AC443" s="2"/>
     </row>
-    <row r="444" spans="1:29" ht="21.6">
+    <row r="444" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -18188,7 +18411,7 @@
       <c r="AB444" s="2"/>
       <c r="AC444" s="2"/>
     </row>
-    <row r="445" spans="1:29" ht="21.6">
+    <row r="445" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -18219,7 +18442,7 @@
       <c r="AB445" s="2"/>
       <c r="AC445" s="2"/>
     </row>
-    <row r="446" spans="1:29" ht="21.6">
+    <row r="446" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -18250,7 +18473,7 @@
       <c r="AB446" s="2"/>
       <c r="AC446" s="2"/>
     </row>
-    <row r="447" spans="1:29" ht="21.6">
+    <row r="447" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -18281,7 +18504,7 @@
       <c r="AB447" s="2"/>
       <c r="AC447" s="2"/>
     </row>
-    <row r="448" spans="1:29" ht="21.6">
+    <row r="448" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -18312,7 +18535,7 @@
       <c r="AB448" s="2"/>
       <c r="AC448" s="2"/>
     </row>
-    <row r="449" spans="1:29" ht="21.6">
+    <row r="449" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -18343,7 +18566,7 @@
       <c r="AB449" s="2"/>
       <c r="AC449" s="2"/>
     </row>
-    <row r="450" spans="1:29" ht="21.6">
+    <row r="450" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -18374,7 +18597,7 @@
       <c r="AB450" s="2"/>
       <c r="AC450" s="2"/>
     </row>
-    <row r="451" spans="1:29" ht="21.6">
+    <row r="451" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -18405,7 +18628,7 @@
       <c r="AB451" s="2"/>
       <c r="AC451" s="2"/>
     </row>
-    <row r="452" spans="1:29" ht="21.6">
+    <row r="452" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -18436,7 +18659,7 @@
       <c r="AB452" s="2"/>
       <c r="AC452" s="2"/>
     </row>
-    <row r="453" spans="1:29" ht="21.6">
+    <row r="453" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -18467,7 +18690,7 @@
       <c r="AB453" s="2"/>
       <c r="AC453" s="2"/>
     </row>
-    <row r="454" spans="1:29" ht="21.6">
+    <row r="454" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -18498,7 +18721,7 @@
       <c r="AB454" s="2"/>
       <c r="AC454" s="2"/>
     </row>
-    <row r="455" spans="1:29" ht="21.6">
+    <row r="455" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -18529,7 +18752,7 @@
       <c r="AB455" s="2"/>
       <c r="AC455" s="2"/>
     </row>
-    <row r="456" spans="1:29" ht="21.6">
+    <row r="456" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -18560,7 +18783,7 @@
       <c r="AB456" s="2"/>
       <c r="AC456" s="2"/>
     </row>
-    <row r="457" spans="1:29" ht="21.6">
+    <row r="457" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -18591,7 +18814,7 @@
       <c r="AB457" s="2"/>
       <c r="AC457" s="2"/>
     </row>
-    <row r="458" spans="1:29" ht="21.6">
+    <row r="458" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -18622,7 +18845,7 @@
       <c r="AB458" s="2"/>
       <c r="AC458" s="2"/>
     </row>
-    <row r="459" spans="1:29" ht="21.6">
+    <row r="459" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -18653,7 +18876,7 @@
       <c r="AB459" s="2"/>
       <c r="AC459" s="2"/>
     </row>
-    <row r="460" spans="1:29" ht="21.6">
+    <row r="460" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -18684,7 +18907,7 @@
       <c r="AB460" s="2"/>
       <c r="AC460" s="2"/>
     </row>
-    <row r="461" spans="1:29" ht="21.6">
+    <row r="461" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -18715,7 +18938,7 @@
       <c r="AB461" s="2"/>
       <c r="AC461" s="2"/>
     </row>
-    <row r="462" spans="1:29" ht="21.6">
+    <row r="462" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -18746,7 +18969,7 @@
       <c r="AB462" s="2"/>
       <c r="AC462" s="2"/>
     </row>
-    <row r="463" spans="1:29" ht="21.6">
+    <row r="463" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -18777,7 +19000,7 @@
       <c r="AB463" s="2"/>
       <c r="AC463" s="2"/>
     </row>
-    <row r="464" spans="1:29" ht="21.6">
+    <row r="464" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -18808,7 +19031,7 @@
       <c r="AB464" s="2"/>
       <c r="AC464" s="2"/>
     </row>
-    <row r="465" spans="1:29" ht="21.6">
+    <row r="465" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -18839,7 +19062,7 @@
       <c r="AB465" s="2"/>
       <c r="AC465" s="2"/>
     </row>
-    <row r="466" spans="1:29" ht="21.6">
+    <row r="466" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -18870,7 +19093,7 @@
       <c r="AB466" s="2"/>
       <c r="AC466" s="2"/>
     </row>
-    <row r="467" spans="1:29" ht="21.6">
+    <row r="467" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -18901,7 +19124,7 @@
       <c r="AB467" s="2"/>
       <c r="AC467" s="2"/>
     </row>
-    <row r="468" spans="1:29" ht="21.6">
+    <row r="468" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -18932,7 +19155,7 @@
       <c r="AB468" s="2"/>
       <c r="AC468" s="2"/>
     </row>
-    <row r="469" spans="1:29" ht="21.6">
+    <row r="469" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -18963,7 +19186,7 @@
       <c r="AB469" s="2"/>
       <c r="AC469" s="2"/>
     </row>
-    <row r="470" spans="1:29" ht="21.6">
+    <row r="470" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -18994,7 +19217,7 @@
       <c r="AB470" s="2"/>
       <c r="AC470" s="2"/>
     </row>
-    <row r="471" spans="1:29" ht="21.6">
+    <row r="471" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -19025,7 +19248,7 @@
       <c r="AB471" s="2"/>
       <c r="AC471" s="2"/>
     </row>
-    <row r="472" spans="1:29" ht="21.6">
+    <row r="472" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -19056,7 +19279,7 @@
       <c r="AB472" s="2"/>
       <c r="AC472" s="2"/>
     </row>
-    <row r="473" spans="1:29" ht="21.6">
+    <row r="473" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -19087,7 +19310,7 @@
       <c r="AB473" s="2"/>
       <c r="AC473" s="2"/>
     </row>
-    <row r="474" spans="1:29" ht="21.6">
+    <row r="474" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -19118,7 +19341,7 @@
       <c r="AB474" s="2"/>
       <c r="AC474" s="2"/>
     </row>
-    <row r="475" spans="1:29" ht="21.6">
+    <row r="475" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -19149,7 +19372,7 @@
       <c r="AB475" s="2"/>
       <c r="AC475" s="2"/>
     </row>
-    <row r="476" spans="1:29" ht="21.6">
+    <row r="476" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -19180,7 +19403,7 @@
       <c r="AB476" s="2"/>
       <c r="AC476" s="2"/>
     </row>
-    <row r="477" spans="1:29" ht="21.6">
+    <row r="477" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -19211,7 +19434,7 @@
       <c r="AB477" s="2"/>
       <c r="AC477" s="2"/>
     </row>
-    <row r="478" spans="1:29" ht="21.6">
+    <row r="478" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -19242,7 +19465,7 @@
       <c r="AB478" s="2"/>
       <c r="AC478" s="2"/>
     </row>
-    <row r="479" spans="1:29" ht="21.6">
+    <row r="479" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -19273,7 +19496,7 @@
       <c r="AB479" s="2"/>
       <c r="AC479" s="2"/>
     </row>
-    <row r="480" spans="1:29" ht="21.6">
+    <row r="480" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -19304,7 +19527,7 @@
       <c r="AB480" s="2"/>
       <c r="AC480" s="2"/>
     </row>
-    <row r="481" spans="1:29" ht="21.6">
+    <row r="481" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -19335,7 +19558,7 @@
       <c r="AB481" s="2"/>
       <c r="AC481" s="2"/>
     </row>
-    <row r="482" spans="1:29" ht="21.6">
+    <row r="482" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -19366,7 +19589,7 @@
       <c r="AB482" s="2"/>
       <c r="AC482" s="2"/>
     </row>
-    <row r="483" spans="1:29" ht="21.6">
+    <row r="483" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -19397,7 +19620,7 @@
       <c r="AB483" s="2"/>
       <c r="AC483" s="2"/>
     </row>
-    <row r="484" spans="1:29" ht="21.6">
+    <row r="484" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -19428,7 +19651,7 @@
       <c r="AB484" s="2"/>
       <c r="AC484" s="2"/>
     </row>
-    <row r="485" spans="1:29" ht="21.6">
+    <row r="485" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -19459,7 +19682,7 @@
       <c r="AB485" s="2"/>
       <c r="AC485" s="2"/>
     </row>
-    <row r="486" spans="1:29" ht="21.6">
+    <row r="486" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -19490,7 +19713,7 @@
       <c r="AB486" s="2"/>
       <c r="AC486" s="2"/>
     </row>
-    <row r="487" spans="1:29" ht="21.6">
+    <row r="487" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -19521,7 +19744,7 @@
       <c r="AB487" s="2"/>
       <c r="AC487" s="2"/>
     </row>
-    <row r="488" spans="1:29" ht="21.6">
+    <row r="488" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -19552,7 +19775,7 @@
       <c r="AB488" s="2"/>
       <c r="AC488" s="2"/>
     </row>
-    <row r="489" spans="1:29" ht="21.6">
+    <row r="489" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -19583,7 +19806,7 @@
       <c r="AB489" s="2"/>
       <c r="AC489" s="2"/>
     </row>
-    <row r="490" spans="1:29" ht="21.6">
+    <row r="490" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -19614,7 +19837,7 @@
       <c r="AB490" s="2"/>
       <c r="AC490" s="2"/>
     </row>
-    <row r="491" spans="1:29" ht="21.6">
+    <row r="491" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -19645,7 +19868,7 @@
       <c r="AB491" s="2"/>
       <c r="AC491" s="2"/>
     </row>
-    <row r="492" spans="1:29" ht="21.6">
+    <row r="492" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -19676,7 +19899,7 @@
       <c r="AB492" s="2"/>
       <c r="AC492" s="2"/>
     </row>
-    <row r="493" spans="1:29" ht="21.6">
+    <row r="493" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -19707,7 +19930,7 @@
       <c r="AB493" s="2"/>
       <c r="AC493" s="2"/>
     </row>
-    <row r="494" spans="1:29" ht="21.6">
+    <row r="494" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -19738,7 +19961,7 @@
       <c r="AB494" s="2"/>
       <c r="AC494" s="2"/>
     </row>
-    <row r="495" spans="1:29" ht="21.6">
+    <row r="495" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -19769,7 +19992,7 @@
       <c r="AB495" s="2"/>
       <c r="AC495" s="2"/>
     </row>
-    <row r="496" spans="1:29" ht="21.6">
+    <row r="496" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -19800,7 +20023,7 @@
       <c r="AB496" s="2"/>
       <c r="AC496" s="2"/>
     </row>
-    <row r="497" spans="1:29" ht="21.6">
+    <row r="497" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -19831,7 +20054,7 @@
       <c r="AB497" s="2"/>
       <c r="AC497" s="2"/>
     </row>
-    <row r="498" spans="1:29" ht="21.6">
+    <row r="498" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -19862,7 +20085,7 @@
       <c r="AB498" s="2"/>
       <c r="AC498" s="2"/>
     </row>
-    <row r="499" spans="1:29" ht="21.6">
+    <row r="499" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -19893,7 +20116,7 @@
       <c r="AB499" s="2"/>
       <c r="AC499" s="2"/>
     </row>
-    <row r="500" spans="1:29" ht="21.6">
+    <row r="500" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -19924,7 +20147,7 @@
       <c r="AB500" s="2"/>
       <c r="AC500" s="2"/>
     </row>
-    <row r="501" spans="1:29" ht="21.6">
+    <row r="501" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -19955,7 +20178,7 @@
       <c r="AB501" s="2"/>
       <c r="AC501" s="2"/>
     </row>
-    <row r="502" spans="1:29" ht="21.6">
+    <row r="502" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -19986,7 +20209,7 @@
       <c r="AB502" s="2"/>
       <c r="AC502" s="2"/>
     </row>
-    <row r="503" spans="1:29" ht="21.6">
+    <row r="503" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -20017,7 +20240,7 @@
       <c r="AB503" s="2"/>
       <c r="AC503" s="2"/>
     </row>
-    <row r="504" spans="1:29" ht="21.6">
+    <row r="504" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -20048,7 +20271,7 @@
       <c r="AB504" s="2"/>
       <c r="AC504" s="2"/>
     </row>
-    <row r="505" spans="1:29" ht="21.6">
+    <row r="505" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -20079,7 +20302,7 @@
       <c r="AB505" s="2"/>
       <c r="AC505" s="2"/>
     </row>
-    <row r="506" spans="1:29" ht="21.6">
+    <row r="506" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -20110,7 +20333,7 @@
       <c r="AB506" s="2"/>
       <c r="AC506" s="2"/>
     </row>
-    <row r="507" spans="1:29" ht="21.6">
+    <row r="507" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -20141,7 +20364,7 @@
       <c r="AB507" s="2"/>
       <c r="AC507" s="2"/>
     </row>
-    <row r="508" spans="1:29" ht="21.6">
+    <row r="508" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -20172,7 +20395,7 @@
       <c r="AB508" s="2"/>
       <c r="AC508" s="2"/>
     </row>
-    <row r="509" spans="1:29" ht="21.6">
+    <row r="509" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -20203,7 +20426,7 @@
       <c r="AB509" s="2"/>
       <c r="AC509" s="2"/>
     </row>
-    <row r="510" spans="1:29" ht="21.6">
+    <row r="510" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -20234,7 +20457,7 @@
       <c r="AB510" s="2"/>
       <c r="AC510" s="2"/>
     </row>
-    <row r="511" spans="1:29" ht="21.6">
+    <row r="511" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -20265,7 +20488,7 @@
       <c r="AB511" s="2"/>
       <c r="AC511" s="2"/>
     </row>
-    <row r="512" spans="1:29" ht="21.6">
+    <row r="512" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -20296,7 +20519,7 @@
       <c r="AB512" s="2"/>
       <c r="AC512" s="2"/>
     </row>
-    <row r="513" spans="1:29" ht="21.6">
+    <row r="513" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -20327,7 +20550,7 @@
       <c r="AB513" s="2"/>
       <c r="AC513" s="2"/>
     </row>
-    <row r="514" spans="1:29" ht="21.6">
+    <row r="514" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -20358,7 +20581,7 @@
       <c r="AB514" s="2"/>
       <c r="AC514" s="2"/>
     </row>
-    <row r="515" spans="1:29" ht="21.6">
+    <row r="515" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -20389,7 +20612,7 @@
       <c r="AB515" s="2"/>
       <c r="AC515" s="2"/>
     </row>
-    <row r="516" spans="1:29" ht="21.6">
+    <row r="516" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -20420,7 +20643,7 @@
       <c r="AB516" s="2"/>
       <c r="AC516" s="2"/>
     </row>
-    <row r="517" spans="1:29" ht="21.6">
+    <row r="517" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -20451,7 +20674,7 @@
       <c r="AB517" s="2"/>
       <c r="AC517" s="2"/>
     </row>
-    <row r="518" spans="1:29" ht="21.6">
+    <row r="518" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -20482,7 +20705,7 @@
       <c r="AB518" s="2"/>
       <c r="AC518" s="2"/>
     </row>
-    <row r="519" spans="1:29" ht="21.6">
+    <row r="519" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -20513,7 +20736,7 @@
       <c r="AB519" s="2"/>
       <c r="AC519" s="2"/>
     </row>
-    <row r="520" spans="1:29" ht="21.6">
+    <row r="520" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -20544,7 +20767,7 @@
       <c r="AB520" s="2"/>
       <c r="AC520" s="2"/>
     </row>
-    <row r="521" spans="1:29" ht="21.6">
+    <row r="521" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -20575,7 +20798,7 @@
       <c r="AB521" s="2"/>
       <c r="AC521" s="2"/>
     </row>
-    <row r="522" spans="1:29" ht="21.6">
+    <row r="522" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -20606,7 +20829,7 @@
       <c r="AB522" s="2"/>
       <c r="AC522" s="2"/>
     </row>
-    <row r="523" spans="1:29" ht="21.6">
+    <row r="523" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -20637,7 +20860,7 @@
       <c r="AB523" s="2"/>
       <c r="AC523" s="2"/>
     </row>
-    <row r="524" spans="1:29" ht="21.6">
+    <row r="524" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -20668,7 +20891,7 @@
       <c r="AB524" s="2"/>
       <c r="AC524" s="2"/>
     </row>
-    <row r="525" spans="1:29" ht="21.6">
+    <row r="525" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -20699,7 +20922,7 @@
       <c r="AB525" s="2"/>
       <c r="AC525" s="2"/>
     </row>
-    <row r="526" spans="1:29" ht="21.6">
+    <row r="526" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -20730,7 +20953,7 @@
       <c r="AB526" s="2"/>
       <c r="AC526" s="2"/>
     </row>
-    <row r="527" spans="1:29" ht="21.6">
+    <row r="527" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -20761,7 +20984,7 @@
       <c r="AB527" s="2"/>
       <c r="AC527" s="2"/>
     </row>
-    <row r="528" spans="1:29" ht="21.6">
+    <row r="528" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -20792,7 +21015,7 @@
       <c r="AB528" s="2"/>
       <c r="AC528" s="2"/>
     </row>
-    <row r="529" spans="1:29" ht="21.6">
+    <row r="529" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -20823,7 +21046,7 @@
       <c r="AB529" s="2"/>
       <c r="AC529" s="2"/>
     </row>
-    <row r="530" spans="1:29" ht="21.6">
+    <row r="530" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -20854,7 +21077,7 @@
       <c r="AB530" s="2"/>
       <c r="AC530" s="2"/>
     </row>
-    <row r="531" spans="1:29" ht="21.6">
+    <row r="531" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -20885,7 +21108,7 @@
       <c r="AB531" s="2"/>
       <c r="AC531" s="2"/>
     </row>
-    <row r="532" spans="1:29" ht="21.6">
+    <row r="532" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -20916,7 +21139,7 @@
       <c r="AB532" s="2"/>
       <c r="AC532" s="2"/>
     </row>
-    <row r="533" spans="1:29" ht="21.6">
+    <row r="533" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -20947,7 +21170,7 @@
       <c r="AB533" s="2"/>
       <c r="AC533" s="2"/>
     </row>
-    <row r="534" spans="1:29" ht="21.6">
+    <row r="534" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -20978,7 +21201,7 @@
       <c r="AB534" s="2"/>
       <c r="AC534" s="2"/>
     </row>
-    <row r="535" spans="1:29" ht="21.6">
+    <row r="535" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -21009,7 +21232,7 @@
       <c r="AB535" s="2"/>
       <c r="AC535" s="2"/>
     </row>
-    <row r="536" spans="1:29" ht="21.6">
+    <row r="536" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -21040,7 +21263,7 @@
       <c r="AB536" s="2"/>
       <c r="AC536" s="2"/>
     </row>
-    <row r="537" spans="1:29" ht="21.6">
+    <row r="537" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -21071,7 +21294,7 @@
       <c r="AB537" s="2"/>
       <c r="AC537" s="2"/>
     </row>
-    <row r="538" spans="1:29" ht="21.6">
+    <row r="538" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -21102,7 +21325,7 @@
       <c r="AB538" s="2"/>
       <c r="AC538" s="2"/>
     </row>
-    <row r="539" spans="1:29" ht="21.6">
+    <row r="539" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -21133,7 +21356,7 @@
       <c r="AB539" s="2"/>
       <c r="AC539" s="2"/>
     </row>
-    <row r="540" spans="1:29" ht="21.6">
+    <row r="540" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -21164,7 +21387,7 @@
       <c r="AB540" s="2"/>
       <c r="AC540" s="2"/>
     </row>
-    <row r="541" spans="1:29" ht="21.6">
+    <row r="541" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -21195,7 +21418,7 @@
       <c r="AB541" s="2"/>
       <c r="AC541" s="2"/>
     </row>
-    <row r="542" spans="1:29" ht="21.6">
+    <row r="542" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -21226,7 +21449,7 @@
       <c r="AB542" s="2"/>
       <c r="AC542" s="2"/>
     </row>
-    <row r="543" spans="1:29" ht="21.6">
+    <row r="543" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -21257,7 +21480,7 @@
       <c r="AB543" s="2"/>
       <c r="AC543" s="2"/>
     </row>
-    <row r="544" spans="1:29" ht="21.6">
+    <row r="544" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -21288,7 +21511,7 @@
       <c r="AB544" s="2"/>
       <c r="AC544" s="2"/>
     </row>
-    <row r="545" spans="1:29" ht="21.6">
+    <row r="545" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -21319,7 +21542,7 @@
       <c r="AB545" s="2"/>
       <c r="AC545" s="2"/>
     </row>
-    <row r="546" spans="1:29" ht="21.6">
+    <row r="546" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -21350,7 +21573,7 @@
       <c r="AB546" s="2"/>
       <c r="AC546" s="2"/>
     </row>
-    <row r="547" spans="1:29" ht="21.6">
+    <row r="547" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -21381,7 +21604,7 @@
       <c r="AB547" s="2"/>
       <c r="AC547" s="2"/>
     </row>
-    <row r="548" spans="1:29" ht="21.6">
+    <row r="548" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -21412,7 +21635,7 @@
       <c r="AB548" s="2"/>
       <c r="AC548" s="2"/>
     </row>
-    <row r="549" spans="1:29" ht="21.6">
+    <row r="549" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -21443,7 +21666,7 @@
       <c r="AB549" s="2"/>
       <c r="AC549" s="2"/>
     </row>
-    <row r="550" spans="1:29" ht="21.6">
+    <row r="550" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -21474,7 +21697,7 @@
       <c r="AB550" s="2"/>
       <c r="AC550" s="2"/>
     </row>
-    <row r="551" spans="1:29" ht="21.6">
+    <row r="551" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -21505,7 +21728,7 @@
       <c r="AB551" s="2"/>
       <c r="AC551" s="2"/>
     </row>
-    <row r="552" spans="1:29" ht="21.6">
+    <row r="552" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -21536,7 +21759,7 @@
       <c r="AB552" s="2"/>
       <c r="AC552" s="2"/>
     </row>
-    <row r="553" spans="1:29" ht="21.6">
+    <row r="553" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -21567,7 +21790,7 @@
       <c r="AB553" s="2"/>
       <c r="AC553" s="2"/>
     </row>
-    <row r="554" spans="1:29" ht="21.6">
+    <row r="554" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -21598,7 +21821,7 @@
       <c r="AB554" s="2"/>
       <c r="AC554" s="2"/>
     </row>
-    <row r="555" spans="1:29" ht="21.6">
+    <row r="555" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -21629,7 +21852,7 @@
       <c r="AB555" s="2"/>
       <c r="AC555" s="2"/>
     </row>
-    <row r="556" spans="1:29" ht="21.6">
+    <row r="556" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -21660,7 +21883,7 @@
       <c r="AB556" s="2"/>
       <c r="AC556" s="2"/>
     </row>
-    <row r="557" spans="1:29" ht="21.6">
+    <row r="557" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -21691,7 +21914,7 @@
       <c r="AB557" s="2"/>
       <c r="AC557" s="2"/>
     </row>
-    <row r="558" spans="1:29" ht="21.6">
+    <row r="558" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -21722,7 +21945,7 @@
       <c r="AB558" s="2"/>
       <c r="AC558" s="2"/>
     </row>
-    <row r="559" spans="1:29" ht="21.6">
+    <row r="559" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -21753,7 +21976,7 @@
       <c r="AB559" s="2"/>
       <c r="AC559" s="2"/>
     </row>
-    <row r="560" spans="1:29" ht="21.6">
+    <row r="560" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -21784,7 +22007,7 @@
       <c r="AB560" s="2"/>
       <c r="AC560" s="2"/>
     </row>
-    <row r="561" spans="1:29" ht="21.6">
+    <row r="561" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -21815,7 +22038,7 @@
       <c r="AB561" s="2"/>
       <c r="AC561" s="2"/>
     </row>
-    <row r="562" spans="1:29" ht="21.6">
+    <row r="562" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -21846,7 +22069,7 @@
       <c r="AB562" s="2"/>
       <c r="AC562" s="2"/>
     </row>
-    <row r="563" spans="1:29" ht="21.6">
+    <row r="563" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -21877,7 +22100,7 @@
       <c r="AB563" s="2"/>
       <c r="AC563" s="2"/>
     </row>
-    <row r="564" spans="1:29" ht="21.6">
+    <row r="564" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -21908,7 +22131,7 @@
       <c r="AB564" s="2"/>
       <c r="AC564" s="2"/>
     </row>
-    <row r="565" spans="1:29" ht="21.6">
+    <row r="565" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -21939,7 +22162,7 @@
       <c r="AB565" s="2"/>
       <c r="AC565" s="2"/>
     </row>
-    <row r="566" spans="1:29" ht="21.6">
+    <row r="566" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -21970,7 +22193,7 @@
       <c r="AB566" s="2"/>
       <c r="AC566" s="2"/>
     </row>
-    <row r="567" spans="1:29" ht="21.6">
+    <row r="567" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -22001,7 +22224,7 @@
       <c r="AB567" s="2"/>
       <c r="AC567" s="2"/>
     </row>
-    <row r="568" spans="1:29" ht="21.6">
+    <row r="568" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -22032,7 +22255,7 @@
       <c r="AB568" s="2"/>
       <c r="AC568" s="2"/>
     </row>
-    <row r="569" spans="1:29" ht="21.6">
+    <row r="569" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -22063,7 +22286,7 @@
       <c r="AB569" s="2"/>
       <c r="AC569" s="2"/>
     </row>
-    <row r="570" spans="1:29" ht="21.6">
+    <row r="570" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -22094,7 +22317,7 @@
       <c r="AB570" s="2"/>
       <c r="AC570" s="2"/>
     </row>
-    <row r="571" spans="1:29" ht="21.6">
+    <row r="571" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -22125,7 +22348,7 @@
       <c r="AB571" s="2"/>
       <c r="AC571" s="2"/>
     </row>
-    <row r="572" spans="1:29" ht="21.6">
+    <row r="572" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -22156,7 +22379,7 @@
       <c r="AB572" s="2"/>
       <c r="AC572" s="2"/>
     </row>
-    <row r="573" spans="1:29" ht="21.6">
+    <row r="573" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -22187,7 +22410,7 @@
       <c r="AB573" s="2"/>
       <c r="AC573" s="2"/>
     </row>
-    <row r="574" spans="1:29" ht="21.6">
+    <row r="574" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -22218,7 +22441,7 @@
       <c r="AB574" s="2"/>
       <c r="AC574" s="2"/>
     </row>
-    <row r="575" spans="1:29" ht="21.6">
+    <row r="575" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -22249,7 +22472,7 @@
       <c r="AB575" s="2"/>
       <c r="AC575" s="2"/>
     </row>
-    <row r="576" spans="1:29" ht="21.6">
+    <row r="576" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -22280,7 +22503,7 @@
       <c r="AB576" s="2"/>
       <c r="AC576" s="2"/>
     </row>
-    <row r="577" spans="1:29" ht="21.6">
+    <row r="577" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -22311,7 +22534,7 @@
       <c r="AB577" s="2"/>
       <c r="AC577" s="2"/>
     </row>
-    <row r="578" spans="1:29" ht="21.6">
+    <row r="578" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -22342,7 +22565,7 @@
       <c r="AB578" s="2"/>
       <c r="AC578" s="2"/>
     </row>
-    <row r="579" spans="1:29" ht="21.6">
+    <row r="579" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -22373,7 +22596,7 @@
       <c r="AB579" s="2"/>
       <c r="AC579" s="2"/>
     </row>
-    <row r="580" spans="1:29" ht="21.6">
+    <row r="580" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -22404,7 +22627,7 @@
       <c r="AB580" s="2"/>
       <c r="AC580" s="2"/>
     </row>
-    <row r="581" spans="1:29" ht="21.6">
+    <row r="581" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -22435,7 +22658,7 @@
       <c r="AB581" s="2"/>
       <c r="AC581" s="2"/>
     </row>
-    <row r="582" spans="1:29" ht="21.6">
+    <row r="582" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -22466,7 +22689,7 @@
       <c r="AB582" s="2"/>
       <c r="AC582" s="2"/>
     </row>
-    <row r="583" spans="1:29" ht="21.6">
+    <row r="583" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -22497,7 +22720,7 @@
       <c r="AB583" s="2"/>
       <c r="AC583" s="2"/>
     </row>
-    <row r="584" spans="1:29" ht="21.6">
+    <row r="584" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -22528,7 +22751,7 @@
       <c r="AB584" s="2"/>
       <c r="AC584" s="2"/>
     </row>
-    <row r="585" spans="1:29" ht="21.6">
+    <row r="585" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -22559,7 +22782,7 @@
       <c r="AB585" s="2"/>
       <c r="AC585" s="2"/>
     </row>
-    <row r="586" spans="1:29" ht="21.6">
+    <row r="586" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -22590,7 +22813,7 @@
       <c r="AB586" s="2"/>
       <c r="AC586" s="2"/>
     </row>
-    <row r="587" spans="1:29" ht="21.6">
+    <row r="587" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -22621,7 +22844,7 @@
       <c r="AB587" s="2"/>
       <c r="AC587" s="2"/>
     </row>
-    <row r="588" spans="1:29" ht="21.6">
+    <row r="588" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -22652,7 +22875,7 @@
       <c r="AB588" s="2"/>
       <c r="AC588" s="2"/>
     </row>
-    <row r="589" spans="1:29" ht="21.6">
+    <row r="589" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -22683,7 +22906,7 @@
       <c r="AB589" s="2"/>
       <c r="AC589" s="2"/>
     </row>
-    <row r="590" spans="1:29" ht="21.6">
+    <row r="590" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -22714,7 +22937,7 @@
       <c r="AB590" s="2"/>
       <c r="AC590" s="2"/>
     </row>
-    <row r="591" spans="1:29" ht="21.6">
+    <row r="591" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -22745,7 +22968,7 @@
       <c r="AB591" s="2"/>
       <c r="AC591" s="2"/>
     </row>
-    <row r="592" spans="1:29" ht="21.6">
+    <row r="592" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -22776,7 +22999,7 @@
       <c r="AB592" s="2"/>
       <c r="AC592" s="2"/>
     </row>
-    <row r="593" spans="1:29" ht="21.6">
+    <row r="593" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -22807,7 +23030,7 @@
       <c r="AB593" s="2"/>
       <c r="AC593" s="2"/>
     </row>
-    <row r="594" spans="1:29" ht="21.6">
+    <row r="594" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -22838,7 +23061,7 @@
       <c r="AB594" s="2"/>
       <c r="AC594" s="2"/>
     </row>
-    <row r="595" spans="1:29" ht="21.6">
+    <row r="595" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -22869,7 +23092,7 @@
       <c r="AB595" s="2"/>
       <c r="AC595" s="2"/>
     </row>
-    <row r="596" spans="1:29" ht="21.6">
+    <row r="596" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -22900,7 +23123,7 @@
       <c r="AB596" s="2"/>
       <c r="AC596" s="2"/>
     </row>
-    <row r="597" spans="1:29" ht="21.6">
+    <row r="597" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -22931,7 +23154,7 @@
       <c r="AB597" s="2"/>
       <c r="AC597" s="2"/>
     </row>
-    <row r="598" spans="1:29" ht="21.6">
+    <row r="598" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -22962,7 +23185,7 @@
       <c r="AB598" s="2"/>
       <c r="AC598" s="2"/>
     </row>
-    <row r="599" spans="1:29" ht="21.6">
+    <row r="599" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -22993,7 +23216,7 @@
       <c r="AB599" s="2"/>
       <c r="AC599" s="2"/>
     </row>
-    <row r="600" spans="1:29" ht="21.6">
+    <row r="600" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -23024,7 +23247,7 @@
       <c r="AB600" s="2"/>
       <c r="AC600" s="2"/>
     </row>
-    <row r="601" spans="1:29" ht="21.6">
+    <row r="601" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -23055,7 +23278,7 @@
       <c r="AB601" s="2"/>
       <c r="AC601" s="2"/>
     </row>
-    <row r="602" spans="1:29" ht="21.6">
+    <row r="602" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -23086,7 +23309,7 @@
       <c r="AB602" s="2"/>
       <c r="AC602" s="2"/>
     </row>
-    <row r="603" spans="1:29" ht="21.6">
+    <row r="603" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -23117,7 +23340,7 @@
       <c r="AB603" s="2"/>
       <c r="AC603" s="2"/>
     </row>
-    <row r="604" spans="1:29" ht="21.6">
+    <row r="604" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -23148,7 +23371,7 @@
       <c r="AB604" s="2"/>
       <c r="AC604" s="2"/>
     </row>
-    <row r="605" spans="1:29" ht="21.6">
+    <row r="605" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -23179,7 +23402,7 @@
       <c r="AB605" s="2"/>
       <c r="AC605" s="2"/>
     </row>
-    <row r="606" spans="1:29" ht="21.6">
+    <row r="606" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -23210,7 +23433,7 @@
       <c r="AB606" s="2"/>
       <c r="AC606" s="2"/>
     </row>
-    <row r="607" spans="1:29" ht="21.6">
+    <row r="607" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -23241,7 +23464,7 @@
       <c r="AB607" s="2"/>
       <c r="AC607" s="2"/>
     </row>
-    <row r="608" spans="1:29" ht="21.6">
+    <row r="608" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -23272,7 +23495,7 @@
       <c r="AB608" s="2"/>
       <c r="AC608" s="2"/>
     </row>
-    <row r="609" spans="1:29" ht="21.6">
+    <row r="609" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -23303,7 +23526,7 @@
       <c r="AB609" s="2"/>
       <c r="AC609" s="2"/>
     </row>
-    <row r="610" spans="1:29" ht="21.6">
+    <row r="610" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -23334,7 +23557,7 @@
       <c r="AB610" s="2"/>
       <c r="AC610" s="2"/>
     </row>
-    <row r="611" spans="1:29" ht="21.6">
+    <row r="611" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -23365,7 +23588,7 @@
       <c r="AB611" s="2"/>
       <c r="AC611" s="2"/>
     </row>
-    <row r="612" spans="1:29" ht="21.6">
+    <row r="612" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -23396,7 +23619,7 @@
       <c r="AB612" s="2"/>
       <c r="AC612" s="2"/>
     </row>
-    <row r="613" spans="1:29" ht="21.6">
+    <row r="613" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -23427,7 +23650,7 @@
       <c r="AB613" s="2"/>
       <c r="AC613" s="2"/>
     </row>
-    <row r="614" spans="1:29" ht="21.6">
+    <row r="614" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -23458,7 +23681,7 @@
       <c r="AB614" s="2"/>
       <c r="AC614" s="2"/>
     </row>
-    <row r="615" spans="1:29" ht="21.6">
+    <row r="615" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -23489,7 +23712,7 @@
       <c r="AB615" s="2"/>
       <c r="AC615" s="2"/>
     </row>
-    <row r="616" spans="1:29" ht="21.6">
+    <row r="616" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -23520,7 +23743,7 @@
       <c r="AB616" s="2"/>
       <c r="AC616" s="2"/>
     </row>
-    <row r="617" spans="1:29" ht="21.6">
+    <row r="617" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -23551,7 +23774,7 @@
       <c r="AB617" s="2"/>
       <c r="AC617" s="2"/>
     </row>
-    <row r="618" spans="1:29" ht="21.6">
+    <row r="618" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -23582,7 +23805,7 @@
       <c r="AB618" s="2"/>
       <c r="AC618" s="2"/>
     </row>
-    <row r="619" spans="1:29" ht="21.6">
+    <row r="619" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -23613,7 +23836,7 @@
       <c r="AB619" s="2"/>
       <c r="AC619" s="2"/>
     </row>
-    <row r="620" spans="1:29" ht="21.6">
+    <row r="620" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -23644,7 +23867,7 @@
       <c r="AB620" s="2"/>
       <c r="AC620" s="2"/>
     </row>
-    <row r="621" spans="1:29" ht="21.6">
+    <row r="621" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -23675,7 +23898,7 @@
       <c r="AB621" s="2"/>
       <c r="AC621" s="2"/>
     </row>
-    <row r="622" spans="1:29" ht="21.6">
+    <row r="622" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -23706,7 +23929,7 @@
       <c r="AB622" s="2"/>
       <c r="AC622" s="2"/>
     </row>
-    <row r="623" spans="1:29" ht="21.6">
+    <row r="623" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -23737,7 +23960,7 @@
       <c r="AB623" s="2"/>
       <c r="AC623" s="2"/>
     </row>
-    <row r="624" spans="1:29" ht="21.6">
+    <row r="624" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -23768,7 +23991,7 @@
       <c r="AB624" s="2"/>
       <c r="AC624" s="2"/>
     </row>
-    <row r="625" spans="1:29" ht="21.6">
+    <row r="625" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -23799,7 +24022,7 @@
       <c r="AB625" s="2"/>
       <c r="AC625" s="2"/>
     </row>
-    <row r="626" spans="1:29" ht="21.6">
+    <row r="626" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -23830,7 +24053,7 @@
       <c r="AB626" s="2"/>
       <c r="AC626" s="2"/>
     </row>
-    <row r="627" spans="1:29" ht="21.6">
+    <row r="627" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -23861,7 +24084,7 @@
       <c r="AB627" s="2"/>
       <c r="AC627" s="2"/>
     </row>
-    <row r="628" spans="1:29" ht="21.6">
+    <row r="628" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -23892,7 +24115,7 @@
       <c r="AB628" s="2"/>
       <c r="AC628" s="2"/>
     </row>
-    <row r="629" spans="1:29" ht="21.6">
+    <row r="629" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -23923,7 +24146,7 @@
       <c r="AB629" s="2"/>
       <c r="AC629" s="2"/>
     </row>
-    <row r="630" spans="1:29" ht="21.6">
+    <row r="630" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -23954,7 +24177,7 @@
       <c r="AB630" s="2"/>
       <c r="AC630" s="2"/>
     </row>
-    <row r="631" spans="1:29" ht="21.6">
+    <row r="631" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -23985,7 +24208,7 @@
       <c r="AB631" s="2"/>
       <c r="AC631" s="2"/>
     </row>
-    <row r="632" spans="1:29" ht="21.6">
+    <row r="632" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -24016,7 +24239,7 @@
       <c r="AB632" s="2"/>
       <c r="AC632" s="2"/>
     </row>
-    <row r="633" spans="1:29" ht="21.6">
+    <row r="633" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -24047,7 +24270,7 @@
       <c r="AB633" s="2"/>
       <c r="AC633" s="2"/>
     </row>
-    <row r="634" spans="1:29" ht="21.6">
+    <row r="634" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -24078,7 +24301,7 @@
       <c r="AB634" s="2"/>
       <c r="AC634" s="2"/>
     </row>
-    <row r="635" spans="1:29" ht="21.6">
+    <row r="635" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -24109,7 +24332,7 @@
       <c r="AB635" s="2"/>
       <c r="AC635" s="2"/>
     </row>
-    <row r="636" spans="1:29" ht="21.6">
+    <row r="636" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -24140,7 +24363,7 @@
       <c r="AB636" s="2"/>
       <c r="AC636" s="2"/>
     </row>
-    <row r="637" spans="1:29" ht="21.6">
+    <row r="637" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -24171,7 +24394,7 @@
       <c r="AB637" s="2"/>
       <c r="AC637" s="2"/>
     </row>
-    <row r="638" spans="1:29" ht="21.6">
+    <row r="638" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -24202,7 +24425,7 @@
       <c r="AB638" s="2"/>
       <c r="AC638" s="2"/>
     </row>
-    <row r="639" spans="1:29" ht="21.6">
+    <row r="639" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -24233,7 +24456,7 @@
       <c r="AB639" s="2"/>
       <c r="AC639" s="2"/>
     </row>
-    <row r="640" spans="1:29" ht="21.6">
+    <row r="640" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -24264,7 +24487,7 @@
       <c r="AB640" s="2"/>
       <c r="AC640" s="2"/>
     </row>
-    <row r="641" spans="1:29" ht="21.6">
+    <row r="641" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -24295,7 +24518,7 @@
       <c r="AB641" s="2"/>
       <c r="AC641" s="2"/>
     </row>
-    <row r="642" spans="1:29" ht="21.6">
+    <row r="642" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -24326,7 +24549,7 @@
       <c r="AB642" s="2"/>
       <c r="AC642" s="2"/>
     </row>
-    <row r="643" spans="1:29" ht="21.6">
+    <row r="643" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -24357,7 +24580,7 @@
       <c r="AB643" s="2"/>
       <c r="AC643" s="2"/>
     </row>
-    <row r="644" spans="1:29" ht="21.6">
+    <row r="644" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -24388,7 +24611,7 @@
       <c r="AB644" s="2"/>
       <c r="AC644" s="2"/>
     </row>
-    <row r="645" spans="1:29" ht="21.6">
+    <row r="645" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -24419,7 +24642,7 @@
       <c r="AB645" s="2"/>
       <c r="AC645" s="2"/>
     </row>
-    <row r="646" spans="1:29" ht="21.6">
+    <row r="646" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -24450,7 +24673,7 @@
       <c r="AB646" s="2"/>
       <c r="AC646" s="2"/>
     </row>
-    <row r="647" spans="1:29" ht="21.6">
+    <row r="647" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -24481,7 +24704,7 @@
       <c r="AB647" s="2"/>
       <c r="AC647" s="2"/>
     </row>
-    <row r="648" spans="1:29" ht="21.6">
+    <row r="648" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -24512,7 +24735,7 @@
       <c r="AB648" s="2"/>
       <c r="AC648" s="2"/>
     </row>
-    <row r="649" spans="1:29" ht="21.6">
+    <row r="649" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -24543,7 +24766,7 @@
       <c r="AB649" s="2"/>
       <c r="AC649" s="2"/>
     </row>
-    <row r="650" spans="1:29" ht="21.6">
+    <row r="650" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -24574,7 +24797,7 @@
       <c r="AB650" s="2"/>
       <c r="AC650" s="2"/>
     </row>
-    <row r="651" spans="1:29" ht="21.6">
+    <row r="651" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -24605,7 +24828,7 @@
       <c r="AB651" s="2"/>
       <c r="AC651" s="2"/>
     </row>
-    <row r="652" spans="1:29" ht="21.6">
+    <row r="652" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -24636,7 +24859,7 @@
       <c r="AB652" s="2"/>
       <c r="AC652" s="2"/>
     </row>
-    <row r="653" spans="1:29" ht="21.6">
+    <row r="653" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -24667,7 +24890,7 @@
       <c r="AB653" s="2"/>
       <c r="AC653" s="2"/>
     </row>
-    <row r="654" spans="1:29" ht="21.6">
+    <row r="654" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -24698,7 +24921,7 @@
       <c r="AB654" s="2"/>
       <c r="AC654" s="2"/>
     </row>
-    <row r="655" spans="1:29" ht="21.6">
+    <row r="655" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -24729,7 +24952,7 @@
       <c r="AB655" s="2"/>
       <c r="AC655" s="2"/>
     </row>
-    <row r="656" spans="1:29" ht="21.6">
+    <row r="656" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -24760,7 +24983,7 @@
       <c r="AB656" s="2"/>
       <c r="AC656" s="2"/>
     </row>
-    <row r="657" spans="1:29" ht="21.6">
+    <row r="657" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -24791,7 +25014,7 @@
       <c r="AB657" s="2"/>
       <c r="AC657" s="2"/>
     </row>
-    <row r="658" spans="1:29" ht="21.6">
+    <row r="658" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -24822,7 +25045,7 @@
       <c r="AB658" s="2"/>
       <c r="AC658" s="2"/>
     </row>
-    <row r="659" spans="1:29" ht="21.6">
+    <row r="659" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -24853,7 +25076,7 @@
       <c r="AB659" s="2"/>
       <c r="AC659" s="2"/>
     </row>
-    <row r="660" spans="1:29" ht="21.6">
+    <row r="660" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -24884,7 +25107,7 @@
       <c r="AB660" s="2"/>
       <c r="AC660" s="2"/>
     </row>
-    <row r="661" spans="1:29" ht="21.6">
+    <row r="661" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -24915,7 +25138,7 @@
       <c r="AB661" s="2"/>
       <c r="AC661" s="2"/>
     </row>
-    <row r="662" spans="1:29" ht="21.6">
+    <row r="662" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -24946,7 +25169,7 @@
       <c r="AB662" s="2"/>
       <c r="AC662" s="2"/>
     </row>
-    <row r="663" spans="1:29" ht="21.6">
+    <row r="663" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -24977,7 +25200,7 @@
       <c r="AB663" s="2"/>
       <c r="AC663" s="2"/>
     </row>
-    <row r="664" spans="1:29" ht="21.6">
+    <row r="664" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -25008,7 +25231,7 @@
       <c r="AB664" s="2"/>
       <c r="AC664" s="2"/>
     </row>
-    <row r="665" spans="1:29" ht="21.6">
+    <row r="665" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -25039,7 +25262,7 @@
       <c r="AB665" s="2"/>
       <c r="AC665" s="2"/>
     </row>
-    <row r="666" spans="1:29" ht="21.6">
+    <row r="666" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -25070,7 +25293,7 @@
       <c r="AB666" s="2"/>
       <c r="AC666" s="2"/>
     </row>
-    <row r="667" spans="1:29" ht="21.6">
+    <row r="667" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -25101,7 +25324,7 @@
       <c r="AB667" s="2"/>
       <c r="AC667" s="2"/>
     </row>
-    <row r="668" spans="1:29" ht="21.6">
+    <row r="668" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -25132,7 +25355,7 @@
       <c r="AB668" s="2"/>
       <c r="AC668" s="2"/>
     </row>
-    <row r="669" spans="1:29" ht="21.6">
+    <row r="669" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -25163,7 +25386,7 @@
       <c r="AB669" s="2"/>
       <c r="AC669" s="2"/>
     </row>
-    <row r="670" spans="1:29" ht="21.6">
+    <row r="670" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -25194,7 +25417,7 @@
       <c r="AB670" s="2"/>
       <c r="AC670" s="2"/>
     </row>
-    <row r="671" spans="1:29" ht="21.6">
+    <row r="671" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -25225,7 +25448,7 @@
       <c r="AB671" s="2"/>
       <c r="AC671" s="2"/>
     </row>
-    <row r="672" spans="1:29" ht="21.6">
+    <row r="672" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -25256,7 +25479,7 @@
       <c r="AB672" s="2"/>
       <c r="AC672" s="2"/>
     </row>
-    <row r="673" spans="1:29" ht="21.6">
+    <row r="673" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -25287,7 +25510,7 @@
       <c r="AB673" s="2"/>
       <c r="AC673" s="2"/>
     </row>
-    <row r="674" spans="1:29" ht="21.6">
+    <row r="674" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -25318,7 +25541,7 @@
       <c r="AB674" s="2"/>
       <c r="AC674" s="2"/>
     </row>
-    <row r="675" spans="1:29" ht="21.6">
+    <row r="675" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -25349,7 +25572,7 @@
       <c r="AB675" s="2"/>
       <c r="AC675" s="2"/>
     </row>
-    <row r="676" spans="1:29" ht="21.6">
+    <row r="676" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -25380,7 +25603,7 @@
       <c r="AB676" s="2"/>
       <c r="AC676" s="2"/>
     </row>
-    <row r="677" spans="1:29" ht="21.6">
+    <row r="677" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -25411,7 +25634,7 @@
       <c r="AB677" s="2"/>
       <c r="AC677" s="2"/>
     </row>
-    <row r="678" spans="1:29" ht="21.6">
+    <row r="678" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -25442,7 +25665,7 @@
       <c r="AB678" s="2"/>
       <c r="AC678" s="2"/>
     </row>
-    <row r="679" spans="1:29" ht="21.6">
+    <row r="679" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -25473,7 +25696,7 @@
       <c r="AB679" s="2"/>
       <c r="AC679" s="2"/>
     </row>
-    <row r="680" spans="1:29" ht="21.6">
+    <row r="680" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -25504,7 +25727,7 @@
       <c r="AB680" s="2"/>
       <c r="AC680" s="2"/>
     </row>
-    <row r="681" spans="1:29" ht="21.6">
+    <row r="681" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -25535,7 +25758,7 @@
       <c r="AB681" s="2"/>
       <c r="AC681" s="2"/>
     </row>
-    <row r="682" spans="1:29" ht="21.6">
+    <row r="682" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -25566,7 +25789,7 @@
       <c r="AB682" s="2"/>
       <c r="AC682" s="2"/>
     </row>
-    <row r="683" spans="1:29" ht="21.6">
+    <row r="683" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -25597,7 +25820,7 @@
       <c r="AB683" s="2"/>
       <c r="AC683" s="2"/>
     </row>
-    <row r="684" spans="1:29" ht="21.6">
+    <row r="684" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -25628,7 +25851,7 @@
       <c r="AB684" s="2"/>
       <c r="AC684" s="2"/>
     </row>
-    <row r="685" spans="1:29" ht="21.6">
+    <row r="685" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -25659,7 +25882,7 @@
       <c r="AB685" s="2"/>
       <c r="AC685" s="2"/>
     </row>
-    <row r="686" spans="1:29" ht="21.6">
+    <row r="686" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -25690,7 +25913,7 @@
       <c r="AB686" s="2"/>
       <c r="AC686" s="2"/>
     </row>
-    <row r="687" spans="1:29" ht="21.6">
+    <row r="687" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -25721,7 +25944,7 @@
       <c r="AB687" s="2"/>
       <c r="AC687" s="2"/>
     </row>
-    <row r="688" spans="1:29" ht="21.6">
+    <row r="688" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -25752,7 +25975,7 @@
       <c r="AB688" s="2"/>
       <c r="AC688" s="2"/>
     </row>
-    <row r="689" spans="1:29" ht="21.6">
+    <row r="689" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -25783,7 +26006,7 @@
       <c r="AB689" s="2"/>
       <c r="AC689" s="2"/>
     </row>
-    <row r="690" spans="1:29" ht="21.6">
+    <row r="690" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -25814,7 +26037,7 @@
       <c r="AB690" s="2"/>
       <c r="AC690" s="2"/>
     </row>
-    <row r="691" spans="1:29" ht="21.6">
+    <row r="691" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -25845,7 +26068,7 @@
       <c r="AB691" s="2"/>
       <c r="AC691" s="2"/>
     </row>
-    <row r="692" spans="1:29" ht="21.6">
+    <row r="692" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -25876,7 +26099,7 @@
       <c r="AB692" s="2"/>
       <c r="AC692" s="2"/>
     </row>
-    <row r="693" spans="1:29" ht="21.6">
+    <row r="693" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -25907,7 +26130,7 @@
       <c r="AB693" s="2"/>
       <c r="AC693" s="2"/>
     </row>
-    <row r="694" spans="1:29" ht="21.6">
+    <row r="694" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -25938,7 +26161,7 @@
       <c r="AB694" s="2"/>
       <c r="AC694" s="2"/>
     </row>
-    <row r="695" spans="1:29" ht="21.6">
+    <row r="695" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -25969,7 +26192,7 @@
       <c r="AB695" s="2"/>
       <c r="AC695" s="2"/>
     </row>
-    <row r="696" spans="1:29" ht="21.6">
+    <row r="696" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -26000,7 +26223,7 @@
       <c r="AB696" s="2"/>
       <c r="AC696" s="2"/>
     </row>
-    <row r="697" spans="1:29" ht="21.6">
+    <row r="697" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -26031,7 +26254,7 @@
       <c r="AB697" s="2"/>
       <c r="AC697" s="2"/>
     </row>
-    <row r="698" spans="1:29" ht="21.6">
+    <row r="698" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -26062,7 +26285,7 @@
       <c r="AB698" s="2"/>
       <c r="AC698" s="2"/>
     </row>
-    <row r="699" spans="1:29" ht="21.6">
+    <row r="699" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -26093,7 +26316,7 @@
       <c r="AB699" s="2"/>
       <c r="AC699" s="2"/>
     </row>
-    <row r="700" spans="1:29" ht="21.6">
+    <row r="700" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -26124,7 +26347,7 @@
       <c r="AB700" s="2"/>
       <c r="AC700" s="2"/>
     </row>
-    <row r="701" spans="1:29" ht="21.6">
+    <row r="701" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -26155,7 +26378,7 @@
       <c r="AB701" s="2"/>
       <c r="AC701" s="2"/>
     </row>
-    <row r="702" spans="1:29" ht="21.6">
+    <row r="702" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -26186,7 +26409,7 @@
       <c r="AB702" s="2"/>
       <c r="AC702" s="2"/>
     </row>
-    <row r="703" spans="1:29" ht="21.6">
+    <row r="703" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -26217,7 +26440,7 @@
       <c r="AB703" s="2"/>
       <c r="AC703" s="2"/>
     </row>
-    <row r="704" spans="1:29" ht="21.6">
+    <row r="704" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -26248,7 +26471,7 @@
       <c r="AB704" s="2"/>
       <c r="AC704" s="2"/>
     </row>
-    <row r="705" spans="1:29" ht="21.6">
+    <row r="705" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -26279,7 +26502,7 @@
       <c r="AB705" s="2"/>
       <c r="AC705" s="2"/>
     </row>
-    <row r="706" spans="1:29" ht="21.6">
+    <row r="706" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -26310,7 +26533,7 @@
       <c r="AB706" s="2"/>
       <c r="AC706" s="2"/>
     </row>
-    <row r="707" spans="1:29" ht="21.6">
+    <row r="707" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -26341,7 +26564,7 @@
       <c r="AB707" s="2"/>
       <c r="AC707" s="2"/>
     </row>
-    <row r="708" spans="1:29" ht="21.6">
+    <row r="708" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -26372,7 +26595,7 @@
       <c r="AB708" s="2"/>
       <c r="AC708" s="2"/>
     </row>
-    <row r="709" spans="1:29" ht="21.6">
+    <row r="709" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -26403,7 +26626,7 @@
       <c r="AB709" s="2"/>
       <c r="AC709" s="2"/>
     </row>
-    <row r="710" spans="1:29" ht="21.6">
+    <row r="710" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -26434,7 +26657,7 @@
       <c r="AB710" s="2"/>
       <c r="AC710" s="2"/>
     </row>
-    <row r="711" spans="1:29" ht="21.6">
+    <row r="711" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -26465,7 +26688,7 @@
       <c r="AB711" s="2"/>
       <c r="AC711" s="2"/>
     </row>
-    <row r="712" spans="1:29" ht="21.6">
+    <row r="712" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -26496,7 +26719,7 @@
       <c r="AB712" s="2"/>
       <c r="AC712" s="2"/>
     </row>
-    <row r="713" spans="1:29" ht="21.6">
+    <row r="713" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -26527,7 +26750,7 @@
       <c r="AB713" s="2"/>
       <c r="AC713" s="2"/>
     </row>
-    <row r="714" spans="1:29" ht="21.6">
+    <row r="714" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -26558,7 +26781,7 @@
       <c r="AB714" s="2"/>
       <c r="AC714" s="2"/>
     </row>
-    <row r="715" spans="1:29" ht="21.6">
+    <row r="715" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -26589,7 +26812,7 @@
       <c r="AB715" s="2"/>
       <c r="AC715" s="2"/>
     </row>
-    <row r="716" spans="1:29" ht="21.6">
+    <row r="716" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -26620,7 +26843,7 @@
       <c r="AB716" s="2"/>
       <c r="AC716" s="2"/>
     </row>
-    <row r="717" spans="1:29" ht="21.6">
+    <row r="717" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -26651,7 +26874,7 @@
       <c r="AB717" s="2"/>
       <c r="AC717" s="2"/>
     </row>
-    <row r="718" spans="1:29" ht="21.6">
+    <row r="718" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -26682,7 +26905,7 @@
       <c r="AB718" s="2"/>
       <c r="AC718" s="2"/>
     </row>
-    <row r="719" spans="1:29" ht="21.6">
+    <row r="719" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -26713,7 +26936,7 @@
       <c r="AB719" s="2"/>
       <c r="AC719" s="2"/>
     </row>
-    <row r="720" spans="1:29" ht="21.6">
+    <row r="720" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -26744,7 +26967,7 @@
       <c r="AB720" s="2"/>
       <c r="AC720" s="2"/>
     </row>
-    <row r="721" spans="1:29" ht="21.6">
+    <row r="721" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -26775,7 +26998,7 @@
       <c r="AB721" s="2"/>
       <c r="AC721" s="2"/>
     </row>
-    <row r="722" spans="1:29" ht="21.6">
+    <row r="722" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -26806,7 +27029,7 @@
       <c r="AB722" s="2"/>
       <c r="AC722" s="2"/>
     </row>
-    <row r="723" spans="1:29" ht="21.6">
+    <row r="723" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -26837,7 +27060,7 @@
       <c r="AB723" s="2"/>
       <c r="AC723" s="2"/>
     </row>
-    <row r="724" spans="1:29" ht="21.6">
+    <row r="724" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -26868,7 +27091,7 @@
       <c r="AB724" s="2"/>
       <c r="AC724" s="2"/>
     </row>
-    <row r="725" spans="1:29" ht="21.6">
+    <row r="725" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -26899,7 +27122,7 @@
       <c r="AB725" s="2"/>
       <c r="AC725" s="2"/>
     </row>
-    <row r="726" spans="1:29" ht="21.6">
+    <row r="726" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -26930,7 +27153,7 @@
       <c r="AB726" s="2"/>
       <c r="AC726" s="2"/>
     </row>
-    <row r="727" spans="1:29" ht="21.6">
+    <row r="727" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -26961,7 +27184,7 @@
       <c r="AB727" s="2"/>
       <c r="AC727" s="2"/>
     </row>
-    <row r="728" spans="1:29" ht="21.6">
+    <row r="728" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -26992,7 +27215,7 @@
       <c r="AB728" s="2"/>
       <c r="AC728" s="2"/>
     </row>
-    <row r="729" spans="1:29" ht="21.6">
+    <row r="729" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -27023,7 +27246,7 @@
       <c r="AB729" s="2"/>
       <c r="AC729" s="2"/>
     </row>
-    <row r="730" spans="1:29" ht="21.6">
+    <row r="730" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -27054,7 +27277,7 @@
       <c r="AB730" s="2"/>
       <c r="AC730" s="2"/>
     </row>
-    <row r="731" spans="1:29" ht="21.6">
+    <row r="731" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -27085,7 +27308,7 @@
       <c r="AB731" s="2"/>
       <c r="AC731" s="2"/>
     </row>
-    <row r="732" spans="1:29" ht="21.6">
+    <row r="732" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -27116,7 +27339,7 @@
       <c r="AB732" s="2"/>
       <c r="AC732" s="2"/>
     </row>
-    <row r="733" spans="1:29" ht="21.6">
+    <row r="733" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -27147,7 +27370,7 @@
       <c r="AB733" s="2"/>
       <c r="AC733" s="2"/>
     </row>
-    <row r="734" spans="1:29" ht="21.6">
+    <row r="734" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -27178,7 +27401,7 @@
       <c r="AB734" s="2"/>
       <c r="AC734" s="2"/>
     </row>
-    <row r="735" spans="1:29" ht="21.6">
+    <row r="735" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -27209,7 +27432,7 @@
       <c r="AB735" s="2"/>
       <c r="AC735" s="2"/>
     </row>
-    <row r="736" spans="1:29" ht="21.6">
+    <row r="736" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -27240,7 +27463,7 @@
       <c r="AB736" s="2"/>
       <c r="AC736" s="2"/>
     </row>
-    <row r="737" spans="1:29" ht="21.6">
+    <row r="737" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -27271,7 +27494,7 @@
       <c r="AB737" s="2"/>
       <c r="AC737" s="2"/>
     </row>
-    <row r="738" spans="1:29" ht="21.6">
+    <row r="738" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -27302,7 +27525,7 @@
       <c r="AB738" s="2"/>
       <c r="AC738" s="2"/>
     </row>
-    <row r="739" spans="1:29" ht="21.6">
+    <row r="739" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -27333,7 +27556,7 @@
       <c r="AB739" s="2"/>
       <c r="AC739" s="2"/>
     </row>
-    <row r="740" spans="1:29" ht="21.6">
+    <row r="740" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -27364,7 +27587,7 @@
       <c r="AB740" s="2"/>
       <c r="AC740" s="2"/>
     </row>
-    <row r="741" spans="1:29" ht="21.6">
+    <row r="741" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -27395,7 +27618,7 @@
       <c r="AB741" s="2"/>
       <c r="AC741" s="2"/>
     </row>
-    <row r="742" spans="1:29" ht="21.6">
+    <row r="742" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -27426,7 +27649,7 @@
       <c r="AB742" s="2"/>
       <c r="AC742" s="2"/>
     </row>
-    <row r="743" spans="1:29" ht="21.6">
+    <row r="743" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -27457,7 +27680,7 @@
       <c r="AB743" s="2"/>
       <c r="AC743" s="2"/>
     </row>
-    <row r="744" spans="1:29" ht="21.6">
+    <row r="744" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -27488,7 +27711,7 @@
       <c r="AB744" s="2"/>
       <c r="AC744" s="2"/>
     </row>
-    <row r="745" spans="1:29" ht="21.6">
+    <row r="745" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -27519,7 +27742,7 @@
       <c r="AB745" s="2"/>
       <c r="AC745" s="2"/>
     </row>
-    <row r="746" spans="1:29" ht="21.6">
+    <row r="746" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -27550,7 +27773,7 @@
       <c r="AB746" s="2"/>
       <c r="AC746" s="2"/>
     </row>
-    <row r="747" spans="1:29" ht="21.6">
+    <row r="747" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -27581,7 +27804,7 @@
       <c r="AB747" s="2"/>
       <c r="AC747" s="2"/>
     </row>
-    <row r="748" spans="1:29" ht="21.6">
+    <row r="748" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -27612,7 +27835,7 @@
       <c r="AB748" s="2"/>
       <c r="AC748" s="2"/>
     </row>
-    <row r="749" spans="1:29" ht="21.6">
+    <row r="749" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -27643,7 +27866,7 @@
       <c r="AB749" s="2"/>
       <c r="AC749" s="2"/>
     </row>
-    <row r="750" spans="1:29" ht="21.6">
+    <row r="750" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -27674,7 +27897,7 @@
       <c r="AB750" s="2"/>
       <c r="AC750" s="2"/>
     </row>
-    <row r="751" spans="1:29" ht="21.6">
+    <row r="751" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -27705,7 +27928,7 @@
       <c r="AB751" s="2"/>
       <c r="AC751" s="2"/>
     </row>
-    <row r="752" spans="1:29" ht="21.6">
+    <row r="752" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -27736,7 +27959,7 @@
       <c r="AB752" s="2"/>
       <c r="AC752" s="2"/>
     </row>
-    <row r="753" spans="1:29" ht="21.6">
+    <row r="753" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -27767,7 +27990,7 @@
       <c r="AB753" s="2"/>
       <c r="AC753" s="2"/>
     </row>
-    <row r="754" spans="1:29" ht="21.6">
+    <row r="754" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -27798,7 +28021,7 @@
       <c r="AB754" s="2"/>
       <c r="AC754" s="2"/>
     </row>
-    <row r="755" spans="1:29" ht="21.6">
+    <row r="755" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -27829,7 +28052,7 @@
       <c r="AB755" s="2"/>
       <c r="AC755" s="2"/>
     </row>
-    <row r="756" spans="1:29" ht="21.6">
+    <row r="756" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -27860,7 +28083,7 @@
       <c r="AB756" s="2"/>
       <c r="AC756" s="2"/>
     </row>
-    <row r="757" spans="1:29" ht="21.6">
+    <row r="757" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -27891,7 +28114,7 @@
       <c r="AB757" s="2"/>
       <c r="AC757" s="2"/>
     </row>
-    <row r="758" spans="1:29" ht="21.6">
+    <row r="758" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -27922,7 +28145,7 @@
       <c r="AB758" s="2"/>
       <c r="AC758" s="2"/>
     </row>
-    <row r="759" spans="1:29" ht="21.6">
+    <row r="759" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -27953,7 +28176,7 @@
       <c r="AB759" s="2"/>
       <c r="AC759" s="2"/>
     </row>
-    <row r="760" spans="1:29" ht="21.6">
+    <row r="760" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -27984,7 +28207,7 @@
       <c r="AB760" s="2"/>
       <c r="AC760" s="2"/>
     </row>
-    <row r="761" spans="1:29" ht="21.6">
+    <row r="761" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -28015,7 +28238,7 @@
       <c r="AB761" s="2"/>
       <c r="AC761" s="2"/>
     </row>
-    <row r="762" spans="1:29" ht="21.6">
+    <row r="762" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -28046,7 +28269,7 @@
       <c r="AB762" s="2"/>
       <c r="AC762" s="2"/>
     </row>
-    <row r="763" spans="1:29" ht="21.6">
+    <row r="763" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -28077,7 +28300,7 @@
       <c r="AB763" s="2"/>
       <c r="AC763" s="2"/>
     </row>
-    <row r="764" spans="1:29" ht="21.6">
+    <row r="764" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -28108,7 +28331,7 @@
       <c r="AB764" s="2"/>
       <c r="AC764" s="2"/>
     </row>
-    <row r="765" spans="1:29" ht="21.6">
+    <row r="765" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -28139,7 +28362,7 @@
       <c r="AB765" s="2"/>
       <c r="AC765" s="2"/>
     </row>
-    <row r="766" spans="1:29" ht="21.6">
+    <row r="766" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -28170,7 +28393,7 @@
       <c r="AB766" s="2"/>
       <c r="AC766" s="2"/>
     </row>
-    <row r="767" spans="1:29" ht="21.6">
+    <row r="767" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -28201,7 +28424,7 @@
       <c r="AB767" s="2"/>
       <c r="AC767" s="2"/>
     </row>
-    <row r="768" spans="1:29" ht="21.6">
+    <row r="768" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -28232,7 +28455,7 @@
       <c r="AB768" s="2"/>
       <c r="AC768" s="2"/>
     </row>
-    <row r="769" spans="1:29" ht="21.6">
+    <row r="769" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -28263,7 +28486,7 @@
       <c r="AB769" s="2"/>
       <c r="AC769" s="2"/>
     </row>
-    <row r="770" spans="1:29" ht="21.6">
+    <row r="770" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -28294,7 +28517,7 @@
       <c r="AB770" s="2"/>
       <c r="AC770" s="2"/>
     </row>
-    <row r="771" spans="1:29" ht="21.6">
+    <row r="771" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -28325,7 +28548,7 @@
       <c r="AB771" s="2"/>
       <c r="AC771" s="2"/>
     </row>
-    <row r="772" spans="1:29" ht="21.6">
+    <row r="772" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -28356,7 +28579,7 @@
       <c r="AB772" s="2"/>
       <c r="AC772" s="2"/>
     </row>
-    <row r="773" spans="1:29" ht="21.6">
+    <row r="773" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -28387,7 +28610,7 @@
       <c r="AB773" s="2"/>
       <c r="AC773" s="2"/>
     </row>
-    <row r="774" spans="1:29" ht="21.6">
+    <row r="774" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -28418,7 +28641,7 @@
       <c r="AB774" s="2"/>
       <c r="AC774" s="2"/>
     </row>
-    <row r="775" spans="1:29" ht="21.6">
+    <row r="775" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -28449,7 +28672,7 @@
       <c r="AB775" s="2"/>
       <c r="AC775" s="2"/>
     </row>
-    <row r="776" spans="1:29" ht="21.6">
+    <row r="776" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -28480,7 +28703,7 @@
       <c r="AB776" s="2"/>
       <c r="AC776" s="2"/>
     </row>
-    <row r="777" spans="1:29" ht="21.6">
+    <row r="777" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -28511,7 +28734,7 @@
       <c r="AB777" s="2"/>
       <c r="AC777" s="2"/>
     </row>
-    <row r="778" spans="1:29" ht="21.6">
+    <row r="778" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -28542,7 +28765,7 @@
       <c r="AB778" s="2"/>
       <c r="AC778" s="2"/>
     </row>
-    <row r="779" spans="1:29" ht="21.6">
+    <row r="779" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -28573,7 +28796,7 @@
       <c r="AB779" s="2"/>
       <c r="AC779" s="2"/>
     </row>
-    <row r="780" spans="1:29" ht="21.6">
+    <row r="780" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -28604,7 +28827,7 @@
       <c r="AB780" s="2"/>
       <c r="AC780" s="2"/>
     </row>
-    <row r="781" spans="1:29" ht="21.6">
+    <row r="781" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -28635,7 +28858,7 @@
       <c r="AB781" s="2"/>
       <c r="AC781" s="2"/>
     </row>
-    <row r="782" spans="1:29" ht="21.6">
+    <row r="782" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -28666,7 +28889,7 @@
       <c r="AB782" s="2"/>
       <c r="AC782" s="2"/>
     </row>
-    <row r="783" spans="1:29" ht="21.6">
+    <row r="783" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -28697,7 +28920,7 @@
       <c r="AB783" s="2"/>
       <c r="AC783" s="2"/>
     </row>
-    <row r="784" spans="1:29" ht="21.6">
+    <row r="784" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -28728,7 +28951,7 @@
       <c r="AB784" s="2"/>
       <c r="AC784" s="2"/>
     </row>
-    <row r="785" spans="1:29" ht="21.6">
+    <row r="785" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -28759,7 +28982,7 @@
       <c r="AB785" s="2"/>
       <c r="AC785" s="2"/>
     </row>
-    <row r="786" spans="1:29" ht="21.6">
+    <row r="786" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -28790,7 +29013,7 @@
       <c r="AB786" s="2"/>
       <c r="AC786" s="2"/>
     </row>
-    <row r="787" spans="1:29" ht="21.6">
+    <row r="787" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -28821,7 +29044,7 @@
       <c r="AB787" s="2"/>
       <c r="AC787" s="2"/>
     </row>
-    <row r="788" spans="1:29" ht="21.6">
+    <row r="788" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -28852,7 +29075,7 @@
       <c r="AB788" s="2"/>
       <c r="AC788" s="2"/>
     </row>
-    <row r="789" spans="1:29" ht="21.6">
+    <row r="789" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -28883,7 +29106,7 @@
       <c r="AB789" s="2"/>
       <c r="AC789" s="2"/>
     </row>
-    <row r="790" spans="1:29" ht="21.6">
+    <row r="790" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -28914,7 +29137,7 @@
       <c r="AB790" s="2"/>
       <c r="AC790" s="2"/>
     </row>
-    <row r="791" spans="1:29" ht="21.6">
+    <row r="791" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -28945,7 +29168,7 @@
       <c r="AB791" s="2"/>
       <c r="AC791" s="2"/>
     </row>
-    <row r="792" spans="1:29" ht="21.6">
+    <row r="792" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -28976,7 +29199,7 @@
       <c r="AB792" s="2"/>
       <c r="AC792" s="2"/>
     </row>
-    <row r="793" spans="1:29" ht="21.6">
+    <row r="793" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -29007,7 +29230,7 @@
       <c r="AB793" s="2"/>
       <c r="AC793" s="2"/>
     </row>
-    <row r="794" spans="1:29" ht="21.6">
+    <row r="794" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -29038,7 +29261,7 @@
       <c r="AB794" s="2"/>
       <c r="AC794" s="2"/>
     </row>
-    <row r="795" spans="1:29" ht="21.6">
+    <row r="795" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -29069,7 +29292,7 @@
       <c r="AB795" s="2"/>
       <c r="AC795" s="2"/>
     </row>
-    <row r="796" spans="1:29" ht="21.6">
+    <row r="796" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -29100,7 +29323,7 @@
       <c r="AB796" s="2"/>
       <c r="AC796" s="2"/>
     </row>
-    <row r="797" spans="1:29" ht="21.6">
+    <row r="797" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -29131,7 +29354,7 @@
       <c r="AB797" s="2"/>
       <c r="AC797" s="2"/>
     </row>
-    <row r="798" spans="1:29" ht="21.6">
+    <row r="798" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -29162,7 +29385,7 @@
       <c r="AB798" s="2"/>
       <c r="AC798" s="2"/>
     </row>
-    <row r="799" spans="1:29" ht="21.6">
+    <row r="799" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -29193,7 +29416,7 @@
       <c r="AB799" s="2"/>
       <c r="AC799" s="2"/>
     </row>
-    <row r="800" spans="1:29" ht="21.6">
+    <row r="800" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -29224,7 +29447,7 @@
       <c r="AB800" s="2"/>
       <c r="AC800" s="2"/>
     </row>
-    <row r="801" spans="1:29" ht="21.6">
+    <row r="801" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -29255,7 +29478,7 @@
       <c r="AB801" s="2"/>
       <c r="AC801" s="2"/>
     </row>
-    <row r="802" spans="1:29" ht="21.6">
+    <row r="802" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -29286,7 +29509,7 @@
       <c r="AB802" s="2"/>
       <c r="AC802" s="2"/>
     </row>
-    <row r="803" spans="1:29" ht="21.6">
+    <row r="803" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -29317,7 +29540,7 @@
       <c r="AB803" s="2"/>
       <c r="AC803" s="2"/>
     </row>
-    <row r="804" spans="1:29" ht="21.6">
+    <row r="804" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -29348,7 +29571,7 @@
       <c r="AB804" s="2"/>
       <c r="AC804" s="2"/>
     </row>
-    <row r="805" spans="1:29" ht="21.6">
+    <row r="805" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -29379,7 +29602,7 @@
       <c r="AB805" s="2"/>
       <c r="AC805" s="2"/>
     </row>
-    <row r="806" spans="1:29" ht="21.6">
+    <row r="806" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -29410,7 +29633,7 @@
       <c r="AB806" s="2"/>
       <c r="AC806" s="2"/>
     </row>
-    <row r="807" spans="1:29" ht="21.6">
+    <row r="807" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -29441,7 +29664,7 @@
       <c r="AB807" s="2"/>
       <c r="AC807" s="2"/>
     </row>
-    <row r="808" spans="1:29" ht="21.6">
+    <row r="808" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -29472,7 +29695,7 @@
       <c r="AB808" s="2"/>
       <c r="AC808" s="2"/>
     </row>
-    <row r="809" spans="1:29" ht="21.6">
+    <row r="809" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -29503,7 +29726,7 @@
       <c r="AB809" s="2"/>
       <c r="AC809" s="2"/>
     </row>
-    <row r="810" spans="1:29" ht="21.6">
+    <row r="810" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -29534,7 +29757,7 @@
       <c r="AB810" s="2"/>
       <c r="AC810" s="2"/>
     </row>
-    <row r="811" spans="1:29" ht="21.6">
+    <row r="811" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -29565,7 +29788,7 @@
       <c r="AB811" s="2"/>
       <c r="AC811" s="2"/>
     </row>
-    <row r="812" spans="1:29" ht="21.6">
+    <row r="812" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -29596,7 +29819,7 @@
       <c r="AB812" s="2"/>
       <c r="AC812" s="2"/>
     </row>
-    <row r="813" spans="1:29" ht="21.6">
+    <row r="813" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -29627,7 +29850,7 @@
       <c r="AB813" s="2"/>
       <c r="AC813" s="2"/>
     </row>
-    <row r="814" spans="1:29" ht="21.6">
+    <row r="814" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -29658,7 +29881,7 @@
       <c r="AB814" s="2"/>
       <c r="AC814" s="2"/>
     </row>
-    <row r="815" spans="1:29" ht="21.6">
+    <row r="815" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -29689,7 +29912,7 @@
       <c r="AB815" s="2"/>
       <c r="AC815" s="2"/>
     </row>
-    <row r="816" spans="1:29" ht="21.6">
+    <row r="816" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -29720,7 +29943,7 @@
       <c r="AB816" s="2"/>
       <c r="AC816" s="2"/>
     </row>
-    <row r="817" spans="1:29" ht="21.6">
+    <row r="817" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -29751,7 +29974,7 @@
       <c r="AB817" s="2"/>
       <c r="AC817" s="2"/>
     </row>
-    <row r="818" spans="1:29" ht="21.6">
+    <row r="818" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -29782,7 +30005,7 @@
       <c r="AB818" s="2"/>
       <c r="AC818" s="2"/>
     </row>
-    <row r="819" spans="1:29" ht="21.6">
+    <row r="819" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -29813,7 +30036,7 @@
       <c r="AB819" s="2"/>
       <c r="AC819" s="2"/>
     </row>
-    <row r="820" spans="1:29" ht="21.6">
+    <row r="820" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -29844,7 +30067,7 @@
       <c r="AB820" s="2"/>
       <c r="AC820" s="2"/>
     </row>
-    <row r="821" spans="1:29" ht="21.6">
+    <row r="821" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -29875,7 +30098,7 @@
       <c r="AB821" s="2"/>
       <c r="AC821" s="2"/>
     </row>
-    <row r="822" spans="1:29" ht="21.6">
+    <row r="822" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -29906,7 +30129,7 @@
       <c r="AB822" s="2"/>
       <c r="AC822" s="2"/>
     </row>
-    <row r="823" spans="1:29" ht="21.6">
+    <row r="823" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -29937,7 +30160,7 @@
       <c r="AB823" s="2"/>
       <c r="AC823" s="2"/>
     </row>
-    <row r="824" spans="1:29" ht="21.6">
+    <row r="824" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -29968,7 +30191,7 @@
       <c r="AB824" s="2"/>
       <c r="AC824" s="2"/>
     </row>
-    <row r="825" spans="1:29" ht="21.6">
+    <row r="825" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -29999,7 +30222,7 @@
       <c r="AB825" s="2"/>
       <c r="AC825" s="2"/>
     </row>
-    <row r="826" spans="1:29" ht="21.6">
+    <row r="826" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -30030,7 +30253,7 @@
       <c r="AB826" s="2"/>
       <c r="AC826" s="2"/>
     </row>
-    <row r="827" spans="1:29" ht="21.6">
+    <row r="827" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -30061,7 +30284,7 @@
       <c r="AB827" s="2"/>
       <c r="AC827" s="2"/>
     </row>
-    <row r="828" spans="1:29" ht="21.6">
+    <row r="828" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -30092,7 +30315,7 @@
       <c r="AB828" s="2"/>
       <c r="AC828" s="2"/>
     </row>
-    <row r="829" spans="1:29" ht="21.6">
+    <row r="829" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -30123,7 +30346,7 @@
       <c r="AB829" s="2"/>
       <c r="AC829" s="2"/>
     </row>
-    <row r="830" spans="1:29" ht="21.6">
+    <row r="830" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -30154,7 +30377,7 @@
       <c r="AB830" s="2"/>
       <c r="AC830" s="2"/>
     </row>
-    <row r="831" spans="1:29" ht="21.6">
+    <row r="831" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -30185,7 +30408,7 @@
       <c r="AB831" s="2"/>
       <c r="AC831" s="2"/>
     </row>
-    <row r="832" spans="1:29" ht="21.6">
+    <row r="832" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -30216,7 +30439,7 @@
       <c r="AB832" s="2"/>
       <c r="AC832" s="2"/>
     </row>
-    <row r="833" spans="1:29" ht="21.6">
+    <row r="833" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -30247,7 +30470,7 @@
       <c r="AB833" s="2"/>
       <c r="AC833" s="2"/>
     </row>
-    <row r="834" spans="1:29" ht="21.6">
+    <row r="834" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -30278,7 +30501,7 @@
       <c r="AB834" s="2"/>
       <c r="AC834" s="2"/>
     </row>
-    <row r="835" spans="1:29" ht="21.6">
+    <row r="835" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -30309,7 +30532,7 @@
       <c r="AB835" s="2"/>
       <c r="AC835" s="2"/>
     </row>
-    <row r="836" spans="1:29" ht="21.6">
+    <row r="836" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -30340,7 +30563,7 @@
       <c r="AB836" s="2"/>
       <c r="AC836" s="2"/>
     </row>
-    <row r="837" spans="1:29" ht="21.6">
+    <row r="837" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -30371,7 +30594,7 @@
       <c r="AB837" s="2"/>
       <c r="AC837" s="2"/>
     </row>
-    <row r="838" spans="1:29" ht="21.6">
+    <row r="838" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -30402,7 +30625,7 @@
       <c r="AB838" s="2"/>
       <c r="AC838" s="2"/>
     </row>
-    <row r="839" spans="1:29" ht="21.6">
+    <row r="839" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -30435,18 +30658,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A109:M109"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:M131"/>
-    <mergeCell ref="A152:M152"/>
-    <mergeCell ref="A173:M173"/>
+    <mergeCell ref="A88:M88"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A24:M24"/>
     <mergeCell ref="A67:M67"/>
     <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="A109:M109"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:M131"/>
+    <mergeCell ref="A152:M152"/>
+    <mergeCell ref="A173:M173"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Facebook TC.xlsx
+++ b/Facebook TC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user 32\Documents\GitHubRepositories\FWD-June2022-SIGproject\FWD-June2022-MobileTestingProject\FWD-June2022-MobileTestingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47707933-9C93-4825-A0F9-4FF42414C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294C012D-961D-4C72-96DA-F6416847729D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4C2D6F8-4CA4-432D-88A5-8CE106744DF9}"/>
+    <workbookView xWindow="8628" yWindow="3984" windowWidth="8856" windowHeight="6000" xr2:uid="{A4C2D6F8-4CA4-432D-88A5-8CE106744DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="546">
   <si>
     <t>Type</t>
   </si>
@@ -1922,12 +1923,61 @@
 -grid of media in current folder
 -camera button</t>
   </si>
+  <si>
+    <t>REQUIREMENTS TRACEABILITY MATRIX</t>
+  </si>
+  <si>
+    <t>PROJECT ID:</t>
+  </si>
+  <si>
+    <t>PROJECT TITLE:</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Test Suit ID</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Related Bug ID</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posts Positive Test Cases
+</t>
+  </si>
+  <si>
+    <t>Facebook_Mobile_001</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>1-a-i</t>
+  </si>
+  <si>
+    <t>1-a-ii</t>
+  </si>
+  <si>
+    <t>1-a-iii</t>
+  </si>
+  <si>
+    <t>1-b-i</t>
+  </si>
+  <si>
+    <t>1-a-viii</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1967,6 +2017,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="6"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1982,7 +2066,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2018,11 +2102,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2056,9 +2217,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3E15D7F0-D12E-400D-B799-497AEB02AE0E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2372,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EF27CA-CBBA-4131-970C-58EA77CF5F37}">
   <dimension ref="A1:AC839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="134.6640625" defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -9613,7 +9816,7 @@
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
     </row>
-    <row r="169" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>11</v>
       </c>
@@ -10015,7 +10218,7 @@
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
     </row>
-    <row r="179" spans="1:29" ht="21.6" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" ht="43.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>9</v>
       </c>
@@ -30658,6 +30861,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A109:M109"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:M131"/>
+    <mergeCell ref="A152:M152"/>
+    <mergeCell ref="A173:M173"/>
     <mergeCell ref="A88:M88"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A45:M45"/>
@@ -30665,13 +30873,313 @@
     <mergeCell ref="A24:M24"/>
     <mergeCell ref="A67:M67"/>
     <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A109:M109"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:M131"/>
-    <mergeCell ref="A152:M152"/>
-    <mergeCell ref="A173:M173"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C772887-C964-451B-A2C9-E9E5DD2208A2}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Facebook TC.xlsx
+++ b/Facebook TC.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user 32\Documents\GitHubRepositories\FWD-June2022-SIGproject\FWD-June2022-MobileTestingProject\FWD-June2022-MobileTestingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294C012D-961D-4C72-96DA-F6416847729D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A103648-711B-4451-AAC5-49876B505F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8628" yWindow="3984" windowWidth="8856" windowHeight="6000" xr2:uid="{A4C2D6F8-4CA4-432D-88A5-8CE106744DF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A4C2D6F8-4CA4-432D-88A5-8CE106744DF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test suites" sheetId="1" r:id="rId1"/>
+    <sheet name="RTM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="553">
   <si>
     <t>Type</t>
   </si>
@@ -1971,6 +1971,28 @@
   </si>
   <si>
     <t>1-a-viii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posts Negative Test Cases
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posts : GUI Test Cases </t>
+  </si>
+  <si>
+    <t>1-a</t>
+  </si>
+  <si>
+    <t>1-a-x</t>
+  </si>
+  <si>
+    <t>1-b</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2213,13 +2235,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2241,6 +2256,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2575,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EF27CA-CBBA-4131-970C-58EA77CF5F37}">
   <dimension ref="A1:AC839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="134.6640625" defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -2654,11 +2673,11 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2687,21 +2706,21 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -3439,7 +3458,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="69.599999999999994" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3484,7 +3503,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="69.599999999999994" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3529,7 +3548,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="69.599999999999994" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3574,7 +3593,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="69.599999999999994" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3620,21 +3639,21 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4553,21 +4572,21 @@
       <c r="AC44" s="2"/>
     </row>
     <row r="45" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -5486,11 +5505,11 @@
       <c r="AC65" s="2"/>
     </row>
     <row r="66" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -5519,21 +5538,21 @@
       <c r="AC66" s="2"/>
     </row>
     <row r="67" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -6452,21 +6471,21 @@
       <c r="AC87" s="2"/>
     </row>
     <row r="88" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -7385,21 +7404,21 @@
       <c r="AC108" s="2"/>
     </row>
     <row r="109" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
-      <c r="M109" s="11"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -8242,11 +8261,11 @@
       <c r="AC129" s="2"/>
     </row>
     <row r="130" spans="1:29" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="19"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -8275,21 +8294,21 @@
       <c r="AC130" s="2"/>
     </row>
     <row r="131" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -9128,21 +9147,21 @@
       <c r="AC151" s="2"/>
     </row>
     <row r="152" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
-      <c r="M152" s="11"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -9981,21 +10000,21 @@
       <c r="AC172" s="2"/>
     </row>
     <row r="173" spans="1:29" ht="21.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="11" t="s">
+      <c r="A173" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="11"/>
-      <c r="L173" s="11"/>
-      <c r="M173" s="11"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="18"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -30861,11 +30880,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A109:M109"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:M131"/>
-    <mergeCell ref="A152:M152"/>
-    <mergeCell ref="A173:M173"/>
     <mergeCell ref="A88:M88"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A45:M45"/>
@@ -30873,6 +30887,11 @@
     <mergeCell ref="A24:M24"/>
     <mergeCell ref="A67:M67"/>
     <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A109:M109"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:M131"/>
+    <mergeCell ref="A152:M152"/>
+    <mergeCell ref="A173:M173"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30881,304 +30900,982 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C772887-C964-451B-A2C9-E9E5DD2208A2}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="127.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B58" s="25"/>
+      <c r="C58" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B59" s="25"/>
+      <c r="C59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>551</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B46:B65"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:B25"/>
+    <mergeCell ref="B26:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
